--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F81C2FC-8A80-490E-9DA6-2ED074FC7B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F2AD6B-0BD7-4DE8-B444-87954311B398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -154,6 +154,72 @@
   </si>
   <si>
     <t>385125:385144</t>
+  </si>
+  <si>
+    <t>out of mem</t>
+  </si>
+  <si>
+    <t>ABM_run.11.4.22_5a</t>
+  </si>
+  <si>
+    <t>same as from yesterday, but a has increased processors to 5; holding pop, not generating repsuc</t>
+  </si>
+  <si>
+    <t>385684:385703</t>
+  </si>
+  <si>
+    <t>ABM_run.11.4.22_5b</t>
+  </si>
+  <si>
+    <t>385704:385723</t>
+  </si>
+  <si>
+    <t>ABM_run.11.3.22_4b</t>
+  </si>
+  <si>
+    <t>385724:385743</t>
+  </si>
+  <si>
+    <t>ABM_run.11.3.22_1b</t>
+  </si>
+  <si>
+    <t>same as from yesterday, not holding pop. 1 processor</t>
+  </si>
+  <si>
+    <t>385745:385764</t>
+  </si>
+  <si>
+    <t>ABM_run.11.3.22_3b</t>
+  </si>
+  <si>
+    <t>385768:385787</t>
+  </si>
+  <si>
+    <t>ABM_run.11.3.22_2b</t>
+  </si>
+  <si>
+    <t>mig=1, source pop heterozy is between .1-.2</t>
+  </si>
+  <si>
+    <t>385792:385811</t>
+  </si>
+  <si>
+    <t>ABM_run.11.3.22_2a</t>
+  </si>
+  <si>
+    <t>same as from yesterday, but a has increased memory to 16GB; holding pop, not generating repsuc</t>
+  </si>
+  <si>
+    <t>385816:385835</t>
+  </si>
+  <si>
+    <t>ABM_run.11.3.22_3a</t>
+  </si>
+  <si>
+    <t>new makefile; same as from yesterday, but a has increased memory to 16GB; holding pop, not generating repsuc</t>
+  </si>
+  <si>
+    <t>385845:385864</t>
   </si>
 </sst>
 </file>
@@ -195,8 +261,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,337 +544,1042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>500</v>
       </c>
       <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="L2">
         <v>1000</v>
       </c>
-      <c r="L2">
-        <v>9</v>
-      </c>
       <c r="M2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
         <v>250</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
       <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>500</v>
       </c>
       <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
         <v>1000</v>
       </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
       <c r="M3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
         <v>250</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>500</v>
       </c>
       <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
         <v>1000</v>
       </c>
-      <c r="L4">
-        <v>9</v>
-      </c>
       <c r="M4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
         <v>250</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5">
+        <v>1000</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>250</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>250</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>35</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
+      </c>
+      <c r="K7">
+        <v>500</v>
+      </c>
+      <c r="L7">
+        <v>1000</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>250</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="K8">
+        <v>500</v>
+      </c>
+      <c r="L8">
+        <v>1000</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>250</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>40</v>
       </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9">
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>250</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>500</v>
+      </c>
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10">
+        <v>1000</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>250</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11">
+        <v>500</v>
+      </c>
+      <c r="L11">
+        <v>1000</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>250</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12">
+        <v>500</v>
+      </c>
+      <c r="L12">
+        <v>1000</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>250</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>250</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
+      </c>
+      <c r="K14">
+        <v>500</v>
+      </c>
+      <c r="L14">
+        <v>1000</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>250</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>500</v>
+      </c>
+      <c r="K15">
+        <v>500</v>
+      </c>
+      <c r="L15">
+        <v>1000</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>250</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+      <c r="K16">
+        <v>500</v>
+      </c>
+      <c r="L16">
+        <v>1000</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>250</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>500</v>
+      </c>
+      <c r="K17">
+        <v>500</v>
+      </c>
+      <c r="L17">
+        <v>1000</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>250</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B64F533-030D-4E66-A4ED-48E00DA9C092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA9764-967B-49DE-9510-791BAA018341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,10 +307,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -1673,291 +1672,289 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2">
-        <v>500</v>
-      </c>
-      <c r="K18" s="2">
-        <v>500</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M18" s="2">
-        <v>9</v>
-      </c>
-      <c r="N18" s="2">
-        <v>2</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
-      <c r="P18" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2" t="s">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>500</v>
+      </c>
+      <c r="K18">
+        <v>500</v>
+      </c>
+      <c r="L18">
+        <v>1000</v>
+      </c>
+      <c r="M18">
+        <v>9</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>250</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>500</v>
-      </c>
-      <c r="K19" s="2">
-        <v>500</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M19" s="2">
-        <v>9</v>
-      </c>
-      <c r="N19" s="2">
-        <v>2</v>
-      </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
-      <c r="P19" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S19" s="2">
-        <v>0</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2" t="s">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>500</v>
+      </c>
+      <c r="K19">
+        <v>500</v>
+      </c>
+      <c r="L19">
+        <v>1000</v>
+      </c>
+      <c r="M19">
+        <v>9</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>250</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>500</v>
-      </c>
-      <c r="K20" s="2">
-        <v>500</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M20" s="2">
-        <v>9</v>
-      </c>
-      <c r="N20" s="2">
-        <v>2</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
-      <c r="P20" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2" t="s">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="K20">
+        <v>500</v>
+      </c>
+      <c r="L20">
+        <v>1000</v>
+      </c>
+      <c r="M20">
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>250</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2">
-        <v>500</v>
-      </c>
-      <c r="K21" s="2">
-        <v>500</v>
-      </c>
-      <c r="L21" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M21" s="2">
-        <v>9</v>
-      </c>
-      <c r="N21" s="2">
-        <v>2</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
-      <c r="P21" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2" t="s">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>500</v>
+      </c>
+      <c r="K21">
+        <v>500</v>
+      </c>
+      <c r="L21">
+        <v>1000</v>
+      </c>
+      <c r="M21">
+        <v>9</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>250</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2">
-        <v>500</v>
-      </c>
-      <c r="K22" s="2">
-        <v>500</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="2">
-        <v>9</v>
-      </c>
-      <c r="N22" s="2">
-        <v>2</v>
-      </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
-      <c r="P22" s="2">
-        <v>250</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2" t="s">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>500</v>
+      </c>
+      <c r="K22">
+        <v>500</v>
+      </c>
+      <c r="L22">
+        <v>1000</v>
+      </c>
+      <c r="M22">
+        <v>9</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>250</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA9764-967B-49DE-9510-791BAA018341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B7C5A9-65E8-49E8-8699-2EEF0CEB5732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -260,13 +271,107 @@
   </si>
   <si>
     <t>387753:387772</t>
+  </si>
+  <si>
+    <t>ABM_run.11.14.22_6a</t>
+  </si>
+  <si>
+    <t>390777:390796</t>
+  </si>
+  <si>
+    <t>ABM_run.11.14.22_7a</t>
+  </si>
+  <si>
+    <t>as above, plus running repsucc.R</t>
+  </si>
+  <si>
+    <t>as above, with new parameter set</t>
+  </si>
+  <si>
+    <t>390798:390817</t>
+  </si>
+  <si>
+    <t>ABM_run.11.14.22_8a</t>
+  </si>
+  <si>
+    <t>390818:390837</t>
+  </si>
+  <si>
+    <t>ABM_run.11.14.22_9a</t>
+  </si>
+  <si>
+    <t>390838:390857</t>
+  </si>
+  <si>
+    <t>next thing to change: crash intensity -- crash to 50 indv; consider if pulses should be changed then or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Might need to have a zero mig per generation for each of the different starting heterozygosities. </t>
+  </si>
+  <si>
+    <t>add life history (consider specific species- reintroduction programs) – OR 1 sp with somewhat different changes in values (krat stuff but instead, they die earlier or mature later)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Q: how much should you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>supplement before you create something new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?? –</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when does something that is supposed to help with management actually CHANGE THE POP TRAJECTORY</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">(crash pop to 50, add 250 indv in a pulse)– find point where extinction is likely </t>
+  </si>
+  <si>
+    <t>interested in seeing if management actually helps or if we are creating a new object. (null: does no migration and allowing pop to go back end up with the same pop trajectory?)</t>
+  </si>
+  <si>
+    <t>add different SNP types!</t>
+  </si>
+  <si>
+    <t>consider going additional years (to 300?)</t>
+  </si>
+  <si>
+    <t>increase reps to 100 (rep number given in R)</t>
+  </si>
+  <si>
+    <t>put the varying parameter sets in Cover.R rather than needing to manually change all the time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,8 +385,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,9 +433,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,59 +903,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>500</v>
-      </c>
-      <c r="K4">
-        <v>500</v>
-      </c>
-      <c r="L4">
-        <v>1000</v>
-      </c>
-      <c r="M4">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>250</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>500</v>
+      </c>
+      <c r="K4" s="2">
+        <v>500</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="2">
+        <v>9</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1672,287 +1804,580 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>500</v>
-      </c>
-      <c r="K18">
-        <v>500</v>
-      </c>
-      <c r="L18">
-        <v>1000</v>
-      </c>
-      <c r="M18">
-        <v>9</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>250</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>500</v>
+      </c>
+      <c r="K18" s="2">
+        <v>500</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="2">
+        <v>9</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>500</v>
-      </c>
-      <c r="K19">
-        <v>500</v>
-      </c>
-      <c r="L19">
-        <v>1000</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>250</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>500</v>
+      </c>
+      <c r="K19" s="2">
+        <v>500</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M19" s="2">
+        <v>9</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G20" t="s">
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>500</v>
-      </c>
-      <c r="K20">
-        <v>500</v>
-      </c>
-      <c r="L20">
-        <v>1000</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>250</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>500</v>
+      </c>
+      <c r="K20" s="2">
+        <v>500</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="2">
+        <v>9</v>
+      </c>
+      <c r="N20" s="2">
+        <v>2</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G21" t="s">
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>500</v>
-      </c>
-      <c r="K21">
-        <v>500</v>
-      </c>
-      <c r="L21">
-        <v>1000</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>250</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>500</v>
+      </c>
+      <c r="K21" s="2">
+        <v>500</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M21" s="2">
+        <v>9</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G22" t="s">
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>500</v>
-      </c>
-      <c r="K22">
-        <v>500</v>
-      </c>
-      <c r="L22">
-        <v>1000</v>
-      </c>
-      <c r="M22">
-        <v>9</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>250</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>500</v>
+      </c>
+      <c r="K22" s="2">
+        <v>500</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="2">
+        <v>9</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>500</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="3">
+        <v>9</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
+        <v>500</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="3">
+        <v>9</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>500</v>
+      </c>
+      <c r="K25" s="3">
+        <v>500</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M25" s="3">
+        <v>9</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>500</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>9</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3">
+        <v>250</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D31" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D32" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D35" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D36" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D37" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B7C5A9-65E8-49E8-8699-2EEF0CEB5732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA289E-201E-4BC4-A3B2-DE69859FF5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29325" yWindow="1005" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,11 +433,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -724,7 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -2114,269 +2113,268 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>9</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3" t="s">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>500</v>
+      </c>
+      <c r="K23">
+        <v>500</v>
+      </c>
+      <c r="L23">
+        <v>1000</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>250</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>500</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>9</v>
-      </c>
-      <c r="N24" s="3">
-        <v>2</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="K24">
+        <v>500</v>
+      </c>
+      <c r="L24">
+        <v>1000</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>250</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3">
-        <v>500</v>
-      </c>
-      <c r="K25" s="3">
-        <v>500</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M25" s="3">
-        <v>9</v>
-      </c>
-      <c r="N25" s="3">
-        <v>2</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>1</v>
-      </c>
-      <c r="R25" s="3">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0</v>
-      </c>
-      <c r="T25" s="3">
-        <v>0</v>
-      </c>
-      <c r="U25" s="3" t="s">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="K25">
+        <v>500</v>
+      </c>
+      <c r="L25">
+        <v>1000</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>250</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="3">
-        <v>1</v>
-      </c>
-      <c r="J26" s="3">
-        <v>500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>9</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3">
-        <v>250</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-      <c r="R26" s="3">
-        <v>5.5555555555555601E-2</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3" t="s">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+      <c r="K26">
+        <v>500</v>
+      </c>
+      <c r="L26">
+        <v>1000</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>250</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>97</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA289E-201E-4BC4-A3B2-DE69859FF5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4AC61C-DCE5-4559-8728-BE29ACB062E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29325" yWindow="1005" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="456" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,8 +2120,14 @@
       <c r="C23" t="s">
         <v>78</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E23" t="s">
         <v>16</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -2175,6 +2181,15 @@
       </c>
       <c r="C24" t="s">
         <v>80</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4AC61C-DCE5-4559-8728-BE29ACB062E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D906C62-F87C-4CBB-B244-88A74D8A2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="456" windowWidth="17304" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="97">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -301,12 +301,6 @@
   </si>
   <si>
     <t>390838:390857</t>
-  </si>
-  <si>
-    <t>next thing to change: crash intensity -- crash to 50 indv; consider if pulses should be changed then or not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Might need to have a zero mig per generation for each of the different starting heterozygosities. </t>
   </si>
   <si>
     <t>add life history (consider specific species- reintroduction programs) – OR 1 sp with somewhat different changes in values (krat stuff but instead, they die earlier or mature later)</t>
@@ -366,12 +360,27 @@
   <si>
     <t>put the varying parameter sets in Cover.R rather than needing to manually change all the time</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">next thing to change: crash intensity -- crash to 50 indv; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consider if pulses should be changed then or not</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,6 +405,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -721,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2244,6 +2260,15 @@
       <c r="C25" t="s">
         <v>84</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G25" t="s">
         <v>32</v>
       </c>
@@ -2297,6 +2322,15 @@
       <c r="C26" t="s">
         <v>86</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G26" t="s">
         <v>32</v>
       </c>
@@ -2345,17 +2379,17 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D30" s="3" t="s">
+    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D31" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -2365,7 +2399,7 @@
     </row>
     <row r="33" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D33" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2375,22 +2409,17 @@
     </row>
     <row r="35" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D35" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D38" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D906C62-F87C-4CBB-B244-88A74D8A2606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40959102-2915-4617-8645-A62057BE83F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,8 +35,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CFC0881D-C570-4D60-B8C1-048EFA885EF5}</author>
+  </authors>
+  <commentList>
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Duration for 100 years</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="104">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -51,9 +69,6 @@
   </si>
   <si>
     <t>pop</t>
-  </si>
-  <si>
-    <t>deltaK</t>
   </si>
   <si>
     <t>k</t>
@@ -375,12 +390,36 @@
       <t>consider if pulses should be changed then or not</t>
     </r>
   </si>
+  <si>
+    <t>ABM_rub.12.5.22_0b</t>
+  </si>
+  <si>
+    <t>dropK</t>
+  </si>
+  <si>
+    <t>ABM_rub.12.5.22_0c</t>
+  </si>
+  <si>
+    <t>goal is to try and get the pop to crash!</t>
+  </si>
+  <si>
+    <t>401924:401943</t>
+  </si>
+  <si>
+    <t>same as above with greater duration; goal is to try and get the pop to crash!</t>
+  </si>
+  <si>
+    <t>401959:401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO FAR, I have added miggy and sourcehet in Cover.R but did NOT put them in RunModel or as a parameter set. This will probs need some checks before running. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +455,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +488,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -449,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -457,6 +515,9 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,6 +533,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Gina Lamka" id="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" userId="Gina Lamka" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,12 +802,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J29" dT="2022-12-05T20:48:35.11" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
+    <text>Duration for 100 years</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,46 +839,46 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -811,25 +886,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K2">
         <v>500</v>
@@ -864,28 +939,28 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K3">
         <v>500</v>
@@ -920,28 +995,28 @@
     </row>
     <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K4" s="2">
         <v>500</v>
@@ -976,34 +1051,34 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K5" s="1">
         <v>500</v>
@@ -1036,39 +1111,39 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K6" s="1">
         <v>500</v>
@@ -1101,39 +1176,39 @@
         <v>0</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K7" s="1">
         <v>500</v>
@@ -1166,39 +1241,39 @@
         <v>0</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K8" s="1">
         <v>500</v>
@@ -1231,39 +1306,39 @@
         <v>0</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K9" s="1">
         <v>500</v>
@@ -1296,39 +1371,39 @@
         <v>0</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K10" s="1">
         <v>500</v>
@@ -1361,39 +1436,39 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K11" s="1">
         <v>500</v>
@@ -1426,39 +1501,39 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K12" s="1">
         <v>500</v>
@@ -1491,39 +1566,39 @@
         <v>0</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K13" s="1">
         <v>500</v>
@@ -1556,39 +1631,39 @@
         <v>0</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K14" s="1">
         <v>500</v>
@@ -1621,39 +1696,39 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K15" s="1">
         <v>500</v>
@@ -1686,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K16" s="1">
         <v>500</v>
@@ -1751,39 +1826,39 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K17" s="1">
         <v>500</v>
@@ -1816,36 +1891,36 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K18" s="2">
         <v>500</v>
@@ -1878,36 +1953,36 @@
         <v>0</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K19" s="2">
         <v>500</v>
@@ -1940,36 +2015,36 @@
         <v>0</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K20" s="2">
         <v>500</v>
@@ -2002,36 +2077,36 @@
         <v>0</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K21" s="2">
         <v>500</v>
@@ -2064,36 +2139,36 @@
         <v>0</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K22" s="2">
         <v>500</v>
@@ -2126,36 +2201,36 @@
         <v>0</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K23">
         <v>500</v>
@@ -2188,36 +2263,36 @@
         <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K24">
         <v>500</v>
@@ -2250,36 +2325,36 @@
         <v>0</v>
       </c>
       <c r="U24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K25">
         <v>500</v>
@@ -2312,36 +2387,36 @@
         <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="K26">
         <v>500</v>
@@ -2374,57 +2449,113 @@
         <v>0</v>
       </c>
       <c r="U26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D30" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D31" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D32" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D33" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D34" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D35" s="3" t="s">
-        <v>93</v>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="6">
+        <v>50</v>
+      </c>
+      <c r="P28" s="6">
+        <v>350</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="7">
+        <v>50</v>
+      </c>
+      <c r="P29" s="6">
+        <v>350</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="4:4" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D36" s="3" t="s">
-        <v>94</v>
+      <c r="D36" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D37" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D40" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40959102-2915-4617-8645-A62057BE83F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE4E9D-F4F1-4952-A719-EF2774D6C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2400" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="107">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -414,12 +414,21 @@
   <si>
     <t xml:space="preserve">SO FAR, I have added miggy and sourcehet in Cover.R but did NOT put them in RunModel or as a parameter set. This will probs need some checks before running. </t>
   </si>
+  <si>
+    <t>ABM_rub.12.6.22_0d</t>
+  </si>
+  <si>
+    <t>402777:402796</t>
+  </si>
+  <si>
+    <t>~13 hours</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,14 +465,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,7 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,10 +531,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,7 +834,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,98 +2472,115 @@
       </c>
     </row>
     <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28">
         <v>50</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28">
         <v>350</v>
       </c>
-      <c r="U28" s="6" t="s">
+      <c r="U28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="D29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="4">
         <v>50</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29">
         <v>350</v>
       </c>
-      <c r="U29" s="6" t="s">
+      <c r="U29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="6" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>25</v>
+      </c>
+      <c r="P30">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="4:4" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
+    <row r="35" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D35" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D36" s="4" t="s">
+    <row r="37" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D37" s="7" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D37" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D38" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D39" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D40" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D41" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D42" s="6" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D42" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="43" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE4E9D-F4F1-4952-A719-EF2774D6C95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC29B59-E125-4042-B512-DDA0F3609AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,6 +39,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CFC0881D-C570-4D60-B8C1-048EFA885EF5}</author>
+    <author>tc={0C92A5D0-E8E7-4911-9314-E97650BB7BE8}</author>
+    <author>tc={D0F0BE1B-6962-4869-8A20-9678C827352F}</author>
   </authors>
   <commentList>
     <comment ref="J29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -49,12 +51,28 @@
     Duration for 100 years</t>
       </text>
     </comment>
+    <comment ref="B31" authorId="1" shapeId="0" xr:uid="{0C92A5D0-E8E7-4911-9314-E97650BB7BE8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    since the code has been changed a lot today (add miggy in Analyze and changed breaks for crash in RunModel); I canceled 15/20 of these runs (408593:408607)</t>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="2" shapeId="0" xr:uid="{D0F0BE1B-6962-4869-8A20-9678C827352F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    since the code has been changed a lot today (add miggy in Analyze and changed breaks for crash); I canceled 15/20 of these runs (408615:408629)</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -376,8 +394,76 @@
     <t>put the varying parameter sets in Cover.R rather than needing to manually change all the time</t>
   </si>
   <si>
+    <t>ABM_rub.12.5.22_0b</t>
+  </si>
+  <si>
+    <t>dropK</t>
+  </si>
+  <si>
+    <t>ABM_rub.12.5.22_0c</t>
+  </si>
+  <si>
+    <t>goal is to try and get the pop to crash!</t>
+  </si>
+  <si>
+    <t>401924:401943</t>
+  </si>
+  <si>
+    <t>same as above with greater duration; goal is to try and get the pop to crash!</t>
+  </si>
+  <si>
+    <t>401959:401978</t>
+  </si>
+  <si>
+    <t>ABM_rub.12.6.22_0d</t>
+  </si>
+  <si>
+    <t>402777:402796</t>
+  </si>
+  <si>
+    <t>~13 hours</t>
+  </si>
+  <si>
+    <t>ABM_run.12.9.22_0a</t>
+  </si>
+  <si>
+    <t>edited RunModel.R to properly break</t>
+  </si>
+  <si>
+    <t>408588:408607</t>
+  </si>
+  <si>
+    <t>same as above with migSNPs added!!</t>
+  </si>
+  <si>
+    <t>ABM_run.12.9.22_0b</t>
+  </si>
+  <si>
+    <t>408610:408629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO FAR, I have added miggy and sourcehet but did NOTcahnge Analyze to separate out the different types of SNPs OR calc migrant SNP proportions. This will probs need some checks before running. </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">next thing to change: crash intensity -- crash to 50 indv; </t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>next thing to change: crash intensity -- crash to 50 indv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
     </r>
     <r>
       <rPr>
@@ -391,44 +477,20 @@
     </r>
   </si>
   <si>
-    <t>ABM_rub.12.5.22_0b</t>
-  </si>
-  <si>
-    <t>dropK</t>
-  </si>
-  <si>
-    <t>ABM_rub.12.5.22_0c</t>
-  </si>
-  <si>
-    <t>goal is to try and get the pop to crash!</t>
-  </si>
-  <si>
-    <t>401924:401943</t>
-  </si>
-  <si>
-    <t>same as above with greater duration; goal is to try and get the pop to crash!</t>
-  </si>
-  <si>
-    <t>401959:401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO FAR, I have added miggy and sourcehet in Cover.R but did NOT put them in RunModel or as a parameter set. This will probs need some checks before running. </t>
-  </si>
-  <si>
-    <t>ABM_rub.12.6.22_0d</t>
-  </si>
-  <si>
-    <t>402777:402796</t>
-  </si>
-  <si>
-    <t>~13 hours</t>
+    <t>ABM_run.12.9.22_0c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as above with migSNP stuff added to Analyze, plus Analyze is within break checks so that it is not skipped. </t>
+  </si>
+  <si>
+    <t>408648:408667</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +546,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -826,15 +901,21 @@
   <threadedComment ref="J29" dT="2022-12-05T20:48:35.11" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
     <text>Duration for 100 years</text>
   </threadedComment>
+  <threadedComment ref="B31" dT="2022-12-09T22:14:22.03" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{0C92A5D0-E8E7-4911-9314-E97650BB7BE8}">
+    <text>since the code has been changed a lot today (add miggy in Analyze and changed breaks for crash in RunModel); I canceled 15/20 of these runs (408593:408607)</text>
+  </threadedComment>
+  <threadedComment ref="B32" dT="2022-12-09T22:14:37.68" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{D0F0BE1B-6962-4869-8A20-9678C827352F}">
+    <text>since the code has been changed a lot today (add miggy in Analyze and changed breaks for crash); I canceled 15/20 of these runs (408615:408629)</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,7 +948,7 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -2474,10 +2555,19 @@
     <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2492,18 +2582,24 @@
         <v>350</v>
       </c>
       <c r="U28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>15</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2518,15 +2614,24 @@
         <v>350</v>
       </c>
       <c r="U29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2537,54 +2642,117 @@
       <c r="P30">
         <v>350</v>
       </c>
+      <c r="U30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>50</v>
+      </c>
+      <c r="P31">
+        <v>350</v>
+      </c>
+      <c r="U31" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
       <c r="C32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D35" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>50</v>
+      </c>
+      <c r="P32">
+        <v>350</v>
+      </c>
+      <c r="U32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>50</v>
+      </c>
+      <c r="P33">
+        <v>350</v>
+      </c>
+      <c r="U33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D37" s="7" t="s">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D40" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D38" s="3" t="s">
+    <row r="41" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D41" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D39" s="3" t="s">
+    <row r="42" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D42" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D40" s="3" t="s">
+    <row r="43" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D43" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D41" s="3" t="s">
+    <row r="44" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D44" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D42" s="6" t="s">
+    <row r="45" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D45" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D43" s="3" t="s">
+    <row r="46" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC29B59-E125-4042-B512-DDA0F3609AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98766D27-5579-4F5B-B746-D7C84BF1FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <author>tc={D0F0BE1B-6962-4869-8A20-9678C827352F}</author>
   </authors>
   <commentList>
-    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
+    <comment ref="K29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="121">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -485,12 +485,27 @@
   <si>
     <t>408648:408667</t>
   </si>
+  <si>
+    <t>ABM_run.12.10.22_1A</t>
+  </si>
+  <si>
+    <t>all 3</t>
+  </si>
+  <si>
+    <t>increased memory to 32000 so that I can run 3 different parameter sets</t>
+  </si>
+  <si>
+    <t>409182:409201</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,12 +568,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -898,7 +907,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J29" dT="2022-12-05T20:48:35.11" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
+  <threadedComment ref="K29" dT="2022-12-05T20:48:35.11" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
     <text>Duration for 100 years</text>
   </threadedComment>
   <threadedComment ref="B31" dT="2022-12-09T22:14:22.03" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{0C92A5D0-E8E7-4911-9314-E97650BB7BE8}">
@@ -912,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +934,7 @@
     <col min="4" max="4" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -939,49 +948,52 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -994,50 +1006,53 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="J2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K2">
+        <v>250</v>
+      </c>
+      <c r="L2">
         <v>500</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>9</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
       <c r="P2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -1050,50 +1065,53 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
       <c r="J3">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K3">
+        <v>250</v>
+      </c>
+      <c r="L3">
         <v>500</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>9</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
       <c r="P3">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1106,50 +1124,53 @@
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
       <c r="J4" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2">
+        <v>250</v>
+      </c>
+      <c r="L4" s="2">
         <v>500</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>9</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>2</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
       <c r="P4" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
       <c r="T4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1169,52 +1190,55 @@
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
       <c r="J5" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
+        <v>250</v>
+      </c>
+      <c r="L5" s="1">
         <v>500</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1000</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>9</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
       <c r="P5" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
       <c r="T5" s="1">
         <v>0</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1234,52 +1258,55 @@
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
       <c r="J6" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
+        <v>250</v>
+      </c>
+      <c r="L6" s="1">
         <v>500</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>1000</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>9</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>2</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
       <c r="P6" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
       <c r="T6" s="1">
         <v>0</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1299,52 +1326,55 @@
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
       <c r="J7" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
+        <v>250</v>
+      </c>
+      <c r="L7" s="1">
         <v>500</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>1000</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>9</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>2</v>
       </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
       <c r="P7" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
       <c r="T7" s="1">
         <v>0</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1364,52 +1394,55 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
       <c r="J8" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
+        <v>250</v>
+      </c>
+      <c r="L8" s="1">
         <v>500</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>1000</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>9</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>2</v>
       </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
       <c r="P8" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
       <c r="T8" s="1">
         <v>0</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1429,52 +1462,55 @@
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
       <c r="J9" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
+        <v>250</v>
+      </c>
+      <c r="L9" s="1">
         <v>500</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>1000</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>9</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>2</v>
       </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
       <c r="P9" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1494,52 +1530,55 @@
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
       <c r="J10" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
+        <v>250</v>
+      </c>
+      <c r="L10" s="1">
         <v>500</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>1000</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>9</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>2</v>
       </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
       <c r="P10" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
       <c r="T10" s="1">
         <v>0</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1559,52 +1598,55 @@
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
       <c r="J11" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
+        <v>250</v>
+      </c>
+      <c r="L11" s="1">
         <v>500</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>1000</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>9</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>2</v>
       </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
       <c r="P11" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1624,52 +1666,55 @@
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
       <c r="J12" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
+        <v>250</v>
+      </c>
+      <c r="L12" s="1">
         <v>500</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>1000</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>9</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>2</v>
       </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
       <c r="P12" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
       <c r="T12" s="1">
         <v>0</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1689,52 +1734,55 @@
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
       <c r="J13" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
+        <v>250</v>
+      </c>
+      <c r="L13" s="1">
         <v>500</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>1000</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>9</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>2</v>
       </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
       <c r="P13" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
       <c r="T13" s="1">
         <v>0</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1754,52 +1802,55 @@
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
       <c r="J14" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
+        <v>250</v>
+      </c>
+      <c r="L14" s="1">
         <v>500</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>1000</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>9</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>2</v>
       </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
       <c r="P14" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
       <c r="T14" s="1">
         <v>0</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -1819,52 +1870,55 @@
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
       <c r="J15" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1">
+        <v>250</v>
+      </c>
+      <c r="L15" s="1">
         <v>500</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>1000</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>9</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>2</v>
       </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
       <c r="P15" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
       <c r="T15" s="1">
         <v>0</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -1884,52 +1938,55 @@
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
       <c r="J16" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
+        <v>250</v>
+      </c>
+      <c r="L16" s="1">
         <v>500</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>1000</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>9</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>2</v>
       </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
       <c r="P16" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
       <c r="T16" s="1">
         <v>0</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1949,52 +2006,55 @@
         <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
       <c r="J17" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
+        <v>250</v>
+      </c>
+      <c r="L17" s="1">
         <v>500</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>1000</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>9</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>2</v>
       </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
       <c r="P17" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
       <c r="T17" s="1">
         <v>0</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>67</v>
       </c>
@@ -2011,52 +2071,55 @@
         <v>16</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
       <c r="J18" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
+        <v>250</v>
+      </c>
+      <c r="L18" s="2">
         <v>500</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>1000</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>9</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>2</v>
       </c>
-      <c r="O18" s="2">
-        <v>1</v>
-      </c>
       <c r="P18" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
@@ -2073,52 +2136,55 @@
         <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
       <c r="J19" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
+        <v>250</v>
+      </c>
+      <c r="L19" s="2">
         <v>500</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>1000</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>9</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>2</v>
       </c>
-      <c r="O19" s="2">
-        <v>1</v>
-      </c>
       <c r="P19" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="S19" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S19" s="2">
-        <v>0</v>
-      </c>
       <c r="T19" s="2">
         <v>0</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>72</v>
       </c>
@@ -2135,52 +2201,55 @@
         <v>16</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
       <c r="J20" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
+        <v>250</v>
+      </c>
+      <c r="L20" s="2">
         <v>500</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>1000</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>9</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>2</v>
       </c>
-      <c r="O20" s="2">
-        <v>1</v>
-      </c>
       <c r="P20" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="S20" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
@@ -2197,52 +2266,55 @@
         <v>16</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
       <c r="J21" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
+        <v>250</v>
+      </c>
+      <c r="L21" s="2">
         <v>500</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>1000</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>9</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>2</v>
       </c>
-      <c r="O21" s="2">
-        <v>1</v>
-      </c>
       <c r="P21" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>76</v>
       </c>
@@ -2259,52 +2331,55 @@
         <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
       <c r="J22" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
+        <v>250</v>
+      </c>
+      <c r="L22" s="2">
         <v>500</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>1000</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>9</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>2</v>
       </c>
-      <c r="O22" s="2">
-        <v>1</v>
-      </c>
       <c r="P22" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
-      <c r="U22" s="2" t="s">
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>78</v>
       </c>
@@ -2320,53 +2395,56 @@
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
         <v>30</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>39</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
       <c r="J23">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K23">
+        <v>250</v>
+      </c>
+      <c r="L23">
         <v>500</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>9</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>2</v>
       </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
       <c r="P23">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -2382,53 +2460,56 @@
       <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
         <v>30</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>35</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
       <c r="J24">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K24">
+        <v>250</v>
+      </c>
+      <c r="L24">
         <v>500</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>9</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>2</v>
       </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
       <c r="P24">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
       <c r="T24">
         <v>0</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>84</v>
       </c>
@@ -2444,53 +2525,56 @@
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
         <v>31</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>35</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
       <c r="J25">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K25">
+        <v>250</v>
+      </c>
+      <c r="L25">
         <v>500</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>9</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2</v>
       </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
       <c r="P25">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
       <c r="T25">
         <v>0</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -2506,54 +2590,57 @@
       <c r="F26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
         <v>31</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>39</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
       <c r="J26">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="K26">
+        <v>250</v>
+      </c>
+      <c r="L26">
         <v>500</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>1000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>9</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>2</v>
       </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
       <c r="P26">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26" t="s">
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>99</v>
       </c>
@@ -2569,23 +2656,26 @@
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>39</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>50</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>350</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>101</v>
       </c>
@@ -2601,23 +2691,26 @@
       <c r="F29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>50</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>350</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>103</v>
       </c>
@@ -2633,126 +2726,212 @@
       <c r="F30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
         <v>25</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>350</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="V30" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>105</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
+      <c r="D31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
         <v>50</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>350</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>109</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
         <v>50</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>350</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>115</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
         <v>50</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>350</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="s">
+        <v>117</v>
+      </c>
+      <c r="K34" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q34">
+        <v>350</v>
+      </c>
+      <c r="V34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D38" s="6" t="s">
+    <row r="49" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D49" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D40" s="7" t="s">
+    <row r="51" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D51" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D41" s="3" t="s">
+    <row r="52" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D52" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D42" s="3" t="s">
+    <row r="53" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D53" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D43" s="3" t="s">
+    <row r="54" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D44" s="3" t="s">
+    <row r="55" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D45" s="6" t="s">
+    <row r="56" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D56" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D46" s="3" t="s">
+    <row r="57" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98766D27-5579-4F5B-B746-D7C84BF1FB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338BD371-2146-4B1C-BB56-48216CD299DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5328" yWindow="3384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <author>tc={CFC0881D-C570-4D60-B8C1-048EFA885EF5}</author>
     <author>tc={0C92A5D0-E8E7-4911-9314-E97650BB7BE8}</author>
     <author>tc={D0F0BE1B-6962-4869-8A20-9678C827352F}</author>
+    <author>tc={86676CDC-BBC6-44C5-9850-CCC9934B8697}</author>
   </authors>
   <commentList>
     <comment ref="K29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -67,12 +68,20 @@
     since the code has been changed a lot today (add miggy in Analyze and changed breaks for crash); I canceled 15/20 of these runs (408615:408629)</t>
       </text>
     </comment>
+    <comment ref="B34" authorId="3" shapeId="0" xr:uid="{86676CDC-BBC6-44C5-9850-CCC9934B8697}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Did a lot of changes to the code to make it run faster. (this is taking 1-17:00:00 so far) therefore, canceled jobs 8-20</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="134">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -500,12 +509,51 @@
   <si>
     <t>parameters</t>
   </si>
+  <si>
+    <t>ABM_run.12.14.22_1a</t>
+  </si>
+  <si>
+    <t>all 4</t>
+  </si>
+  <si>
+    <t>drp</t>
+  </si>
+  <si>
+    <t>dur</t>
+  </si>
+  <si>
+    <t>411908:411927</t>
+  </si>
+  <si>
+    <t>ABM_run.1.5.23_A</t>
+  </si>
+  <si>
+    <t>ABM_run.1.5.23_B</t>
+  </si>
+  <si>
+    <t>ABM_run.1.5.23_C</t>
+  </si>
+  <si>
+    <t>ABM_run.1.5.23_D</t>
+  </si>
+  <si>
+    <t>429569:429588</t>
+  </si>
+  <si>
+    <t>429590:429609</t>
+  </si>
+  <si>
+    <t>429610:429629</t>
+  </si>
+  <si>
+    <t>429631:429650</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +617,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -608,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -621,6 +677,7 @@
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,15 +973,19 @@
   <threadedComment ref="B32" dT="2022-12-09T22:14:37.68" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{D0F0BE1B-6962-4869-8A20-9678C827352F}">
     <text>since the code has been changed a lot today (add miggy in Analyze and changed breaks for crash); I canceled 15/20 of these runs (408615:408629)</text>
   </threadedComment>
+  <threadedComment ref="B34" dT="2022-12-14T20:32:42.46" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{86676CDC-BBC6-44C5-9850-CCC9934B8697}">
+    <text>Did a lot of changes to the code to make it run faster. (this is taking 1-17:00:00 so far) therefore, canceled jobs 8-20</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -934,66 +995,72 @@
     <col min="4" max="4" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1027,32 +1094,32 @@
       <c r="M2">
         <v>1000</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>9</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>250</v>
-      </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
+        <v>250</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -1086,32 +1153,32 @@
       <c r="M3">
         <v>1000</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>9</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>250</v>
-      </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
+        <v>250</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1145,32 +1212,32 @@
       <c r="M4" s="2">
         <v>1000</v>
       </c>
-      <c r="N4" s="2">
+      <c r="P4" s="2">
         <v>9</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>2</v>
       </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>250</v>
-      </c>
       <c r="R4" s="2">
         <v>1</v>
       </c>
       <c r="S4" s="2">
+        <v>250</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1210,35 +1277,35 @@
       <c r="M5" s="1">
         <v>1000</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>9</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>2</v>
       </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>250</v>
-      </c>
       <c r="R5" s="1">
         <v>1</v>
       </c>
       <c r="S5" s="1">
+        <v>250</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1278,35 +1345,35 @@
       <c r="M6" s="1">
         <v>1000</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>9</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>2</v>
       </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>250</v>
-      </c>
       <c r="R6" s="1">
         <v>1</v>
       </c>
       <c r="S6" s="1">
+        <v>250</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1346,35 +1413,35 @@
       <c r="M7" s="1">
         <v>1000</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>9</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>2</v>
       </c>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>250</v>
-      </c>
       <c r="R7" s="1">
         <v>1</v>
       </c>
       <c r="S7" s="1">
+        <v>250</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1414,35 +1481,35 @@
       <c r="M8" s="1">
         <v>1000</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>9</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>2</v>
       </c>
-      <c r="P8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>250</v>
-      </c>
       <c r="R8" s="1">
         <v>1</v>
       </c>
       <c r="S8" s="1">
+        <v>250</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1482,35 +1549,35 @@
       <c r="M9" s="1">
         <v>1000</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>9</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>2</v>
       </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>250</v>
-      </c>
       <c r="R9" s="1">
         <v>1</v>
       </c>
       <c r="S9" s="1">
+        <v>250</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0</v>
-      </c>
-      <c r="V9" s="1" t="s">
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1550,35 +1617,35 @@
       <c r="M10" s="1">
         <v>1000</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>9</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>2</v>
       </c>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>250</v>
-      </c>
       <c r="R10" s="1">
         <v>1</v>
       </c>
       <c r="S10" s="1">
+        <v>250</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T10" s="1">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1" t="s">
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1618,35 +1685,35 @@
       <c r="M11" s="1">
         <v>1000</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>9</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>2</v>
       </c>
-      <c r="P11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>250</v>
-      </c>
       <c r="R11" s="1">
         <v>1</v>
       </c>
       <c r="S11" s="1">
+        <v>250</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1" t="s">
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1686,35 +1753,35 @@
       <c r="M12" s="1">
         <v>1000</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>9</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <v>2</v>
       </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>250</v>
-      </c>
       <c r="R12" s="1">
         <v>1</v>
       </c>
       <c r="S12" s="1">
+        <v>250</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1754,35 +1821,35 @@
       <c r="M13" s="1">
         <v>1000</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>9</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>2</v>
       </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>250</v>
-      </c>
       <c r="R13" s="1">
         <v>1</v>
       </c>
       <c r="S13" s="1">
+        <v>250</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1" t="s">
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1822,35 +1889,35 @@
       <c r="M14" s="1">
         <v>1000</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>9</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>2</v>
       </c>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>250</v>
-      </c>
       <c r="R14" s="1">
         <v>1</v>
       </c>
       <c r="S14" s="1">
+        <v>250</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T14" s="1">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -1890,35 +1957,35 @@
       <c r="M15" s="1">
         <v>1000</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>9</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>2</v>
       </c>
-      <c r="P15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>250</v>
-      </c>
       <c r="R15" s="1">
         <v>1</v>
       </c>
       <c r="S15" s="1">
+        <v>250</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T15" s="1">
-        <v>0</v>
-      </c>
-      <c r="U15" s="1">
-        <v>0</v>
-      </c>
-      <c r="V15" s="1" t="s">
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -1958,35 +2025,35 @@
       <c r="M16" s="1">
         <v>1000</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>9</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
         <v>2</v>
       </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>250</v>
-      </c>
       <c r="R16" s="1">
         <v>1</v>
       </c>
       <c r="S16" s="1">
+        <v>250</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T16" s="1">
-        <v>0</v>
-      </c>
-      <c r="U16" s="1">
-        <v>0</v>
-      </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -2026,35 +2093,35 @@
       <c r="M17" s="1">
         <v>1000</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>9</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <v>2</v>
       </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>250</v>
-      </c>
       <c r="R17" s="1">
         <v>1</v>
       </c>
       <c r="S17" s="1">
+        <v>250</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>67</v>
       </c>
@@ -2091,35 +2158,35 @@
       <c r="M18" s="2">
         <v>1000</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>9</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <v>2</v>
       </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>250</v>
-      </c>
       <c r="R18" s="2">
         <v>1</v>
       </c>
       <c r="S18" s="2">
+        <v>250</v>
+      </c>
+      <c r="T18" s="2">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2" t="s">
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
@@ -2156,35 +2223,35 @@
       <c r="M19" s="2">
         <v>1000</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>9</v>
       </c>
-      <c r="O19" s="2">
+      <c r="Q19" s="2">
         <v>2</v>
       </c>
-      <c r="P19" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>250</v>
-      </c>
       <c r="R19" s="2">
         <v>1</v>
       </c>
       <c r="S19" s="2">
+        <v>250</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2" t="s">
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>72</v>
       </c>
@@ -2221,35 +2288,35 @@
       <c r="M20" s="2">
         <v>1000</v>
       </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>9</v>
       </c>
-      <c r="O20" s="2">
+      <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="P20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>250</v>
-      </c>
       <c r="R20" s="2">
         <v>1</v>
       </c>
       <c r="S20" s="2">
+        <v>250</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
@@ -2286,35 +2353,35 @@
       <c r="M21" s="2">
         <v>1000</v>
       </c>
-      <c r="N21" s="2">
+      <c r="P21" s="2">
         <v>9</v>
       </c>
-      <c r="O21" s="2">
+      <c r="Q21" s="2">
         <v>2</v>
       </c>
-      <c r="P21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>250</v>
-      </c>
       <c r="R21" s="2">
         <v>1</v>
       </c>
       <c r="S21" s="2">
+        <v>250</v>
+      </c>
+      <c r="T21" s="2">
+        <v>1</v>
+      </c>
+      <c r="U21" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>76</v>
       </c>
@@ -2351,35 +2418,35 @@
       <c r="M22" s="2">
         <v>1000</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
         <v>9</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <v>2</v>
       </c>
-      <c r="P22" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>250</v>
-      </c>
       <c r="R22" s="2">
         <v>1</v>
       </c>
       <c r="S22" s="2">
+        <v>250</v>
+      </c>
+      <c r="T22" s="2">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2" t="s">
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>78</v>
       </c>
@@ -2416,35 +2483,35 @@
       <c r="M23">
         <v>1000</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>9</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>2</v>
       </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>250</v>
-      </c>
       <c r="R23">
         <v>1</v>
       </c>
       <c r="S23">
+        <v>250</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -2481,35 +2548,35 @@
       <c r="M24">
         <v>1000</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>9</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>2</v>
       </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>250</v>
-      </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24">
+        <v>250</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>84</v>
       </c>
@@ -2546,35 +2613,35 @@
       <c r="M25">
         <v>1000</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>9</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>250</v>
-      </c>
       <c r="R25">
         <v>1</v>
       </c>
       <c r="S25">
+        <v>250</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -2611,36 +2678,36 @@
       <c r="M26">
         <v>1000</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>9</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>2</v>
       </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>250</v>
-      </c>
       <c r="R26">
         <v>1</v>
       </c>
       <c r="S26">
+        <v>250</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>99</v>
       </c>
@@ -2668,14 +2735,14 @@
       <c r="K28">
         <v>50</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>350</v>
       </c>
-      <c r="V28" t="s">
+      <c r="X28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>101</v>
       </c>
@@ -2703,14 +2770,14 @@
       <c r="K29" s="4">
         <v>50</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>350</v>
       </c>
-      <c r="V29" t="s">
+      <c r="X29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>103</v>
       </c>
@@ -2735,14 +2802,14 @@
       <c r="K30" s="4">
         <v>25</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>350</v>
       </c>
-      <c r="V30" s="2" t="s">
+      <c r="X30" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>107</v>
       </c>
@@ -2767,14 +2834,14 @@
       <c r="K31" s="4">
         <v>50</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>350</v>
       </c>
-      <c r="V31" t="s">
+      <c r="X31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>110</v>
       </c>
@@ -2799,14 +2866,14 @@
       <c r="K32" s="4">
         <v>50</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>350</v>
       </c>
-      <c r="V32" t="s">
+      <c r="X32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>115</v>
       </c>
@@ -2831,20 +2898,32 @@
       <c r="K33" s="4">
         <v>50</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>350</v>
       </c>
-      <c r="V33" t="s">
+      <c r="X33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>119</v>
       </c>
       <c r="C34" t="s">
         <v>116</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H34" s="2" t="s">
         <v>29</v>
       </c>
@@ -2854,38 +2933,315 @@
       <c r="K34" s="4">
         <v>50</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>350</v>
       </c>
-      <c r="V34" t="s">
+      <c r="X34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35">
+        <v>0.45</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>50</v>
+      </c>
+      <c r="L35">
+        <v>500</v>
+      </c>
+      <c r="M35">
+        <v>1000</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>40</v>
+      </c>
+      <c r="P35">
+        <v>9</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>350</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="V35">
+        <v>100</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="H36" t="s">
+        <v>122</v>
+      </c>
+      <c r="I36">
+        <v>0.45</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>300</v>
+      </c>
+      <c r="L36">
+        <v>1000</v>
+      </c>
+      <c r="M36">
+        <v>1000</v>
+      </c>
+      <c r="N36">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>40</v>
+      </c>
+      <c r="P36">
+        <v>9</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>350</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="V36">
+        <v>100</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37">
+        <v>0.45</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>500</v>
+      </c>
+      <c r="L37">
+        <v>1000</v>
+      </c>
+      <c r="M37">
+        <v>1000</v>
+      </c>
+      <c r="N37">
+        <v>10</v>
+      </c>
+      <c r="O37">
+        <v>40</v>
+      </c>
+      <c r="P37">
+        <v>9</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>350</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="V37">
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38">
+        <v>0.45</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>700</v>
+      </c>
+      <c r="L38">
+        <v>1000</v>
+      </c>
+      <c r="M38">
+        <v>1000</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>40</v>
+      </c>
+      <c r="P38">
+        <v>9</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>350</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="V38">
+        <v>100</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="H39" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39">
+        <v>0.45</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>100</v>
+      </c>
+      <c r="L39">
+        <v>1000</v>
+      </c>
+      <c r="M39">
+        <v>1000</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>40</v>
+      </c>
+      <c r="P39">
+        <v>9</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>350</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="V39">
+        <v>100</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
       <c r="K42" s="4"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>111</v>
       </c>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338BD371-2146-4B1C-BB56-48216CD299DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556BE4D-966C-4A5E-A828-4DC3A80F3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5328" yWindow="3384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40425" yWindow="6060" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="133">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -528,25 +528,22 @@
     <t>ABM_run.1.5.23_A</t>
   </si>
   <si>
-    <t>ABM_run.1.5.23_B</t>
-  </si>
-  <si>
-    <t>ABM_run.1.5.23_C</t>
-  </si>
-  <si>
-    <t>ABM_run.1.5.23_D</t>
-  </si>
-  <si>
     <t>429569:429588</t>
   </si>
   <si>
-    <t>429590:429609</t>
-  </si>
-  <si>
-    <t>429610:429629</t>
-  </si>
-  <si>
-    <t>429631:429650</t>
+    <t>ABM_run.1.9.23_D</t>
+  </si>
+  <si>
+    <t>431480:431499</t>
+  </si>
+  <si>
+    <t>ABM_run.1.???.23_C</t>
+  </si>
+  <si>
+    <t>ABM_run.1.???.23_B</t>
+  </si>
+  <si>
+    <t>consider changing mem cuz looks like isnt using all that it needs to</t>
   </si>
 </sst>
 </file>
@@ -626,7 +623,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,6 +648,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -664,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -678,6 +681,8 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,8 +989,8 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2873,7 +2878,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>115</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>119</v>
       </c>
@@ -2940,7 +2945,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>125</v>
       </c>
@@ -3008,9 +3013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
         <v>126</v>
@@ -3064,12 +3069,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="C37" t="s">
-        <v>127</v>
       </c>
       <c r="H37" t="s">
         <v>122</v>
@@ -3120,12 +3123,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C38" t="s">
-        <v>128</v>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="H38" t="s">
         <v>122</v>
@@ -3176,12 +3180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H39" t="s">
         <v>122</v>
@@ -3232,16 +3236,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K42" s="4"/>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>111</v>
       </c>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D556BE4D-966C-4A5E-A828-4DC3A80F3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E64F2-3B5A-4B76-A845-8505E9300A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40425" yWindow="6060" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -534,9 +534,6 @@
     <t>ABM_run.1.9.23_D</t>
   </si>
   <si>
-    <t>431480:431499</t>
-  </si>
-  <si>
     <t>ABM_run.1.???.23_C</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>consider changing mem cuz looks like isnt using all that it needs to</t>
+  </si>
+  <si>
+    <t>431515:431534</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3072,7 +3072,7 @@
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
         <v>122</v>
@@ -3125,11 +3125,11 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H38" t="s">
         <v>122</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>128</v>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E64F2-3B5A-4B76-A845-8505E9300A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1CA0BC-1FC3-4B5B-BEA6-E055A4AAA6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="145">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -534,16 +534,52 @@
     <t>ABM_run.1.9.23_D</t>
   </si>
   <si>
-    <t>ABM_run.1.???.23_C</t>
-  </si>
-  <si>
-    <t>ABM_run.1.???.23_B</t>
-  </si>
-  <si>
-    <t>consider changing mem cuz looks like isnt using all that it needs to</t>
-  </si>
-  <si>
     <t>431515:431534</t>
+  </si>
+  <si>
+    <t>ABM_run.1.11.23_C</t>
+  </si>
+  <si>
+    <t>consider if cahnging the intensity of fitnessddeath will change if indv die -- potentially track number of indv killed across years</t>
+  </si>
+  <si>
+    <t>434113:434132</t>
+  </si>
+  <si>
+    <t>0.45, 0.07</t>
+  </si>
+  <si>
+    <t>given 32000M</t>
+  </si>
+  <si>
+    <t>given 3000m mem</t>
+  </si>
+  <si>
+    <t>given 4000M mem</t>
+  </si>
+  <si>
+    <t>ABM_run.1.11.23_B</t>
+  </si>
+  <si>
+    <t>given 5000M mem</t>
+  </si>
+  <si>
+    <t>434241:434260</t>
+  </si>
+  <si>
+    <t>ABM_run.1.11.23_E</t>
+  </si>
+  <si>
+    <t>0,.5,1</t>
+  </si>
+  <si>
+    <t>.45, 0.07</t>
+  </si>
+  <si>
+    <t>given 7500M</t>
+  </si>
+  <si>
+    <t>434397:434416</t>
   </si>
 </sst>
 </file>
@@ -986,11 +1022,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X34" sqref="X34"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3014,6 +3050,9 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
       <c r="B36" t="s">
         <v>127</v>
       </c>
@@ -3070,15 +3109,20 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B37" s="9"/>
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>139</v>
+      </c>
       <c r="C37" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H37" t="s">
         <v>122</v>
       </c>
-      <c r="I37">
-        <v>0.45</v>
+      <c r="I37" t="s">
+        <v>133</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -3125,11 +3169,13 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>132</v>
+      </c>
       <c r="C38" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H38" t="s">
         <v>122</v>
@@ -3181,8 +3227,11 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39" t="s">
         <v>128</v>
@@ -3237,7 +3286,63 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K40" s="4"/>
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>75</v>
+      </c>
+      <c r="L40">
+        <v>1000</v>
+      </c>
+      <c r="M40">
+        <v>1000</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>40</v>
+      </c>
+      <c r="P40">
+        <v>9</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>350</v>
+      </c>
+      <c r="T40" t="s">
+        <v>141</v>
+      </c>
+      <c r="U40">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="V40">
+        <v>100</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K41" s="4"/>
@@ -3293,6 +3398,11 @@
     <row r="57" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D57" s="3" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D59" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1CA0BC-1FC3-4B5B-BEA6-E055A4AAA6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95BA160-EE62-4810-B060-49BB8A9F795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33435" yWindow="2730" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <author>tc={0C92A5D0-E8E7-4911-9314-E97650BB7BE8}</author>
     <author>tc={D0F0BE1B-6962-4869-8A20-9678C827352F}</author>
     <author>tc={86676CDC-BBC6-44C5-9850-CCC9934B8697}</author>
+    <author>tc={52ADA0E6-ABC5-4973-B385-5E26368B1868}</author>
   </authors>
   <commentList>
     <comment ref="K29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -76,12 +77,20 @@
     Did a lot of changes to the code to make it run faster. (this is taking 1-17:00:00 so far) therefore, canceled jobs 8-20</t>
       </text>
     </comment>
+    <comment ref="T40" authorId="4" shapeId="0" xr:uid="{52ADA0E6-ABC5-4973-B385-5E26368B1868}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Note, 0 crashed the pop in 6 generations ccuz no breeding at all. </t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="147">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -570,16 +579,22 @@
     <t>ABM_run.1.11.23_E</t>
   </si>
   <si>
-    <t>0,.5,1</t>
-  </si>
-  <si>
     <t>.45, 0.07</t>
   </si>
   <si>
     <t>given 7500M</t>
   </si>
   <si>
-    <t>434397:434416</t>
+    <t>436053:436072</t>
+  </si>
+  <si>
+    <t>1, 0.5, 0.1</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>as of 1.13.23, rep success includes migrants in years, because I cahnged year born to the year they entered the pop. There are now measures for just migrants too tho.</t>
   </si>
 </sst>
 </file>
@@ -659,7 +674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,6 +705,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -703,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -719,6 +740,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,6 +1040,9 @@
   <threadedComment ref="B34" dT="2022-12-14T20:32:42.46" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{86676CDC-BBC6-44C5-9850-CCC9934B8697}">
     <text>Did a lot of changes to the code to make it run faster. (this is taking 1-17:00:00 so far) therefore, canceled jobs 8-20</text>
   </threadedComment>
+  <threadedComment ref="T40" dT="2023-01-12T16:45:37.23" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{52ADA0E6-ABC5-4973-B385-5E26368B1868}">
+    <text xml:space="preserve">Note, 0 crashed the pop in 6 generations ccuz no breeding at all. </text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1025,8 +1051,8 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,6 +3085,18 @@
       <c r="C36" t="s">
         <v>126</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" t="s">
         <v>122</v>
       </c>
@@ -3177,6 +3215,18 @@
       <c r="C38" s="9" t="s">
         <v>130</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" t="s">
         <v>122</v>
       </c>
@@ -3236,6 +3286,18 @@
       <c r="C39" t="s">
         <v>128</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" t="s">
         <v>122</v>
       </c>
@@ -3287,10 +3349,10 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
         <v>143</v>
-      </c>
-      <c r="B40" t="s">
-        <v>144</v>
       </c>
       <c r="C40" t="s">
         <v>140</v>
@@ -3299,7 +3361,7 @@
         <v>122</v>
       </c>
       <c r="I40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3332,7 +3394,7 @@
         <v>350</v>
       </c>
       <c r="T40" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="U40">
         <v>5.5555555555555601E-2</v>
@@ -3344,8 +3406,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K41" s="4"/>
+    <row r="41" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K42" s="4"/>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95BA160-EE62-4810-B060-49BB8A9F795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607B6681-76BF-48E0-B25E-A2DB63315F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33435" yWindow="2730" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="148">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -570,9 +570,6 @@
     <t>ABM_run.1.11.23_B</t>
   </si>
   <si>
-    <t>given 5000M mem</t>
-  </si>
-  <si>
     <t>434241:434260</t>
   </si>
   <si>
@@ -582,9 +579,6 @@
     <t>.45, 0.07</t>
   </si>
   <si>
-    <t>given 7500M</t>
-  </si>
-  <si>
     <t>436053:436072</t>
   </si>
   <si>
@@ -595,13 +589,22 @@
   </si>
   <si>
     <t>as of 1.13.23, rep success includes migrants in years, because I cahnged year born to the year they entered the pop. There are now measures for just migrants too tho.</t>
+  </si>
+  <si>
+    <t>given 7500M; 25 parameter sets</t>
+  </si>
+  <si>
+    <t>given 5000M mem; 8 parameter sets</t>
+  </si>
+  <si>
+    <t>next, change fecundity and max age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +676,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -701,13 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -738,10 +747,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1051,8 +1062,8 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3092,7 +3103,7 @@
         <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>16</v>
@@ -3106,7 +3117,7 @@
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="13">
         <v>300</v>
       </c>
       <c r="L36">
@@ -3148,13 +3159,25 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="12" t="s">
         <v>137</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H37" t="s">
         <v>122</v>
@@ -3206,13 +3229,13 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -3222,7 +3245,7 @@
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>16</v>
@@ -3236,7 +3259,7 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="13">
         <v>700</v>
       </c>
       <c r="L38">
@@ -3293,7 +3316,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>16</v>
@@ -3307,7 +3330,7 @@
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="13">
         <v>100</v>
       </c>
       <c r="L39">
@@ -3349,19 +3372,19 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H40" t="s">
         <v>122</v>
       </c>
       <c r="I40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -3394,7 +3417,7 @@
         <v>350</v>
       </c>
       <c r="T40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U40">
         <v>5.5555555555555601E-2</v>
@@ -3406,14 +3429,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K41" s="12"/>
+    <row r="41" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C43" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C46" t="s">

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607B6681-76BF-48E0-B25E-A2DB63315F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91B6F1D-4A1E-4E5E-884E-451788A66DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,11 @@
     <author>tc={0C92A5D0-E8E7-4911-9314-E97650BB7BE8}</author>
     <author>tc={D0F0BE1B-6962-4869-8A20-9678C827352F}</author>
     <author>tc={86676CDC-BBC6-44C5-9850-CCC9934B8697}</author>
+    <author>tc={ED3D9FBE-8AF5-4B27-BAAD-7C2C99688058}</author>
     <author>tc={52ADA0E6-ABC5-4973-B385-5E26368B1868}</author>
   </authors>
   <commentList>
-    <comment ref="K29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
+    <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -77,7 +78,24 @@
     Did a lot of changes to the code to make it run faster. (this is taking 1-17:00:00 so far) therefore, canceled jobs 8-20</t>
       </text>
     </comment>
-    <comment ref="T40" authorId="4" shapeId="0" xr:uid="{52ADA0E6-ABC5-4973-B385-5E26368B1868}">
+    <comment ref="B40" authorId="4" shapeId="0" xr:uid="{ED3D9FBE-8AF5-4B27-BAAD-7C2C99688058}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Run 18 failed. [1] "DONE! 10 param 17 rep 1"
+[1] "not enough mature for fit-induced death"
+[1] "the sex ratio is 0.928571428571429"
+[1] "The next generation's population size will be 15 K is 1000 k is 1000"
+[1] "the number of offspring needed is 1"
+Error in sample.int(length(x), size, replace, prob) :
+  invalid 'size' argument
+Calls: RunModel -&gt; Breed -&gt; sample -&gt; sample.int
+In addition: There were 26 warnings (use warnings() to see them)
+Execution halted</t>
+      </text>
+    </comment>
+    <comment ref="U40" authorId="5" shapeId="0" xr:uid="{52ADA0E6-ABC5-4973-B385-5E26368B1868}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -90,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="165">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -591,20 +609,71 @@
     <t>as of 1.13.23, rep success includes migrants in years, because I cahnged year born to the year they entered the pop. There are now measures for just migrants too tho.</t>
   </si>
   <si>
-    <t>given 7500M; 25 parameter sets</t>
-  </si>
-  <si>
-    <t>given 5000M mem; 8 parameter sets</t>
-  </si>
-  <si>
-    <t>next, change fecundity and max age</t>
+    <t>given 7500M; 24 parameter sets; 5 days and 12 hours with 2GB memory used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONLY needs 2-3 GB mem!!! </t>
+  </si>
+  <si>
+    <t>given 5000M mem; 8 parameter sets; takes one day and 5ish hours</t>
+  </si>
+  <si>
+    <t>ABM_run.1.18.23_a</t>
+  </si>
+  <si>
+    <t>opossums - lifespan of 2 years and 8/9 babies; krats: 13 yrs and 1-6 babies; raccoon 3-4 babies and 2-3 years; deer are 2-20 years and 1-3 babies</t>
+  </si>
+  <si>
+    <t>3, 15</t>
+  </si>
+  <si>
+    <t>4, 6</t>
+  </si>
+  <si>
+    <t>ABM_run.1.18.23_b</t>
+  </si>
+  <si>
+    <t>440349:440368</t>
+  </si>
+  <si>
+    <t>440371:440390</t>
+  </si>
+  <si>
+    <t>ABM_run.1.18.23_c</t>
+  </si>
+  <si>
+    <t>0.5, 0.1</t>
+  </si>
+  <si>
+    <t>440397:440416</t>
+  </si>
+  <si>
+    <t>ABM_run.1.18.23_d</t>
+  </si>
+  <si>
+    <t>minor allel freq FOCAL</t>
+  </si>
+  <si>
+    <t>MUST CHECK ALLELE FREQ OF RECEIVING POP -- THIS WAS CHANGED FOR SOME RUNS!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>440425:440444</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as of 1.27.23, I realized that ratemort was considered a changed parameter which made there be 32 paramtere sets when there should really only be 16. the sim is on year 350 of param 23 of rep 1 and has been running for 8 days, 22 hours, 42 mins, 32 sec. I therefor went into the scratch folder and removed some parameter sets to only 24 to hopefully end the sim early. This is ok to do because ratemort is not used in any functions anymore. therefore I will remove it from future runs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as of 1.27.23, I realized that ratemort was considered a changed parameter which made there be 32 paramtere sets when there should really only be 16. the sim is on year 350 of param 22 of rep 1 and has been running for 8 days, 22 hours, 55 mins, 27 sec. I therefor went into the scratch folder and removed some parameter sets to only 24 to hopefully end the sim early. This is ok to do because ratemort is not used in any functions anymore. therefore I will remove it from future runs. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,8 +751,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +798,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -733,7 +829,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -750,9 +846,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1039,7 +1137,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K29" dT="2022-12-05T20:48:35.11" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
+  <threadedComment ref="L29" dT="2022-12-05T20:48:35.11" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
     <text>Duration for 100 years</text>
   </threadedComment>
   <threadedComment ref="B31" dT="2022-12-09T22:14:22.03" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{0C92A5D0-E8E7-4911-9314-E97650BB7BE8}">
@@ -1051,7 +1149,19 @@
   <threadedComment ref="B34" dT="2022-12-14T20:32:42.46" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{86676CDC-BBC6-44C5-9850-CCC9934B8697}">
     <text>Did a lot of changes to the code to make it run faster. (this is taking 1-17:00:00 so far) therefore, canceled jobs 8-20</text>
   </threadedComment>
-  <threadedComment ref="T40" dT="2023-01-12T16:45:37.23" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{52ADA0E6-ABC5-4973-B385-5E26368B1868}">
+  <threadedComment ref="B40" dT="2023-01-23T18:16:51.94" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{ED3D9FBE-8AF5-4B27-BAAD-7C2C99688058}">
+    <text>Run 18 failed. [1] "DONE! 10 param 17 rep 1"
+[1] "not enough mature for fit-induced death"
+[1] "the sex ratio is 0.928571428571429"
+[1] "The next generation's population size will be 15 K is 1000 k is 1000"
+[1] "the number of offspring needed is 1"
+Error in sample.int(length(x), size, replace, prob) :
+  invalid 'size' argument
+Calls: RunModel -&gt; Breed -&gt; sample -&gt; sample.int
+In addition: There were 26 warnings (use warnings() to see them)
+Execution halted</text>
+  </threadedComment>
+  <threadedComment ref="U40" dT="2023-01-12T16:45:37.23" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{52ADA0E6-ABC5-4973-B385-5E26368B1868}">
     <text xml:space="preserve">Note, 0 crashed the pop in 6 generations ccuz no breeding at all. </text>
   </threadedComment>
 </ThreadedComments>
@@ -1059,11 +1169,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1183,7 @@
     <col min="4" max="4" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
@@ -1096,49 +1206,52 @@
         <v>33</v>
       </c>
       <c r="J1" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1160,44 +1273,44 @@
       <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
       <c r="K2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L2">
+        <v>250</v>
+      </c>
+      <c r="M2">
         <v>500</v>
       </c>
-      <c r="M2">
-        <v>1000</v>
-      </c>
-      <c r="P2">
+      <c r="N2">
+        <v>1000</v>
+      </c>
+      <c r="Q2">
         <v>9</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
       <c r="S2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>17</v>
       </c>
@@ -1219,44 +1332,44 @@
       <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
       <c r="K3">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L3">
+        <v>250</v>
+      </c>
+      <c r="M3">
         <v>500</v>
       </c>
-      <c r="M3">
-        <v>1000</v>
-      </c>
-      <c r="P3">
+      <c r="N3">
+        <v>1000</v>
+      </c>
+      <c r="Q3">
         <v>9</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
       <c r="S3">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1278,44 +1391,44 @@
       <c r="I4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
       <c r="K4" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
+        <v>250</v>
+      </c>
+      <c r="M4" s="2">
         <v>500</v>
       </c>
-      <c r="M4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="N4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q4" s="2">
         <v>9</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="R4" s="2">
         <v>2</v>
       </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
       <c r="S4" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T4" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
       <c r="W4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1343,47 +1456,47 @@
       <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
       <c r="K5" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
+        <v>250</v>
+      </c>
+      <c r="M5" s="1">
         <v>500</v>
       </c>
-      <c r="M5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="N5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q5" s="1">
         <v>9</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>2</v>
       </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
       <c r="S5" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
       <c r="W5" s="1">
         <v>0</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -1411,47 +1524,47 @@
       <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
       <c r="K6" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1">
+        <v>250</v>
+      </c>
+      <c r="M6" s="1">
         <v>500</v>
       </c>
-      <c r="M6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="N6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q6" s="1">
         <v>9</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>2</v>
       </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
       <c r="S6" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
       <c r="W6" s="1">
         <v>0</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1479,47 +1592,47 @@
       <c r="I7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
       <c r="K7" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
+        <v>250</v>
+      </c>
+      <c r="M7" s="1">
         <v>500</v>
       </c>
-      <c r="M7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="N7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q7" s="1">
         <v>9</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>2</v>
       </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
       <c r="S7" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
       <c r="W7" s="1">
         <v>0</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1547,47 +1660,47 @@
       <c r="I8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
       <c r="K8" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1">
+        <v>250</v>
+      </c>
+      <c r="M8" s="1">
         <v>500</v>
       </c>
-      <c r="M8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="N8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="1">
         <v>9</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>2</v>
       </c>
-      <c r="R8" s="1">
-        <v>1</v>
-      </c>
       <c r="S8" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
       <c r="W8" s="1">
         <v>0</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1615,47 +1728,47 @@
       <c r="I9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
       <c r="K9" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1">
+        <v>250</v>
+      </c>
+      <c r="M9" s="1">
         <v>500</v>
       </c>
-      <c r="M9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="N9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q9" s="1">
         <v>9</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>2</v>
       </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
       <c r="S9" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
       <c r="W9" s="1">
         <v>0</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1683,47 +1796,47 @@
       <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
       <c r="K10" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L10" s="1">
+        <v>250</v>
+      </c>
+      <c r="M10" s="1">
         <v>500</v>
       </c>
-      <c r="M10" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="N10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="1">
         <v>9</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>2</v>
       </c>
-      <c r="R10" s="1">
-        <v>1</v>
-      </c>
       <c r="S10" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
       <c r="W10" s="1">
         <v>0</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
@@ -1751,47 +1864,47 @@
       <c r="I11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
       <c r="K11" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L11" s="1">
+        <v>250</v>
+      </c>
+      <c r="M11" s="1">
         <v>500</v>
       </c>
-      <c r="M11" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="N11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q11" s="1">
         <v>9</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>2</v>
       </c>
-      <c r="R11" s="1">
-        <v>1</v>
-      </c>
       <c r="S11" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
       <c r="W11" s="1">
         <v>0</v>
       </c>
-      <c r="X11" s="1" t="s">
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -1819,47 +1932,47 @@
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
       <c r="K12" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1">
+        <v>250</v>
+      </c>
+      <c r="M12" s="1">
         <v>500</v>
       </c>
-      <c r="M12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="N12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="1">
         <v>9</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>2</v>
       </c>
-      <c r="R12" s="1">
-        <v>1</v>
-      </c>
       <c r="S12" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
       <c r="W12" s="1">
         <v>0</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -1887,47 +2000,47 @@
       <c r="I13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
       <c r="K13" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1">
+        <v>250</v>
+      </c>
+      <c r="M13" s="1">
         <v>500</v>
       </c>
-      <c r="M13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="N13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q13" s="1">
         <v>9</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>2</v>
       </c>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
       <c r="S13" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
       <c r="W13" s="1">
         <v>0</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -1955,47 +2068,47 @@
       <c r="I14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
       <c r="K14" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1">
+        <v>250</v>
+      </c>
+      <c r="M14" s="1">
         <v>500</v>
       </c>
-      <c r="M14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="N14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q14" s="1">
         <v>9</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>2</v>
       </c>
-      <c r="R14" s="1">
-        <v>1</v>
-      </c>
       <c r="S14" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V14" s="1">
-        <v>0</v>
-      </c>
       <c r="W14" s="1">
         <v>0</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -2023,47 +2136,47 @@
       <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
       <c r="K15" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1">
+        <v>250</v>
+      </c>
+      <c r="M15" s="1">
         <v>500</v>
       </c>
-      <c r="M15" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="N15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q15" s="1">
         <v>9</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>2</v>
       </c>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
       <c r="S15" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
       <c r="W15" s="1">
         <v>0</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
@@ -2091,47 +2204,47 @@
       <c r="I16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
       <c r="K16" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1">
+        <v>250</v>
+      </c>
+      <c r="M16" s="1">
         <v>500</v>
       </c>
-      <c r="M16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P16" s="1">
+      <c r="N16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q16" s="1">
         <v>9</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>2</v>
       </c>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
       <c r="S16" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
       <c r="W16" s="1">
         <v>0</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -2159,47 +2272,47 @@
       <c r="I17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
       <c r="K17" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1">
+        <v>250</v>
+      </c>
+      <c r="M17" s="1">
         <v>500</v>
       </c>
-      <c r="M17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="N17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q17" s="1">
         <v>9</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>2</v>
       </c>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
       <c r="S17" s="1">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V17" s="1">
-        <v>0</v>
-      </c>
       <c r="W17" s="1">
         <v>0</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>67</v>
       </c>
@@ -2224,47 +2337,47 @@
       <c r="I18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
       <c r="K18" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
+        <v>250</v>
+      </c>
+      <c r="M18" s="2">
         <v>500</v>
       </c>
-      <c r="M18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="N18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q18" s="2">
         <v>9</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
         <v>2</v>
       </c>
-      <c r="R18" s="2">
-        <v>1</v>
-      </c>
       <c r="S18" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T18" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
       <c r="W18" s="2">
         <v>0</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>69</v>
       </c>
@@ -2289,47 +2402,47 @@
       <c r="I19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
       <c r="K19" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
+        <v>250</v>
+      </c>
+      <c r="M19" s="2">
         <v>500</v>
       </c>
-      <c r="M19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="P19" s="2">
+      <c r="N19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q19" s="2">
         <v>9</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="2">
         <v>2</v>
       </c>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
       <c r="S19" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T19" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
       <c r="W19" s="2">
         <v>0</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>72</v>
       </c>
@@ -2354,47 +2467,47 @@
       <c r="I20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
       <c r="K20" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
+        <v>250</v>
+      </c>
+      <c r="M20" s="2">
         <v>500</v>
       </c>
-      <c r="M20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="P20" s="2">
+      <c r="N20" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q20" s="2">
         <v>9</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
       <c r="S20" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
@@ -2419,47 +2532,47 @@
       <c r="I21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
       <c r="K21" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
+        <v>250</v>
+      </c>
+      <c r="M21" s="2">
         <v>500</v>
       </c>
-      <c r="M21" s="2">
-        <v>1000</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="N21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q21" s="2">
         <v>9</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
         <v>2</v>
       </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
       <c r="S21" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T21" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
       <c r="W21" s="2">
         <v>0</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>76</v>
       </c>
@@ -2484,47 +2597,47 @@
       <c r="I22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
       <c r="K22" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
+        <v>250</v>
+      </c>
+      <c r="M22" s="2">
         <v>500</v>
       </c>
-      <c r="M22" s="2">
-        <v>1000</v>
-      </c>
-      <c r="P22" s="2">
+      <c r="N22" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q22" s="2">
         <v>9</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="R22" s="2">
         <v>2</v>
       </c>
-      <c r="R22" s="2">
-        <v>1</v>
-      </c>
       <c r="S22" s="2">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T22" s="2">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U22" s="2">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
       <c r="W22" s="2">
         <v>0</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>78</v>
       </c>
@@ -2549,47 +2662,47 @@
       <c r="I23" t="s">
         <v>39</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
       <c r="K23">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L23">
+        <v>250</v>
+      </c>
+      <c r="M23">
         <v>500</v>
       </c>
-      <c r="M23">
-        <v>1000</v>
-      </c>
-      <c r="P23">
+      <c r="N23">
+        <v>1000</v>
+      </c>
+      <c r="Q23">
         <v>9</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>2</v>
       </c>
-      <c r="R23">
-        <v>1</v>
-      </c>
       <c r="S23">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
       <c r="W23">
         <v>0</v>
       </c>
-      <c r="X23" t="s">
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>82</v>
       </c>
@@ -2614,47 +2727,47 @@
       <c r="I24" t="s">
         <v>35</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
       <c r="K24">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L24">
+        <v>250</v>
+      </c>
+      <c r="M24">
         <v>500</v>
       </c>
-      <c r="M24">
-        <v>1000</v>
-      </c>
-      <c r="P24">
+      <c r="N24">
+        <v>1000</v>
+      </c>
+      <c r="Q24">
         <v>9</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>2</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
       <c r="S24">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
       <c r="W24">
         <v>0</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>84</v>
       </c>
@@ -2679,47 +2792,47 @@
       <c r="I25" t="s">
         <v>35</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
       <c r="K25">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L25">
+        <v>250</v>
+      </c>
+      <c r="M25">
         <v>500</v>
       </c>
-      <c r="M25">
-        <v>1000</v>
-      </c>
-      <c r="P25">
+      <c r="N25">
+        <v>1000</v>
+      </c>
+      <c r="Q25">
         <v>9</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2</v>
       </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
       <c r="S25">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
       <c r="W25">
         <v>0</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -2744,48 +2857,48 @@
       <c r="I26" t="s">
         <v>39</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
       <c r="K26">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="L26">
+        <v>250</v>
+      </c>
+      <c r="M26">
         <v>500</v>
       </c>
-      <c r="M26">
-        <v>1000</v>
-      </c>
-      <c r="P26">
+      <c r="N26">
+        <v>1000</v>
+      </c>
+      <c r="Q26">
         <v>9</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2</v>
       </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
       <c r="S26">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>99</v>
       </c>
@@ -2810,17 +2923,17 @@
       <c r="I28" t="s">
         <v>39</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>50</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>350</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>101</v>
       </c>
@@ -2845,17 +2958,17 @@
       <c r="I29" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>50</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>350</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>103</v>
       </c>
@@ -2877,17 +2990,17 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>25</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>350</v>
       </c>
-      <c r="X30" s="2" t="s">
+      <c r="Y30" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>107</v>
       </c>
@@ -2909,17 +3022,17 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>50</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>350</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>110</v>
       </c>
@@ -2941,17 +3054,17 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>50</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>350</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>115</v>
       </c>
@@ -2973,17 +3086,17 @@
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>50</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>350</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>119</v>
       </c>
@@ -3008,17 +3121,17 @@
       <c r="I34" t="s">
         <v>117</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>50</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>350</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>125</v>
       </c>
@@ -3043,50 +3156,50 @@
       <c r="I35">
         <v>0.45</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4">
         <v>50</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>500</v>
       </c>
-      <c r="M35">
-        <v>1000</v>
-      </c>
       <c r="N35">
+        <v>1000</v>
+      </c>
+      <c r="O35">
         <v>10</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>40</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>9</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>2</v>
       </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
       <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
         <v>350</v>
       </c>
-      <c r="T35">
-        <v>1</v>
-      </c>
       <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>100</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>134</v>
       </c>
@@ -3114,52 +3227,52 @@
       <c r="I36">
         <v>0.45</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" s="13">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
         <v>300</v>
       </c>
-      <c r="L36">
-        <v>1000</v>
-      </c>
       <c r="M36">
         <v>1000</v>
       </c>
       <c r="N36">
+        <v>1000</v>
+      </c>
+      <c r="O36">
         <v>10</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>40</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>9</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>2</v>
       </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
       <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
         <v>350</v>
       </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
       <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>100</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>138</v>
@@ -3185,50 +3298,50 @@
       <c r="I37" t="s">
         <v>133</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" s="4">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="4">
         <v>500</v>
       </c>
-      <c r="L37">
-        <v>1000</v>
-      </c>
       <c r="M37">
         <v>1000</v>
       </c>
       <c r="N37">
+        <v>1000</v>
+      </c>
+      <c r="O37">
         <v>10</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>40</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>9</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2</v>
       </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
       <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
         <v>350</v>
       </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
       <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>100</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>135</v>
       </c>
@@ -3256,50 +3369,50 @@
       <c r="I38">
         <v>0.45</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" s="13">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="13">
         <v>700</v>
       </c>
-      <c r="L38">
-        <v>1000</v>
-      </c>
       <c r="M38">
         <v>1000</v>
       </c>
       <c r="N38">
+        <v>1000</v>
+      </c>
+      <c r="O38">
         <v>10</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>40</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>9</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>2</v>
       </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
       <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
         <v>350</v>
       </c>
-      <c r="T38">
-        <v>1</v>
-      </c>
       <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>100</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -3327,58 +3440,70 @@
       <c r="I39">
         <v>0.45</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" s="13">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13">
         <v>100</v>
       </c>
-      <c r="L39">
-        <v>1000</v>
-      </c>
       <c r="M39">
         <v>1000</v>
       </c>
       <c r="N39">
+        <v>1000</v>
+      </c>
+      <c r="O39">
         <v>10</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>40</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>9</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>2</v>
       </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
       <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
         <v>350</v>
       </c>
-      <c r="T39">
-        <v>1</v>
-      </c>
       <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>100</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>145</v>
       </c>
       <c r="B40" t="s">
         <v>141</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="14" t="s">
         <v>139</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H40" t="s">
         <v>122</v>
@@ -3386,117 +3511,383 @@
       <c r="I40" t="s">
         <v>140</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4">
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="4">
         <v>75</v>
       </c>
-      <c r="L40">
-        <v>1000</v>
-      </c>
       <c r="M40">
         <v>1000</v>
       </c>
       <c r="N40">
+        <v>1000</v>
+      </c>
+      <c r="O40">
         <v>10</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>40</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>9</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
       <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
         <v>350</v>
       </c>
-      <c r="T40" t="s">
+      <c r="U40" t="s">
         <v>142</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>100</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="K41" s="11"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C43" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I42">
+        <v>0.45</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="4">
+        <v>100</v>
+      </c>
+      <c r="M42">
+        <v>1000</v>
+      </c>
+      <c r="N42">
+        <v>1000</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42">
+        <v>40</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>150</v>
+      </c>
+      <c r="R42" t="s">
+        <v>151</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>350</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="W42">
+        <v>100</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+      <c r="H43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43">
+        <v>0.45</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" s="4">
+        <v>500</v>
+      </c>
+      <c r="M43">
+        <v>1000</v>
+      </c>
+      <c r="N43">
+        <v>1000</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+      <c r="P43">
+        <v>40</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>150</v>
+      </c>
+      <c r="R43" t="s">
+        <v>151</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>350</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="W43">
+        <v>100</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>122</v>
+      </c>
+      <c r="I44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" s="4">
+        <v>300</v>
+      </c>
+      <c r="M44">
+        <v>1000</v>
+      </c>
+      <c r="N44">
+        <v>1000</v>
+      </c>
+      <c r="O44">
+        <v>10</v>
+      </c>
+      <c r="P44">
+        <v>40</v>
+      </c>
+      <c r="Q44">
+        <v>9</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>350</v>
+      </c>
+      <c r="U44" t="s">
+        <v>156</v>
+      </c>
+      <c r="V44">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="W44">
+        <v>100</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>300</v>
+      </c>
+      <c r="M45">
+        <v>1000</v>
+      </c>
+      <c r="N45">
+        <v>1000</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+      <c r="P45">
+        <v>40</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>350</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>5.5555555555555601E-2</v>
+      </c>
+      <c r="W45">
+        <v>100</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="N48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D49" s="6" t="s">
+    <row r="54" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D54" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D51" s="7" t="s">
+    <row r="56" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D56" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D52" s="3" t="s">
+    <row r="57" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D57" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D53" s="3" t="s">
+    <row r="58" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D58" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D54" s="3" t="s">
+    <row r="59" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D59" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D55" s="3" t="s">
+    <row r="60" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D60" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D56" s="6" t="s">
+    <row r="61" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D61" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D57" s="3" t="s">
+    <row r="62" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D62" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D59" s="3" t="s">
+    <row r="64" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D64" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91B6F1D-4A1E-4E5E-884E-451788A66DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B91D5-C364-4EF8-9110-6BC352D72853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="1380" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="179">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -660,13 +660,55 @@
     <t>440425:440444</t>
   </si>
   <si>
-    <t>ls</t>
-  </si>
-  <si>
     <t xml:space="preserve">as of 1.27.23, I realized that ratemort was considered a changed parameter which made there be 32 paramtere sets when there should really only be 16. the sim is on year 350 of param 23 of rep 1 and has been running for 8 days, 22 hours, 42 mins, 32 sec. I therefor went into the scratch folder and removed some parameter sets to only 24 to hopefully end the sim early. This is ok to do because ratemort is not used in any functions anymore. therefore I will remove it from future runs. </t>
   </si>
   <si>
     <t xml:space="preserve">as of 1.27.23, I realized that ratemort was considered a changed parameter which made there be 32 paramtere sets when there should really only be 16. the sim is on year 350 of param 22 of rep 1 and has been running for 8 days, 22 hours, 55 mins, 27 sec. I therefor went into the scratch folder and removed some parameter sets to only 24 to hopefully end the sim early. This is ok to do because ratemort is not used in any functions anymore. therefore I will remove it from future runs. </t>
+  </si>
+  <si>
+    <t>as of 1.27.23, I realized that the dead object was retaining indv from previous runs, so LRS and RRS values CANNOT BE TRUSTED -- dead obj from current runs are being removed to speed up -- may crash but ok since repsuc isnt working anyways</t>
+  </si>
+  <si>
+    <t>runs 17:20 ok with rep suc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ran a set of quickies (i.e., only 5 runs) </t>
+  </si>
+  <si>
+    <t>run_a</t>
+  </si>
+  <si>
+    <t>466560:466564</t>
+  </si>
+  <si>
+    <t>run_b</t>
+  </si>
+  <si>
+    <t>466565:466569</t>
+  </si>
+  <si>
+    <t>run_c</t>
+  </si>
+  <si>
+    <t>466570:466574</t>
+  </si>
+  <si>
+    <t>15, 3</t>
+  </si>
+  <si>
+    <t>run_d</t>
+  </si>
+  <si>
+    <t>466474:466579</t>
+  </si>
+  <si>
+    <t>run_e</t>
+  </si>
+  <si>
+    <t>a, b, c</t>
+  </si>
+  <si>
+    <t>466580:466584</t>
   </si>
 </sst>
 </file>
@@ -761,7 +803,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,6 +858,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7171"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -829,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -851,12 +899,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7171"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1169,11 +1227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3212,7 +3270,7 @@
       <c r="D36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -3283,7 +3341,7 @@
       <c r="D37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3354,7 +3412,7 @@
       <c r="D38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -3425,7 +3483,7 @@
       <c r="D39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -3496,7 +3554,7 @@
       <c r="D40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -3619,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
@@ -3681,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
@@ -3694,7 +3752,7 @@
       <c r="D44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="17" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -3810,84 +3868,370 @@
       <c r="X45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L46" s="4"/>
+      <c r="Y45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+      <c r="A47" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="16" t="s">
+      <c r="B47" s="14"/>
+      <c r="C47" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="N48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+    </row>
+    <row r="48" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" s="20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J49" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="K49" s="20">
+        <v>1</v>
+      </c>
+      <c r="L49" s="20">
+        <v>300</v>
+      </c>
+      <c r="M49" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N49" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O49" s="20">
+        <v>10</v>
+      </c>
+      <c r="P49" s="20">
+        <v>40</v>
+      </c>
+      <c r="Q49" s="20">
+        <v>9</v>
+      </c>
+      <c r="R49" s="20">
+        <v>2</v>
+      </c>
+      <c r="S49" s="20">
+        <v>1</v>
+      </c>
+      <c r="T49" s="20">
+        <v>350</v>
+      </c>
+      <c r="U49" s="20">
+        <v>1</v>
+      </c>
+      <c r="W49" s="20">
+        <v>100</v>
+      </c>
+      <c r="X49" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="J50" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="K50" s="20">
+        <v>1</v>
+      </c>
+      <c r="L50" s="20">
+        <v>300</v>
+      </c>
+      <c r="M50" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N50" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O50" s="20">
+        <v>10</v>
+      </c>
+      <c r="P50" s="20">
+        <v>40</v>
+      </c>
+      <c r="Q50" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="R50" s="20">
+        <v>2</v>
+      </c>
+      <c r="S50" s="20">
+        <v>1</v>
+      </c>
+      <c r="T50" s="20">
+        <v>350</v>
+      </c>
+      <c r="U50" s="20">
+        <v>1</v>
+      </c>
+      <c r="W50" s="20">
+        <v>100</v>
+      </c>
+      <c r="X50" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="J51" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="K51" s="20">
+        <v>1</v>
+      </c>
+      <c r="L51" s="20">
+        <v>300</v>
+      </c>
+      <c r="M51" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N51" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O51" s="20">
+        <v>10</v>
+      </c>
+      <c r="P51" s="20">
+        <v>40</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>9</v>
+      </c>
+      <c r="R51" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="S51" s="20">
+        <v>1</v>
+      </c>
+      <c r="T51" s="20">
+        <v>350</v>
+      </c>
+      <c r="U51" s="20">
+        <v>1</v>
+      </c>
+      <c r="W51" s="20">
+        <v>100</v>
+      </c>
+      <c r="X51" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I52" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="J52" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="K52" s="20">
+        <v>1</v>
+      </c>
+      <c r="L52" s="20">
+        <v>300</v>
+      </c>
+      <c r="M52" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O52" s="20">
+        <v>10</v>
+      </c>
+      <c r="P52" s="20">
+        <v>40</v>
+      </c>
+      <c r="Q52" s="20">
+        <v>9</v>
+      </c>
+      <c r="R52" s="20">
+        <v>2</v>
+      </c>
+      <c r="S52" s="20">
+        <v>1</v>
+      </c>
+      <c r="T52" s="20">
+        <v>350</v>
+      </c>
+      <c r="U52" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="W52" s="20">
+        <v>100</v>
+      </c>
+      <c r="X52" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I53" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="J53" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="K53" s="20">
+        <v>1</v>
+      </c>
+      <c r="L53" s="20">
+        <v>300</v>
+      </c>
+      <c r="M53" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N53" s="20">
+        <v>1000</v>
+      </c>
+      <c r="O53" s="20">
+        <v>10</v>
+      </c>
+      <c r="P53" s="20">
+        <v>40</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>9</v>
+      </c>
+      <c r="R53" s="20">
+        <v>2</v>
+      </c>
+      <c r="S53" s="20">
+        <v>1</v>
+      </c>
+      <c r="T53" s="20">
+        <v>350</v>
+      </c>
+      <c r="U53" s="20">
+        <v>1</v>
+      </c>
+      <c r="W53" s="20">
+        <v>100</v>
+      </c>
+      <c r="X53" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D54" s="6" t="s">
+    <row r="59" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D59" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D56" s="7" t="s">
+    <row r="61" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D61" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D57" s="3" t="s">
+    <row r="62" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D62" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D58" s="3" t="s">
+    <row r="63" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D63" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D59" s="3" t="s">
+    <row r="64" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D64" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D60" s="3" t="s">
+    <row r="65" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D65" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D61" s="6" t="s">
+    <row r="66" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D66" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D62" s="3" t="s">
+    <row r="67" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D67" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D64" s="3" t="s">
+    <row r="69" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D69" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B91D5-C364-4EF8-9110-6BC352D72853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42146CC-0152-48C3-A67A-0ED1C08EEDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="1380" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,9 @@
     <author>tc={86676CDC-BBC6-44C5-9850-CCC9934B8697}</author>
     <author>tc={ED3D9FBE-8AF5-4B27-BAAD-7C2C99688058}</author>
     <author>tc={52ADA0E6-ABC5-4973-B385-5E26368B1868}</author>
+    <author>tc={DBA9BB9F-4B46-4AD2-9246-0D16F6D6E925}</author>
+    <author>tc={D342B0A0-480F-4E88-AE96-613A0A31F1D3}</author>
+    <author>tc={430CFC64-274E-4835-BEFC-546C9F02A94D}</author>
   </authors>
   <commentList>
     <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -103,12 +106,36 @@
     Note, 0 crashed the pop in 6 generations ccuz no breeding at all. </t>
       </text>
     </comment>
+    <comment ref="D43" authorId="6" shapeId="0" xr:uid="{DBA9BB9F-4B46-4AD2-9246-0D16F6D6E925}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Canceled cuz went over the time limit</t>
+      </text>
+    </comment>
+    <comment ref="J54" authorId="7" shapeId="0" xr:uid="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    0.07-0.17</t>
+      </text>
+    </comment>
+    <comment ref="J55" authorId="8" shapeId="0" xr:uid="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    0.07-0.17</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="188">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -709,6 +736,33 @@
   </si>
   <si>
     <t>466580:466584</t>
+  </si>
+  <si>
+    <t>475693:475697</t>
+  </si>
+  <si>
+    <t>478251:478255</t>
+  </si>
+  <si>
+    <t>478256:478260</t>
+  </si>
+  <si>
+    <t>478261:478265</t>
+  </si>
+  <si>
+    <t>478266:478270</t>
+  </si>
+  <si>
+    <t>run_f</t>
+  </si>
+  <si>
+    <t>478283:478287</t>
+  </si>
+  <si>
+    <t>run_g</t>
+  </si>
+  <si>
+    <t>478289:478293</t>
   </si>
 </sst>
 </file>
@@ -803,7 +857,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +918,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -877,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -901,9 +961,7 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1222,16 +1280,25 @@
   <threadedComment ref="U40" dT="2023-01-12T16:45:37.23" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{52ADA0E6-ABC5-4973-B385-5E26368B1868}">
     <text xml:space="preserve">Note, 0 crashed the pop in 6 generations ccuz no breeding at all. </text>
   </threadedComment>
+  <threadedComment ref="D43" dT="2023-01-31T17:54:06.63" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{DBA9BB9F-4B46-4AD2-9246-0D16F6D6E925}">
+    <text>Canceled cuz went over the time limit</text>
+  </threadedComment>
+  <threadedComment ref="J54" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
+    <text>0.07-0.17</text>
+  </threadedComment>
+  <threadedComment ref="J55" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
+    <text>0.07-0.17</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3625,8 +3692,20 @@
       <c r="B42" t="s">
         <v>153</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="14" t="s">
         <v>148</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H42" t="s">
         <v>122</v>
@@ -3690,6 +3769,18 @@
       <c r="C43" t="s">
         <v>152</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="H43" t="s">
         <v>122</v>
       </c>
@@ -3814,8 +3905,20 @@
       <c r="B45" t="s">
         <v>161</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="14" t="s">
         <v>158</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H45" t="s">
         <v>122</v>
@@ -3868,7 +3971,7 @@
       <c r="X45">
         <v>0</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Y45" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3894,344 +3997,494 @@
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
     </row>
-    <row r="48" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="19" t="s">
+    <row r="48" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="10" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="20" t="s">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" t="s">
         <v>167</v>
       </c>
-      <c r="H49" s="20" t="s">
+      <c r="H49" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49">
         <v>0.45</v>
       </c>
-      <c r="K49" s="20">
-        <v>1</v>
-      </c>
-      <c r="L49" s="20">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
         <v>300</v>
       </c>
-      <c r="M49" s="20">
-        <v>1000</v>
-      </c>
-      <c r="N49" s="20">
-        <v>1000</v>
-      </c>
-      <c r="O49" s="20">
+      <c r="M49">
+        <v>1000</v>
+      </c>
+      <c r="N49">
+        <v>1000</v>
+      </c>
+      <c r="O49">
         <v>10</v>
       </c>
-      <c r="P49" s="20">
+      <c r="P49">
         <v>40</v>
       </c>
-      <c r="Q49" s="20">
+      <c r="Q49">
         <v>9</v>
       </c>
-      <c r="R49" s="20">
+      <c r="R49">
         <v>2</v>
       </c>
-      <c r="S49" s="20">
-        <v>1</v>
-      </c>
-      <c r="T49" s="20">
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
         <v>350</v>
       </c>
-      <c r="U49" s="20">
-        <v>1</v>
-      </c>
-      <c r="W49" s="20">
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="W49">
         <v>100</v>
       </c>
-      <c r="X49" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="20" t="s">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
         <v>169</v>
       </c>
-      <c r="H50" s="20" t="s">
+      <c r="H50" t="s">
         <v>122</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50">
         <v>0.45</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50">
         <v>0.45</v>
       </c>
-      <c r="K50" s="20">
-        <v>1</v>
-      </c>
-      <c r="L50" s="20">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
         <v>300</v>
       </c>
-      <c r="M50" s="20">
-        <v>1000</v>
-      </c>
-      <c r="N50" s="20">
-        <v>1000</v>
-      </c>
-      <c r="O50" s="20">
+      <c r="M50">
+        <v>1000</v>
+      </c>
+      <c r="N50">
+        <v>1000</v>
+      </c>
+      <c r="O50">
         <v>10</v>
       </c>
-      <c r="P50" s="20">
+      <c r="P50">
         <v>40</v>
       </c>
-      <c r="Q50" s="20" t="s">
+      <c r="Q50" t="s">
         <v>173</v>
       </c>
-      <c r="R50" s="20">
+      <c r="R50">
         <v>2</v>
       </c>
-      <c r="S50" s="20">
-        <v>1</v>
-      </c>
-      <c r="T50" s="20">
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
         <v>350</v>
       </c>
-      <c r="U50" s="20">
-        <v>1</v>
-      </c>
-      <c r="W50" s="20">
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="W50">
         <v>100</v>
       </c>
-      <c r="X50" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="20" t="s">
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
         <v>171</v>
       </c>
-      <c r="H51" s="20" t="s">
+      <c r="H51" t="s">
         <v>122</v>
       </c>
-      <c r="I51" s="20">
+      <c r="I51">
         <v>0.45</v>
       </c>
-      <c r="J51" s="20">
+      <c r="J51">
         <v>0.45</v>
       </c>
-      <c r="K51" s="20">
-        <v>1</v>
-      </c>
-      <c r="L51" s="20">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>300</v>
       </c>
-      <c r="M51" s="20">
-        <v>1000</v>
-      </c>
-      <c r="N51" s="20">
-        <v>1000</v>
-      </c>
-      <c r="O51" s="20">
+      <c r="M51">
+        <v>1000</v>
+      </c>
+      <c r="N51">
+        <v>1000</v>
+      </c>
+      <c r="O51">
         <v>10</v>
       </c>
-      <c r="P51" s="20">
+      <c r="P51">
         <v>40</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="Q51">
         <v>9</v>
       </c>
-      <c r="R51" s="20" t="s">
+      <c r="R51" t="s">
         <v>151</v>
       </c>
-      <c r="S51" s="20">
-        <v>1</v>
-      </c>
-      <c r="T51" s="20">
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
         <v>350</v>
       </c>
-      <c r="U51" s="20">
-        <v>1</v>
-      </c>
-      <c r="W51" s="20">
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="W51">
         <v>100</v>
       </c>
-      <c r="X51" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="20" t="s">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
         <v>174</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
         <v>122</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52">
         <v>0.45</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52">
         <v>0.45</v>
       </c>
-      <c r="K52" s="20">
-        <v>1</v>
-      </c>
-      <c r="L52" s="20">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
         <v>300</v>
       </c>
-      <c r="M52" s="20">
-        <v>1000</v>
-      </c>
-      <c r="N52" s="20">
-        <v>1000</v>
-      </c>
-      <c r="O52" s="20">
+      <c r="M52">
+        <v>1000</v>
+      </c>
+      <c r="N52">
+        <v>1000</v>
+      </c>
+      <c r="O52">
         <v>10</v>
       </c>
-      <c r="P52" s="20">
+      <c r="P52">
         <v>40</v>
       </c>
-      <c r="Q52" s="20">
+      <c r="Q52">
         <v>9</v>
       </c>
-      <c r="R52" s="20">
+      <c r="R52">
         <v>2</v>
       </c>
-      <c r="S52" s="20">
-        <v>1</v>
-      </c>
-      <c r="T52" s="20">
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
         <v>350</v>
       </c>
-      <c r="U52" s="20">
+      <c r="U52">
         <v>0.5</v>
       </c>
-      <c r="W52" s="20">
+      <c r="W52">
         <v>100</v>
       </c>
-      <c r="X52" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="20" t="s">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="20" t="s">
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
         <v>177</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53">
         <v>0.45</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53">
         <v>0.45</v>
       </c>
-      <c r="K53" s="20">
-        <v>1</v>
-      </c>
-      <c r="L53" s="20">
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
         <v>300</v>
       </c>
-      <c r="M53" s="20">
-        <v>1000</v>
-      </c>
-      <c r="N53" s="20">
-        <v>1000</v>
-      </c>
-      <c r="O53" s="20">
+      <c r="M53">
+        <v>1000</v>
+      </c>
+      <c r="N53">
+        <v>1000</v>
+      </c>
+      <c r="O53">
         <v>10</v>
       </c>
-      <c r="P53" s="20">
+      <c r="P53">
         <v>40</v>
       </c>
-      <c r="Q53" s="20">
+      <c r="Q53">
         <v>9</v>
       </c>
-      <c r="R53" s="20">
+      <c r="R53">
         <v>2</v>
       </c>
-      <c r="S53" s="20">
-        <v>1</v>
-      </c>
-      <c r="T53" s="20">
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
         <v>350</v>
       </c>
-      <c r="U53" s="20">
-        <v>1</v>
-      </c>
-      <c r="W53" s="20">
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="W53">
         <v>100</v>
       </c>
-      <c r="X53" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" s="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+      <c r="H54" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54">
+        <v>0.45</v>
+      </c>
+      <c r="J54">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>300</v>
+      </c>
+      <c r="M54">
+        <v>1000</v>
+      </c>
+      <c r="N54">
+        <v>1000</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54">
+        <v>40</v>
+      </c>
+      <c r="Q54">
+        <v>9</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>350</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>100</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="H55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I55">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J55">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>300</v>
+      </c>
+      <c r="M55">
+        <v>1000</v>
+      </c>
+      <c r="N55">
+        <v>1000</v>
+      </c>
+      <c r="O55">
+        <v>10</v>
+      </c>
+      <c r="P55">
+        <v>40</v>
+      </c>
+      <c r="Q55">
+        <v>9</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>350</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>100</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D59" s="6" t="s">
+    <row r="62" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D62" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D61" s="7" t="s">
+    <row r="64" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D64" s="7" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D62" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D63" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D64" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D65" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D66" s="6" t="s">
-        <v>92</v>
+      <c r="D66" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D67" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D68" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D69" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D70" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D69" s="3" t="s">
+    <row r="72" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D72" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42146CC-0152-48C3-A67A-0ED1C08EEDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CDD1A-B94B-43B1-8E9A-C5E415A127FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     Canceled cuz went over the time limit</t>
       </text>
     </comment>
-    <comment ref="J54" authorId="7" shapeId="0" xr:uid="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
+    <comment ref="J55" authorId="7" shapeId="0" xr:uid="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -122,7 +122,7 @@
     0.07-0.17</t>
       </text>
     </comment>
-    <comment ref="J55" authorId="8" shapeId="0" xr:uid="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
+    <comment ref="J56" authorId="8" shapeId="0" xr:uid="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="188">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1283,10 +1283,10 @@
   <threadedComment ref="D43" dT="2023-01-31T17:54:06.63" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{DBA9BB9F-4B46-4AD2-9246-0D16F6D6E925}">
     <text>Canceled cuz went over the time limit</text>
   </threadedComment>
-  <threadedComment ref="J54" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
+  <threadedComment ref="J55" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
     <text>0.07-0.17</text>
   </threadedComment>
-  <threadedComment ref="J55" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
+  <threadedComment ref="J56" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
     <text>0.07-0.17</text>
   </threadedComment>
 </ThreadedComments>
@@ -1294,11 +1294,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4012,6 +4012,18 @@
       <c r="C49" t="s">
         <v>167</v>
       </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
       <c r="H49" t="s">
         <v>122</v>
       </c>
@@ -4062,73 +4074,82 @@
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>170</v>
-      </c>
-      <c r="B50" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" t="s">
-        <v>169</v>
-      </c>
-      <c r="H50" t="s">
-        <v>122</v>
-      </c>
-      <c r="I50">
-        <v>0.45</v>
-      </c>
-      <c r="J50">
-        <v>0.45</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>300</v>
-      </c>
-      <c r="M50">
-        <v>1000</v>
-      </c>
-      <c r="N50">
-        <v>1000</v>
-      </c>
-      <c r="O50">
+      <c r="C50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="P50">
-        <v>40</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>173</v>
-      </c>
-      <c r="R50">
-        <v>2</v>
-      </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
-      <c r="T50">
-        <v>350</v>
-      </c>
-      <c r="U50">
-        <v>1</v>
-      </c>
-      <c r="W50">
-        <v>100</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
+      <c r="U50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X50" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H51" t="s">
         <v>122</v>
@@ -4157,11 +4178,11 @@
       <c r="P51">
         <v>40</v>
       </c>
-      <c r="Q51">
-        <v>9</v>
-      </c>
-      <c r="R51" t="s">
-        <v>151</v>
+      <c r="Q51" t="s">
+        <v>173</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -4181,25 +4202,13 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="H52" t="s">
         <v>122</v>
@@ -4231,8 +4240,8 @@
       <c r="Q52">
         <v>9</v>
       </c>
-      <c r="R52">
-        <v>2</v>
+      <c r="R52" t="s">
+        <v>151</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -4241,7 +4250,7 @@
         <v>350</v>
       </c>
       <c r="U52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W52">
         <v>100</v>
@@ -4252,13 +4261,13 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -4273,7 +4282,7 @@
         <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="I53">
         <v>0.45</v>
@@ -4312,7 +4321,7 @@
         <v>350</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W53">
         <v>100</v>
@@ -4322,20 +4331,35 @@
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>178</v>
+      </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="I54">
         <v>0.45</v>
       </c>
       <c r="J54">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -4379,16 +4403,28 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="D55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
       </c>
       <c r="H55" t="s">
         <v>122</v>
       </c>
       <c r="I55">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="J55">
         <v>7.0000000000000007E-2</v>
@@ -4433,58 +4469,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C59" t="s">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>122</v>
+      </c>
+      <c r="I56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>300</v>
+      </c>
+      <c r="M56">
+        <v>1000</v>
+      </c>
+      <c r="N56">
+        <v>1000</v>
+      </c>
+      <c r="O56">
+        <v>10</v>
+      </c>
+      <c r="P56">
+        <v>40</v>
+      </c>
+      <c r="Q56">
+        <v>9</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>350</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>100</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D62" s="6" t="s">
+    <row r="63" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D63" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D64" s="7" t="s">
+    <row r="65" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D65" s="7" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D65" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D66" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D67" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D68" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D69" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D69" s="6" t="s">
+    <row r="70" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D70" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D70" s="3" t="s">
+    <row r="71" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D71" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D72" s="3" t="s">
+    <row r="73" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CDD1A-B94B-43B1-8E9A-C5E415A127FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80B3C6-9D03-42EB-8C19-102DBA31D067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="238">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -763,6 +763,156 @@
   </si>
   <si>
     <t>478289:478293</t>
+  </si>
+  <si>
+    <t>additional things to try after reading DOI: 10.1111/eva.12791</t>
+  </si>
+  <si>
+    <t>switch if high or low Ho is good after the bottleneck (i.e. if low Ho, live rather than high)</t>
+  </si>
+  <si>
+    <t>introduce phenotype-environment mismatch</t>
+  </si>
+  <si>
+    <t>use term "environmental novelty" rather than climate change</t>
+  </si>
+  <si>
+    <t>things to remember:</t>
+  </si>
+  <si>
+    <t>control of 0 mig suggests inaction may be best</t>
+  </si>
+  <si>
+    <t>read Brouwer et al 2009, seychelles warbler and density dependent reduction in fitness following translocations</t>
+  </si>
+  <si>
+    <t>what level of population variation is required to promote long term pop persistence?</t>
+  </si>
+  <si>
+    <t>look at # of generations back to determine inbreeding?? -- is this worth anything?</t>
+  </si>
+  <si>
+    <t>determin if this is considered assisted migration or genetic rescue - goal to ^ Nc or to ^viability and gen diversity?</t>
+  </si>
+  <si>
+    <t>for epi-- remember transgen exposure to stressors!!</t>
+  </si>
+  <si>
+    <t>mixed model analyses (using rma function in metafor) and leave1out function for effect sizes</t>
+  </si>
+  <si>
+    <t>adding migrants increases Fst from starting pop-- do we want the pop to diverge or do we want to maintain important species characteristics? -- vaquita, other endemic sp</t>
+  </si>
+  <si>
+    <t>testing the conservation for adaptive state vs adaptive process - wide vareity in Ho in pop vs narrow but high Ho ~~~~ will I need to add in domincance in 1/0 or just in heterozygosity? Think about how to impliment this - instead of changing when greating focal genotypes, when doing fitness death change if high or low heterozy is best</t>
+  </si>
+  <si>
+    <t>should we evaluate effect sizes in the change in gen diversity from time a to time b?? (a and b probs before and after bottleneck)</t>
+  </si>
+  <si>
+    <t>evaluate ratio of Ne/Nc; small ratio suggests rapid loss of gen div than a greater ratio -- is Ne the potential breeders or the number that actually breed at that year (I.e., hold the number of parents) -- remember equation Ne = 4NmNf/Nm+Nf (m and f being males and females) -- therefore calc number of moms, number of dads, and number of potnetial parents and put it over the number of adults</t>
+  </si>
+  <si>
+    <t>is LRS not changing because breed.R is random? What happens if we add in selection? --- think about if selection should be focused on Ho or by a SNP that has a selective sweep/fixed, suggesting adaptation --- consider *how many of these need to be tuned "on" to be beneficial*</t>
+  </si>
+  <si>
+    <t>low heterozygosity is better</t>
+  </si>
+  <si>
+    <t>run_h</t>
+  </si>
+  <si>
+    <t>483917:483921</t>
+  </si>
+  <si>
+    <t>483923:483927</t>
+  </si>
+  <si>
+    <t>run_i</t>
+  </si>
+  <si>
+    <t>notes after talking with janna 2/2/23 -- often we know what end Ho we're looking for, and we know the starting pop size, what if we set guidelines for predicting what the starting pop size is? Or the duration of the drop? Rather than an exact equation, think of it as guidelines or bins for recommendations</t>
+  </si>
+  <si>
+    <t>run_j</t>
+  </si>
+  <si>
+    <t>run_k</t>
+  </si>
+  <si>
+    <t>483944:483948</t>
+  </si>
+  <si>
+    <t>483954:483958</t>
+  </si>
+  <si>
+    <t>run_l</t>
+  </si>
+  <si>
+    <t>483963:483967</t>
+  </si>
+  <si>
+    <t>run_m</t>
+  </si>
+  <si>
+    <t>483973:483977</t>
+  </si>
+  <si>
+    <t>mutation rate =0.0001</t>
+  </si>
+  <si>
+    <t>run_n</t>
+  </si>
+  <si>
+    <t>483992:483996</t>
+  </si>
+  <si>
+    <t>run_o</t>
+  </si>
+  <si>
+    <t>484009:484013</t>
+  </si>
+  <si>
+    <t>run_p</t>
+  </si>
+  <si>
+    <t>484021:484025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this will be esp important during bottleneck when the sex ratio is mostly skewed </t>
+  </si>
+  <si>
+    <t>also consider how migrants =/= effective migrants -- should this be quantified and how does it relate to gen measures??</t>
+  </si>
+  <si>
+    <t>run_q</t>
+  </si>
+  <si>
+    <t>485160:485164</t>
+  </si>
+  <si>
+    <t>FitBreed - choose based on Ho</t>
+  </si>
+  <si>
+    <t>FitBreed - choose based on prop migrant SNPS</t>
+  </si>
+  <si>
+    <t>run_r</t>
+  </si>
+  <si>
+    <t>485172:485176</t>
+  </si>
+  <si>
+    <t>485215:485219</t>
+  </si>
+  <si>
+    <t>485225:485228</t>
+  </si>
+  <si>
+    <t>485236:485240</t>
+  </si>
+  <si>
+    <t>485246:485250</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -962,6 +1112,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4537,58 +4689,808 @@
         <v>0</v>
       </c>
     </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" t="s">
+        <v>206</v>
+      </c>
+      <c r="H57" t="s">
+        <v>122</v>
+      </c>
+      <c r="I57">
+        <v>0.45</v>
+      </c>
+      <c r="J57">
+        <v>0.45</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>300</v>
+      </c>
+      <c r="M57">
+        <v>1000</v>
+      </c>
+      <c r="N57">
+        <v>1000</v>
+      </c>
+      <c r="O57">
+        <v>10</v>
+      </c>
+      <c r="P57">
+        <v>40</v>
+      </c>
+      <c r="Q57">
+        <v>9</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>350</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="W57">
+        <v>100</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" t="s">
+        <v>209</v>
+      </c>
+      <c r="H58" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J58">
+        <v>0.45</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>300</v>
+      </c>
+      <c r="M58">
+        <v>1000</v>
+      </c>
+      <c r="N58">
+        <v>1000</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+      <c r="P58">
+        <v>40</v>
+      </c>
+      <c r="Q58">
+        <v>9</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>350</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="W58">
+        <v>100</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" t="s">
+        <v>122</v>
+      </c>
+      <c r="I59">
+        <v>0.45</v>
+      </c>
+      <c r="J59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>300</v>
+      </c>
+      <c r="M59">
+        <v>1000</v>
+      </c>
+      <c r="N59">
+        <v>1000</v>
+      </c>
+      <c r="O59">
+        <v>10</v>
+      </c>
+      <c r="P59">
+        <v>40</v>
+      </c>
+      <c r="Q59">
+        <v>9</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>350</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="W59">
+        <v>100</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
+        <v>236</v>
+      </c>
       <c r="C60" t="s">
+        <v>212</v>
+      </c>
+      <c r="H60" t="s">
+        <v>122</v>
+      </c>
+      <c r="I60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J60">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>300</v>
+      </c>
+      <c r="M60">
+        <v>1000</v>
+      </c>
+      <c r="N60">
+        <v>1000</v>
+      </c>
+      <c r="O60">
+        <v>10</v>
+      </c>
+      <c r="P60">
+        <v>40</v>
+      </c>
+      <c r="Q60">
+        <v>9</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>350</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="W60">
+        <v>100</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J61">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>300</v>
+      </c>
+      <c r="M61">
+        <v>1000</v>
+      </c>
+      <c r="N61">
+        <v>1000</v>
+      </c>
+      <c r="O61">
+        <v>10</v>
+      </c>
+      <c r="P61">
+        <v>40</v>
+      </c>
+      <c r="Q61">
+        <v>9</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>350</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61" s="9"/>
+      <c r="W61">
+        <v>100</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" t="s">
+        <v>217</v>
+      </c>
+      <c r="H62" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62">
+        <v>0.45</v>
+      </c>
+      <c r="J62">
+        <v>0.45</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>300</v>
+      </c>
+      <c r="M62">
+        <v>1000</v>
+      </c>
+      <c r="N62">
+        <v>1000</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62">
+        <v>40</v>
+      </c>
+      <c r="Q62">
+        <v>9</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>350</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62" s="9"/>
+      <c r="W62">
+        <v>100</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" t="s">
+        <v>220</v>
+      </c>
+      <c r="H63" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63">
+        <v>0.45</v>
+      </c>
+      <c r="J63">
+        <v>0.45</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>300</v>
+      </c>
+      <c r="M63">
+        <v>1000</v>
+      </c>
+      <c r="N63">
+        <v>1000</v>
+      </c>
+      <c r="O63">
+        <v>10</v>
+      </c>
+      <c r="P63">
+        <v>40</v>
+      </c>
+      <c r="Q63">
+        <v>9</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>350</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="W63">
+        <v>100</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" t="s">
+        <v>222</v>
+      </c>
+      <c r="H64" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64">
+        <v>0.45</v>
+      </c>
+      <c r="J64">
+        <v>0.45</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>300</v>
+      </c>
+      <c r="M64">
+        <v>1000</v>
+      </c>
+      <c r="N64">
+        <v>1000</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64">
+        <v>45</v>
+      </c>
+      <c r="Q64">
+        <v>9</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>350</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64" s="9"/>
+      <c r="W64">
+        <v>100</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" t="s">
+        <v>122</v>
+      </c>
+      <c r="I65">
+        <v>0.45</v>
+      </c>
+      <c r="J65">
+        <v>0.45</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>300</v>
+      </c>
+      <c r="M65">
+        <v>1000</v>
+      </c>
+      <c r="N65">
+        <v>1000</v>
+      </c>
+      <c r="O65">
+        <v>25</v>
+      </c>
+      <c r="P65">
+        <v>25</v>
+      </c>
+      <c r="Q65">
+        <v>9</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>350</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65" s="9"/>
+      <c r="W65">
+        <v>100</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" t="s">
+        <v>228</v>
+      </c>
+      <c r="H66" t="s">
+        <v>122</v>
+      </c>
+      <c r="I66">
+        <v>0.45</v>
+      </c>
+      <c r="J66">
+        <v>0.45</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>300</v>
+      </c>
+      <c r="M66">
+        <v>1000</v>
+      </c>
+      <c r="N66">
+        <v>1000</v>
+      </c>
+      <c r="O66">
+        <v>10</v>
+      </c>
+      <c r="P66">
+        <v>40</v>
+      </c>
+      <c r="Q66">
+        <v>9</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>350</v>
+      </c>
+      <c r="U66">
+        <v>1</v>
+      </c>
+      <c r="V66" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W66">
+        <v>100</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" t="s">
+        <v>232</v>
+      </c>
+      <c r="H67" t="s">
+        <v>122</v>
+      </c>
+      <c r="I67">
+        <v>0.45</v>
+      </c>
+      <c r="J67">
+        <v>0.45</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>300</v>
+      </c>
+      <c r="M67">
+        <v>1000</v>
+      </c>
+      <c r="N67">
+        <v>1000</v>
+      </c>
+      <c r="O67">
+        <v>10</v>
+      </c>
+      <c r="P67">
+        <v>40</v>
+      </c>
+      <c r="Q67">
+        <v>9</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>350</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="W67">
+        <v>100</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D63" s="6" t="s">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>188</v>
+      </c>
+      <c r="H78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C80" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>227</v>
+      </c>
+      <c r="B83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="20"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D97" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="D64" t="s">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D65" s="7" t="s">
+    <row r="99" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D99" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D66" s="3" t="s">
+    <row r="100" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D100" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D67" s="3" t="s">
+    <row r="101" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D101" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D68" s="3" t="s">
+    <row r="102" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D102" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D69" s="3" t="s">
+    <row r="103" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D103" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D70" s="6" t="s">
+    <row r="104" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D104" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D71" s="3" t="s">
+    <row r="105" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D105" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D73" s="3" t="s">
+    <row r="107" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D107" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A80B3C6-9D03-42EB-8C19-102DBA31D067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366E7931-6046-422F-8AEA-04104F94D8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="238">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1087,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1112,7 +1112,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,8 +1448,8 @@
   <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4303,6 +4302,18 @@
       <c r="C51" t="s">
         <v>169</v>
       </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
       <c r="H51" t="s">
         <v>122</v>
       </c>
@@ -4362,6 +4373,18 @@
       <c r="C52" t="s">
         <v>171</v>
       </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
       <c r="H52" t="s">
         <v>122</v>
       </c>
@@ -5366,7 +5389,7 @@
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5397,22 +5420,19 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="20" t="s">
+      <c r="C85" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="20" t="s">
+      <c r="C86" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="20" t="s">
+      <c r="C87" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="20"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C90" t="s">

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366E7931-6046-422F-8AEA-04104F94D8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C181220E-4570-4CCB-9A41-EFB85204A7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="245">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -913,6 +913,27 @@
   </si>
   <si>
     <t>485246:485250</t>
+  </si>
+  <si>
+    <t>Ne_counts.csv</t>
+  </si>
+  <si>
+    <t>run_s</t>
+  </si>
+  <si>
+    <t>488981:488985</t>
+  </si>
+  <si>
+    <t>run_t</t>
+  </si>
+  <si>
+    <t>488993:488997</t>
+  </si>
+  <si>
+    <t>run_u</t>
+  </si>
+  <si>
+    <t>489006:489010</t>
   </si>
 </sst>
 </file>
@@ -1448,8 +1469,8 @@
   <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V71" sqref="V71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5190,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>225</v>
       </c>
@@ -5247,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>229</v>
       </c>
@@ -5306,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>233</v>
       </c>
@@ -5365,17 +5386,201 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" t="s">
+        <v>239</v>
+      </c>
+      <c r="H68" t="s">
+        <v>122</v>
+      </c>
+      <c r="I68">
+        <v>0.45</v>
+      </c>
+      <c r="J68">
+        <v>0.45</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>100</v>
+      </c>
+      <c r="M68">
+        <v>1000</v>
+      </c>
+      <c r="N68">
+        <v>1000</v>
+      </c>
+      <c r="O68">
+        <v>10</v>
+      </c>
+      <c r="P68">
+        <v>40</v>
+      </c>
+      <c r="Q68">
+        <v>9</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>350</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="W68">
+        <v>100</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>242</v>
+      </c>
+      <c r="C69" t="s">
+        <v>241</v>
+      </c>
+      <c r="H69" t="s">
+        <v>122</v>
+      </c>
+      <c r="I69">
+        <v>0.45</v>
+      </c>
+      <c r="J69">
+        <v>0.45</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>100</v>
+      </c>
+      <c r="M69">
+        <v>1000</v>
+      </c>
+      <c r="N69">
+        <v>1000</v>
+      </c>
+      <c r="O69">
+        <v>10</v>
+      </c>
+      <c r="P69">
+        <v>40</v>
+      </c>
+      <c r="Q69">
+        <v>9</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>350</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="W69">
+        <v>100</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" t="s">
+        <v>122</v>
+      </c>
+      <c r="I70">
+        <v>0.45</v>
+      </c>
+      <c r="J70">
+        <v>0.45</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>100</v>
+      </c>
+      <c r="M70">
+        <v>1000</v>
+      </c>
+      <c r="N70">
+        <v>1000</v>
+      </c>
+      <c r="O70">
+        <v>10</v>
+      </c>
+      <c r="P70">
+        <v>40</v>
+      </c>
+      <c r="Q70">
+        <v>9</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>350</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70" s="9"/>
+      <c r="W70">
+        <v>100</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>188</v>
       </c>
@@ -5383,12 +5588,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C80" s="20" t="s">
         <v>189</v>
       </c>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C181220E-4570-4CCB-9A41-EFB85204A7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B01B1-DF68-45FB-B25C-BAA1190A875D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
     Canceled cuz went over the time limit</t>
       </text>
     </comment>
-    <comment ref="J55" authorId="7" shapeId="0" xr:uid="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
+    <comment ref="J54" authorId="7" shapeId="0" xr:uid="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -122,7 +122,7 @@
     0.07-0.17</t>
       </text>
     </comment>
-    <comment ref="J56" authorId="8" shapeId="0" xr:uid="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
+    <comment ref="J55" authorId="8" shapeId="0" xr:uid="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="274">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -934,6 +934,93 @@
   </si>
   <si>
     <t>489006:489010</t>
+  </si>
+  <si>
+    <t>miggy b = 150 @ yr 175, miggy c = 75 @ 175, 201, 225, miggy d = on mig per gen but not during drop or dur, miggy e = one mig per gen starting after drop</t>
+  </si>
+  <si>
+    <t>miggy b = 50 indv at year 175, miggy c = 25 at 175, 201, 225</t>
+  </si>
+  <si>
+    <t>all 6</t>
+  </si>
+  <si>
+    <t>run_1</t>
+  </si>
+  <si>
+    <t>496118:496122</t>
+  </si>
+  <si>
+    <t>miggy b = 300 @ yr 175, miggy c = 100 @ 175, 201, 225, miggy d = on mig per gen but not during drop or dur, miggy e = two mig per gen starting after drop</t>
+  </si>
+  <si>
+    <t>run_2</t>
+  </si>
+  <si>
+    <t>496123:496127</t>
+  </si>
+  <si>
+    <t>b, c, e</t>
+  </si>
+  <si>
+    <t>run_3</t>
+  </si>
+  <si>
+    <t>run_4</t>
+  </si>
+  <si>
+    <t>496136:496140</t>
+  </si>
+  <si>
+    <t>removing fitness death to see if it will still result in high Ho -- checking why first couple years are weird -- maybe those older than maturity have lower Ho than the rest of the pop is allowed to get? __ after submitting this run, looks like if heterozygosity is ~0, nearly 100% chance of dying.</t>
+  </si>
+  <si>
+    <t>looks like if heterozygosity is ~0, nearly 100% chance of dying. Therefore it is now a 50% chance with a probability of  prob = c(.5/het/100,(1-(.5/het/100)))</t>
+  </si>
+  <si>
+    <t>run_5</t>
+  </si>
+  <si>
+    <t>0, a, d</t>
+  </si>
+  <si>
+    <t>496142:496146</t>
+  </si>
+  <si>
+    <t>496188:496192</t>
+  </si>
+  <si>
+    <t>496195:496199</t>
+  </si>
+  <si>
+    <t>496272:496276</t>
+  </si>
+  <si>
+    <t>496278:496282</t>
+  </si>
+  <si>
+    <t>496130:496134; 496215:496219</t>
+  </si>
+  <si>
+    <t>miggy b = 150 @ yr 151, miggy c = 75 @ 151, 161, 171, 201, miggy e = five mig per gen starting after drop</t>
+  </si>
+  <si>
+    <t>496289:496293</t>
+  </si>
+  <si>
+    <t>miggy b = 300 @ yr 151, miggy c = 100 @ 151, 161, 171, 201</t>
+  </si>
+  <si>
+    <t>b, c</t>
+  </si>
+  <si>
+    <t>run_6</t>
+  </si>
+  <si>
+    <t>496298:496302</t>
+  </si>
+  <si>
+    <t>selection intensity (w bar in allendorfs book) -- this will tell the strength of selection. Aka how the fitness changes each year; a ratio of Ho in migrants vs nonmigrants</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1542,10 @@
   <threadedComment ref="D43" dT="2023-01-31T17:54:06.63" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{DBA9BB9F-4B46-4AD2-9246-0D16F6D6E925}">
     <text>Canceled cuz went over the time limit</text>
   </threadedComment>
-  <threadedComment ref="J55" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
+  <threadedComment ref="J54" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{D342B0A0-480F-4E88-AE96-613A0A31F1D3}">
     <text>0.07-0.17</text>
   </threadedComment>
-  <threadedComment ref="J56" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
+  <threadedComment ref="J55" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
     <text>0.07-0.17</text>
   </threadedComment>
 </ThreadedComments>
@@ -1466,11 +1553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y107"/>
+  <dimension ref="A1:Z116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V71" sqref="V71"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4174,7 +4261,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -4244,84 +4331,90 @@
       <c r="X49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C50" s="8" t="s">
+      <c r="Z49" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>122</v>
+      </c>
+      <c r="I50">
+        <v>0.45</v>
+      </c>
+      <c r="J50">
+        <v>0.45</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>300</v>
+      </c>
+      <c r="M50">
+        <v>1000</v>
+      </c>
+      <c r="N50">
+        <v>1000</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50">
+        <v>40</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>173</v>
+      </c>
+      <c r="R50">
         <v>2</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J50" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="P50" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q50" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R50" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="S50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T50" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U50" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="V50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="W50" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="X50" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>350</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>100</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
@@ -4362,11 +4455,11 @@
       <c r="P51">
         <v>40</v>
       </c>
-      <c r="Q51" t="s">
-        <v>173</v>
-      </c>
-      <c r="R51">
-        <v>2</v>
+      <c r="Q51">
+        <v>9</v>
+      </c>
+      <c r="R51" t="s">
+        <v>151</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -4384,15 +4477,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
@@ -4436,8 +4529,8 @@
       <c r="Q52">
         <v>9</v>
       </c>
-      <c r="R52" t="s">
-        <v>151</v>
+      <c r="R52">
+        <v>2</v>
       </c>
       <c r="S52">
         <v>1</v>
@@ -4446,7 +4539,7 @@
         <v>350</v>
       </c>
       <c r="U52">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W52">
         <v>100</v>
@@ -4455,15 +4548,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
@@ -4478,7 +4571,7 @@
         <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="I53">
         <v>0.45</v>
@@ -4517,7 +4610,7 @@
         <v>350</v>
       </c>
       <c r="U53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W53">
         <v>100</v>
@@ -4526,15 +4619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>178</v>
-      </c>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
         <v>16</v>
@@ -4549,13 +4639,13 @@
         <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="I54">
         <v>0.45</v>
       </c>
       <c r="J54">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -4597,12 +4687,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
@@ -4620,7 +4710,7 @@
         <v>122</v>
       </c>
       <c r="I55">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J55">
         <v>7.0000000000000007E-2</v>
@@ -4665,12 +4755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>207</v>
+      </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
@@ -4688,10 +4781,10 @@
         <v>122</v>
       </c>
       <c r="I56">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="J56">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4726,6 +4819,9 @@
       <c r="U56">
         <v>1</v>
       </c>
+      <c r="V56" s="9" t="s">
+        <v>205</v>
+      </c>
       <c r="W56">
         <v>100</v>
       </c>
@@ -4733,21 +4829,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
       </c>
       <c r="H57" t="s">
         <v>122</v>
       </c>
       <c r="I57">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J57">
         <v>0.45</v>
@@ -4795,24 +4903,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
       </c>
       <c r="H58" t="s">
         <v>122</v>
       </c>
       <c r="I58">
+        <v>0.45</v>
+      </c>
+      <c r="J58">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J58">
-        <v>0.45</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -4857,21 +4977,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
       </c>
       <c r="H59" t="s">
         <v>122</v>
       </c>
       <c r="I59">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J59">
         <v>7.0000000000000007E-2</v>
@@ -4919,15 +5051,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>214</v>
-      </c>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>215</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
       </c>
       <c r="H60" t="s">
         <v>122</v>
@@ -4971,9 +5112,7 @@
       <c r="U60">
         <v>1</v>
       </c>
-      <c r="V60" s="9" t="s">
-        <v>205</v>
-      </c>
+      <c r="V60" s="9"/>
       <c r="W60">
         <v>100</v>
       </c>
@@ -4981,21 +5120,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
       </c>
       <c r="H61" t="s">
         <v>122</v>
       </c>
       <c r="I61">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="J61">
-        <v>7.0000000000000007E-2</v>
+        <v>0.45</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -5022,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="S61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T61">
         <v>350</v>
@@ -5038,12 +5189,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
       </c>
       <c r="H62" t="s">
         <v>122</v>
@@ -5079,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="S62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T62">
         <v>350</v>
@@ -5087,7 +5250,9 @@
       <c r="U62">
         <v>1</v>
       </c>
-      <c r="V62" s="9"/>
+      <c r="V62" s="9" t="s">
+        <v>219</v>
+      </c>
       <c r="W62">
         <v>100</v>
       </c>
@@ -5095,12 +5260,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>220</v>
+        <v>222</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
       </c>
       <c r="H63" t="s">
         <v>122</v>
@@ -5124,10 +5301,10 @@
         <v>1000</v>
       </c>
       <c r="O63">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P63">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -5144,9 +5321,7 @@
       <c r="U63">
         <v>1</v>
       </c>
-      <c r="V63" s="9" t="s">
-        <v>219</v>
-      </c>
+      <c r="V63" s="9"/>
       <c r="W63">
         <v>100</v>
       </c>
@@ -5154,12 +5329,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>224</v>
+      </c>
+      <c r="D64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
       </c>
       <c r="H64" t="s">
         <v>122</v>
@@ -5183,10 +5370,10 @@
         <v>1000</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="P64">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="Q64">
         <v>9</v>
@@ -5211,12 +5398,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
+        <v>228</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
       </c>
       <c r="H65" t="s">
         <v>122</v>
@@ -5240,10 +5439,10 @@
         <v>1000</v>
       </c>
       <c r="O65">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="P65">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -5260,7 +5459,9 @@
       <c r="U65">
         <v>1</v>
       </c>
-      <c r="V65" s="9"/>
+      <c r="V65" s="9" t="s">
+        <v>230</v>
+      </c>
       <c r="W65">
         <v>100</v>
       </c>
@@ -5268,12 +5469,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
       </c>
       <c r="H66" t="s">
         <v>122</v>
@@ -5318,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="V66" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W66">
         <v>100</v>
@@ -5327,12 +5540,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>239</v>
+      </c>
+      <c r="D67" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
       </c>
       <c r="H67" t="s">
         <v>122</v>
@@ -5347,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M67">
         <v>1000</v>
@@ -5377,7 +5602,7 @@
         <v>1</v>
       </c>
       <c r="V67" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="W67">
         <v>100</v>
@@ -5385,13 +5610,28 @@
       <c r="X67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="Y67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
       </c>
       <c r="H68" t="s">
         <v>122</v>
@@ -5436,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="V68" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="W68">
         <v>100</v>
@@ -5448,12 +5688,24 @@
         <v>238</v>
       </c>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
       </c>
       <c r="H69" t="s">
         <v>122</v>
@@ -5497,9 +5749,7 @@
       <c r="U69">
         <v>1</v>
       </c>
-      <c r="V69" s="9" t="s">
-        <v>231</v>
-      </c>
+      <c r="V69" s="9"/>
       <c r="W69">
         <v>100</v>
       </c>
@@ -5510,212 +5760,594 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>244</v>
-      </c>
-      <c r="C70" t="s">
-        <v>243</v>
-      </c>
-      <c r="H70" t="s">
-        <v>122</v>
-      </c>
-      <c r="I70">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P70" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="R70" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S70" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U70" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X70" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>249</v>
+      </c>
+      <c r="B71" t="s">
+        <v>264</v>
+      </c>
+      <c r="C71" t="s">
+        <v>248</v>
+      </c>
+      <c r="H71" t="s">
+        <v>247</v>
+      </c>
+      <c r="I71">
         <v>0.45</v>
       </c>
-      <c r="J70">
+      <c r="J71">
         <v>0.45</v>
       </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>300</v>
+      </c>
+      <c r="M71">
+        <v>1000</v>
+      </c>
+      <c r="N71">
+        <v>1000</v>
+      </c>
+      <c r="O71">
+        <v>10</v>
+      </c>
+      <c r="P71">
+        <v>40</v>
+      </c>
+      <c r="Q71">
+        <v>9</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>350</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="W71">
         <v>100</v>
       </c>
-      <c r="M70">
-        <v>1000</v>
-      </c>
-      <c r="N70">
-        <v>1000</v>
-      </c>
-      <c r="O70">
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" t="s">
+        <v>265</v>
+      </c>
+      <c r="C72" t="s">
+        <v>251</v>
+      </c>
+      <c r="H72" t="s">
+        <v>247</v>
+      </c>
+      <c r="I72">
+        <v>0.45</v>
+      </c>
+      <c r="J72">
+        <v>0.45</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>300</v>
+      </c>
+      <c r="M72">
+        <v>1000</v>
+      </c>
+      <c r="N72">
+        <v>1000</v>
+      </c>
+      <c r="O72">
         <v>10</v>
       </c>
-      <c r="P70">
+      <c r="P72">
         <v>40</v>
       </c>
-      <c r="Q70">
+      <c r="Q72">
         <v>9</v>
       </c>
-      <c r="R70">
+      <c r="R72">
         <v>2</v>
       </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-      <c r="T70">
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
         <v>350</v>
       </c>
-      <c r="U70">
-        <v>1</v>
-      </c>
-      <c r="V70" s="9"/>
-      <c r="W70">
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="W72">
         <v>100</v>
       </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" t="s">
+        <v>254</v>
+      </c>
+      <c r="H73" t="s">
+        <v>253</v>
+      </c>
+      <c r="I73">
+        <v>0.45</v>
+      </c>
+      <c r="J73">
+        <v>0.45</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>300</v>
+      </c>
+      <c r="M73">
+        <v>1000</v>
+      </c>
+      <c r="N73">
+        <v>1000</v>
+      </c>
+      <c r="O73">
+        <v>10</v>
+      </c>
+      <c r="P73">
+        <v>40</v>
+      </c>
+      <c r="Q73">
+        <v>9</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>350</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <v>100</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>256</v>
+      </c>
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>255</v>
+      </c>
+      <c r="H74" t="s">
+        <v>260</v>
+      </c>
+      <c r="I74">
+        <v>0.45</v>
+      </c>
+      <c r="J74">
+        <v>0.45</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>300</v>
+      </c>
+      <c r="M74">
+        <v>1000</v>
+      </c>
+      <c r="N74">
+        <v>1000</v>
+      </c>
+      <c r="O74">
+        <v>10</v>
+      </c>
+      <c r="P74">
+        <v>40</v>
+      </c>
+      <c r="Q74">
+        <v>9</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>350</v>
+      </c>
+      <c r="U74">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <v>100</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" t="s">
+        <v>259</v>
+      </c>
+      <c r="H75" t="s">
+        <v>260</v>
+      </c>
+      <c r="I75">
+        <v>0.45</v>
+      </c>
+      <c r="J75">
+        <v>0.45</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>300</v>
+      </c>
+      <c r="M75">
+        <v>1000</v>
+      </c>
+      <c r="N75">
+        <v>1000</v>
+      </c>
+      <c r="O75">
+        <v>10</v>
+      </c>
+      <c r="P75">
+        <v>40</v>
+      </c>
+      <c r="Q75">
+        <v>9</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <v>350</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>100</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" t="s">
+        <v>271</v>
+      </c>
+      <c r="H76" t="s">
+        <v>270</v>
+      </c>
+      <c r="I76">
+        <v>0.45</v>
+      </c>
+      <c r="J76">
+        <v>0.45</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>300</v>
+      </c>
+      <c r="M76">
+        <v>1000</v>
+      </c>
+      <c r="N76">
+        <v>1000</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76">
+        <v>40</v>
+      </c>
+      <c r="Q76">
+        <v>9</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>350</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>100</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
         <v>188</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H87" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C80" s="20" t="s">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>227</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B92" t="s">
         <v>226</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C92" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="8" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C93" t="s">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D97" s="6" t="s">
+    <row r="106" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D106" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D98" t="s">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D99" s="7" t="s">
+    <row r="108" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D108" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D100" s="3" t="s">
+    <row r="109" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D109" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D101" s="3" t="s">
+    <row r="110" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D110" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="102" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D102" s="3" t="s">
+    <row r="111" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D111" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D103" s="3" t="s">
+    <row r="112" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D112" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D104" s="6" t="s">
+    <row r="113" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D113" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D105" s="3" t="s">
+    <row r="114" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D114" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D107" s="3" t="s">
+    <row r="116" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D116" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B01B1-DF68-45FB-B25C-BAA1190A875D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BC6678-870B-4DE8-ADFD-3C7F034CBFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="287">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1021,6 +1021,45 @@
   </si>
   <si>
     <t>selection intensity (w bar in allendorfs book) -- this will tell the strength of selection. Aka how the fitness changes each year; a ratio of Ho in migrants vs nonmigrants</t>
+  </si>
+  <si>
+    <t>may need to introduce allee effects at low pop sizes!! https://royalsocietypublishing.org/doi/pdf/10.1098/rspa.2020.0350</t>
+  </si>
+  <si>
+    <t>introduce allee effect at lowest pop size -- instead of r0 = 1, r0 = .5 at low pop sizes (not during pop decline or growht periods)</t>
+  </si>
+  <si>
+    <t>run_7</t>
+  </si>
+  <si>
+    <t>496600:496604</t>
+  </si>
+  <si>
+    <t>run_8</t>
+  </si>
+  <si>
+    <t>introduce allee effect when number of alive adults is less than 400, enacted in FitnessDeath.R, where the fitness effect is stronger at low pop sizes</t>
+  </si>
+  <si>
+    <t>496609:496613</t>
+  </si>
+  <si>
+    <t>introduce allee effect at lowest pop size -- instead of r0 = 1, r0 = .5 at low pop sizes and .75r0 when in decline or growth [i.e., unstable] PLUS introduce allee effect when number of alive adults is less than 400, enacted in FitnessDeath.R, where the fitness effect is stronger at low pop sizes</t>
+  </si>
+  <si>
+    <t>run_9</t>
+  </si>
+  <si>
+    <t>496614:496618</t>
+  </si>
+  <si>
+    <t>fitdeath is at .5 rate and r0 is only at 1 in stable starting point</t>
+  </si>
+  <si>
+    <t>run_10</t>
+  </si>
+  <si>
+    <t>496619:496623</t>
   </si>
 </sst>
 </file>
@@ -1553,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z116"/>
+  <dimension ref="A1:Z123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6197,157 +6236,398 @@
         <v>269</v>
       </c>
     </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>277</v>
+      </c>
+      <c r="C77" t="s">
+        <v>276</v>
+      </c>
+      <c r="H77" t="s">
+        <v>260</v>
+      </c>
+      <c r="I77">
+        <v>0.45</v>
+      </c>
+      <c r="J77">
+        <v>0.45</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>300</v>
+      </c>
+      <c r="M77">
+        <v>1000</v>
+      </c>
+      <c r="N77">
+        <v>1000</v>
+      </c>
+      <c r="O77">
+        <v>10</v>
+      </c>
+      <c r="P77">
+        <v>40</v>
+      </c>
+      <c r="Q77">
+        <v>9</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>1</v>
+      </c>
+      <c r="T77">
+        <v>350</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>100</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" t="s">
+        <v>278</v>
+      </c>
+      <c r="H78" t="s">
+        <v>260</v>
+      </c>
+      <c r="I78">
+        <v>0.45</v>
+      </c>
+      <c r="J78">
+        <v>0.45</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>300</v>
+      </c>
+      <c r="M78">
+        <v>1000</v>
+      </c>
+      <c r="N78">
+        <v>1000</v>
+      </c>
+      <c r="O78">
+        <v>10</v>
+      </c>
+      <c r="P78">
+        <v>40</v>
+      </c>
+      <c r="Q78">
+        <v>9</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>350</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>100</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>279</v>
+      </c>
+    </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>283</v>
+      </c>
       <c r="C79" t="s">
+        <v>282</v>
+      </c>
+      <c r="H79" t="s">
+        <v>260</v>
+      </c>
+      <c r="I79">
+        <v>0.45</v>
+      </c>
+      <c r="J79">
+        <v>0.45</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>300</v>
+      </c>
+      <c r="M79">
+        <v>1000</v>
+      </c>
+      <c r="N79">
+        <v>1000</v>
+      </c>
+      <c r="O79">
+        <v>10</v>
+      </c>
+      <c r="P79">
+        <v>40</v>
+      </c>
+      <c r="Q79">
+        <v>9</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+      <c r="S79">
+        <v>1</v>
+      </c>
+      <c r="T79">
+        <v>350</v>
+      </c>
+      <c r="U79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>100</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" t="s">
+        <v>285</v>
+      </c>
+      <c r="H80" t="s">
+        <v>260</v>
+      </c>
+      <c r="I80">
+        <v>0.45</v>
+      </c>
+      <c r="J80">
+        <v>0.45</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>300</v>
+      </c>
+      <c r="M80">
+        <v>1000</v>
+      </c>
+      <c r="N80">
+        <v>1000</v>
+      </c>
+      <c r="O80">
+        <v>10</v>
+      </c>
+      <c r="P80">
+        <v>40</v>
+      </c>
+      <c r="Q80">
+        <v>9</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>350</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>100</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
         <v>188</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H94" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C89" s="20" t="s">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C90" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>227</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B99" t="s">
         <v>226</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C99" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="8" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C96" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D106" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D107" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D108" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D109" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D110" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D111" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D112" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="113" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D113" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D114" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D115" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D116" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D117" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D118" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D119" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D120" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D121" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D123" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BC6678-870B-4DE8-ADFD-3C7F034CBFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272783F-560E-4371-B723-5BC39AF77F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="288">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>496619:496623</t>
+  </si>
+  <si>
+    <t>497816:497820</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5890,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="L71">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M71">
         <v>1000</v>
@@ -5952,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="L72">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M72">
         <v>1000</v>
@@ -6014,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="L73">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M73">
         <v>1000</v>
@@ -6076,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="L74">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M74">
         <v>1000</v>
@@ -6138,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M75">
         <v>1000</v>
@@ -6184,6 +6187,18 @@
       <c r="C76" t="s">
         <v>271</v>
       </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
       <c r="H76" t="s">
         <v>270</v>
       </c>
@@ -6197,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="L76">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M76">
         <v>1000</v>
@@ -6237,8 +6252,11 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>277</v>
+      </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C77" t="s">
         <v>276</v>
@@ -6256,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="L77">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M77">
         <v>1000</v>
@@ -6315,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="L78">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M78">
         <v>1000</v>
@@ -6374,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="L79">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M79">
         <v>1000</v>
@@ -6433,7 +6451,7 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M80">
         <v>1000</v>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272783F-560E-4371-B723-5BC39AF77F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD211567-D8C8-49C5-B69D-91AF8F61051C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="288">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1599,7 +1599,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="D71:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5880,6 +5880,18 @@
       <c r="C71" t="s">
         <v>248</v>
       </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
       <c r="H71" t="s">
         <v>247</v>
       </c>
@@ -5942,6 +5954,18 @@
       <c r="C72" t="s">
         <v>251</v>
       </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
       <c r="H72" t="s">
         <v>247</v>
       </c>
@@ -6004,6 +6028,18 @@
       <c r="C73" t="s">
         <v>254</v>
       </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
       <c r="H73" t="s">
         <v>253</v>
       </c>
@@ -6066,6 +6102,18 @@
       <c r="C74" t="s">
         <v>255</v>
       </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
       <c r="H74" t="s">
         <v>260</v>
       </c>
@@ -6128,6 +6176,18 @@
       <c r="C75" t="s">
         <v>259</v>
       </c>
+      <c r="D75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
       <c r="H75" t="s">
         <v>260</v>
       </c>
@@ -6261,6 +6321,18 @@
       <c r="C77" t="s">
         <v>276</v>
       </c>
+      <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
       <c r="H77" t="s">
         <v>260</v>
       </c>
@@ -6320,6 +6392,18 @@
       <c r="C78" t="s">
         <v>278</v>
       </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
       <c r="H78" t="s">
         <v>260</v>
       </c>
@@ -6379,6 +6463,18 @@
       <c r="C79" t="s">
         <v>282</v>
       </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
       <c r="H79" t="s">
         <v>260</v>
       </c>
@@ -6437,6 +6533,18 @@
       </c>
       <c r="C80" t="s">
         <v>285</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
       </c>
       <c r="H80" t="s">
         <v>260</v>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD211567-D8C8-49C5-B69D-91AF8F61051C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A01B0C4-26C9-42AA-B484-F6F6B2D7158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="304">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1063,6 +1063,54 @@
   </si>
   <si>
     <t>497816:497820</t>
+  </si>
+  <si>
+    <t>run_11</t>
+  </si>
+  <si>
+    <t>CHANGED THE ERROR IN STARTING HETEROZYGOSITIES</t>
+  </si>
+  <si>
+    <t>518010:518014</t>
+  </si>
+  <si>
+    <t>run_12</t>
+  </si>
+  <si>
+    <t>518024:518028</t>
+  </si>
+  <si>
+    <t>run_13</t>
+  </si>
+  <si>
+    <t>518037:518041</t>
+  </si>
+  <si>
+    <t>run_aa</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>run_bb</t>
+  </si>
+  <si>
+    <t>run_cc</t>
+  </si>
+  <si>
+    <t>518079:518083</t>
+  </si>
+  <si>
+    <t>518093:518097</t>
+  </si>
+  <si>
+    <t>518107:518111</t>
+  </si>
+  <si>
+    <t>518129:518133</t>
+  </si>
+  <si>
+    <t>run_14</t>
   </si>
 </sst>
 </file>
@@ -1595,11 +1643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z123"/>
+  <dimension ref="A1:Z127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="D71:G73"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6598,162 +6646,575 @@
         <v>284</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" t="s">
+        <v>288</v>
+      </c>
+      <c r="H81" t="s">
+        <v>260</v>
+      </c>
+      <c r="I81">
+        <v>0.45</v>
+      </c>
+      <c r="J81">
+        <v>0.45</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>100</v>
+      </c>
+      <c r="M81">
+        <v>1000</v>
+      </c>
+      <c r="N81">
+        <v>1000</v>
+      </c>
+      <c r="O81">
+        <v>10</v>
+      </c>
+      <c r="P81">
+        <v>40</v>
+      </c>
+      <c r="Q81">
+        <v>9</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <v>350</v>
+      </c>
+      <c r="U81">
+        <v>1</v>
+      </c>
+      <c r="W81">
+        <v>100</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" t="s">
+        <v>291</v>
+      </c>
+      <c r="H82" t="s">
+        <v>260</v>
+      </c>
+      <c r="I82">
+        <v>0.45</v>
+      </c>
+      <c r="J82">
+        <v>0.45</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>300</v>
+      </c>
+      <c r="M82">
+        <v>1000</v>
+      </c>
+      <c r="N82">
+        <v>1000</v>
+      </c>
+      <c r="O82">
+        <v>10</v>
+      </c>
+      <c r="P82">
+        <v>40</v>
+      </c>
+      <c r="Q82">
+        <v>9</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1</v>
+      </c>
+      <c r="T82">
+        <v>350</v>
+      </c>
+      <c r="U82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>100</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>294</v>
+      </c>
+      <c r="C83" t="s">
+        <v>293</v>
+      </c>
+      <c r="H83" t="s">
+        <v>260</v>
+      </c>
+      <c r="I83">
+        <v>0.45</v>
+      </c>
+      <c r="J83">
+        <v>0.45</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>500</v>
+      </c>
+      <c r="M83">
+        <v>1000</v>
+      </c>
+      <c r="N83">
+        <v>1000</v>
+      </c>
+      <c r="O83">
+        <v>10</v>
+      </c>
+      <c r="P83">
+        <v>40</v>
+      </c>
+      <c r="Q83">
+        <v>9</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <v>350</v>
+      </c>
+      <c r="U83">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>100</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" t="s">
+        <v>295</v>
+      </c>
+      <c r="H84" t="s">
+        <v>296</v>
+      </c>
+      <c r="I84">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J84">
+        <v>0.45</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>100</v>
+      </c>
+      <c r="M84">
+        <v>1000</v>
+      </c>
+      <c r="N84">
+        <v>1000</v>
+      </c>
+      <c r="O84">
+        <v>10</v>
+      </c>
+      <c r="P84">
+        <v>40</v>
+      </c>
+      <c r="Q84">
+        <v>9</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84">
+        <v>350</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+      <c r="W84">
+        <v>100</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>301</v>
+      </c>
       <c r="C85" t="s">
+        <v>297</v>
+      </c>
+      <c r="H85" t="s">
+        <v>296</v>
+      </c>
+      <c r="I85">
+        <v>0.45</v>
+      </c>
+      <c r="J85">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>100</v>
+      </c>
+      <c r="M85">
+        <v>1000</v>
+      </c>
+      <c r="N85">
+        <v>1000</v>
+      </c>
+      <c r="O85">
+        <v>10</v>
+      </c>
+      <c r="P85">
+        <v>40</v>
+      </c>
+      <c r="Q85">
+        <v>9</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>350</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>100</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C86" t="s">
+        <v>298</v>
+      </c>
+      <c r="H86" t="s">
+        <v>296</v>
+      </c>
+      <c r="I86">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J86">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>100</v>
+      </c>
+      <c r="M86">
+        <v>1000</v>
+      </c>
+      <c r="N86">
+        <v>1000</v>
+      </c>
+      <c r="O86">
+        <v>10</v>
+      </c>
+      <c r="P86">
+        <v>40</v>
+      </c>
+      <c r="Q86">
+        <v>9</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>350</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>100</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>302</v>
+      </c>
+      <c r="C87" t="s">
+        <v>303</v>
+      </c>
+      <c r="H87" t="s">
+        <v>260</v>
+      </c>
+      <c r="I87">
+        <v>0.45</v>
+      </c>
+      <c r="J87">
+        <v>0.45</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>700</v>
+      </c>
+      <c r="M87">
+        <v>1000</v>
+      </c>
+      <c r="N87">
+        <v>1000</v>
+      </c>
+      <c r="O87">
+        <v>10</v>
+      </c>
+      <c r="P87">
+        <v>40</v>
+      </c>
+      <c r="Q87">
+        <v>9</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>350</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>100</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
+    <row r="90" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
+    <row r="92" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
+    <row r="96" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
         <v>188</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H98" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C96" s="20" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C100" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>227</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B103" t="s">
         <v>226</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C103" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="8" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C104" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C110" t="s">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D113" s="6" t="s">
+    <row r="117" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D117" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D114" t="s">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D115" s="7" t="s">
+    <row r="119" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D119" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D116" s="3" t="s">
+    <row r="120" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D120" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="117" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D117" s="3" t="s">
+    <row r="121" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D121" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D118" s="3" t="s">
+    <row r="122" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D122" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D119" s="3" t="s">
+    <row r="123" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D123" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="120" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D120" s="6" t="s">
+    <row r="124" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D124" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="121" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D121" s="3" t="s">
+    <row r="125" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D125" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D123" s="3" t="s">
+    <row r="127" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D127" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A01B0C4-26C9-42AA-B484-F6F6B2D7158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78349F07-3ACA-4EAD-A932-23B64F924ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="310">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1111,6 +1111,24 @@
   </si>
   <si>
     <t>run_14</t>
+  </si>
+  <si>
+    <t>run_aa2</t>
+  </si>
+  <si>
+    <t>run_bb2</t>
+  </si>
+  <si>
+    <t>run_cc2</t>
+  </si>
+  <si>
+    <t>524186:524190</t>
+  </si>
+  <si>
+    <t>524193:524197</t>
+  </si>
+  <si>
+    <t>524200:524204</t>
   </si>
 </sst>
 </file>
@@ -1643,11 +1661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z127"/>
+  <dimension ref="A1:Z134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6830,6 +6848,18 @@
       <c r="C84" t="s">
         <v>295</v>
       </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
       <c r="H84" t="s">
         <v>296</v>
       </c>
@@ -6889,6 +6919,18 @@
       <c r="C85" t="s">
         <v>297</v>
       </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
       <c r="H85" t="s">
         <v>296</v>
       </c>
@@ -6948,6 +6990,18 @@
       <c r="C86" t="s">
         <v>298</v>
       </c>
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
       <c r="H86" t="s">
         <v>296</v>
       </c>
@@ -7059,162 +7113,339 @@
         <v>289</v>
       </c>
     </row>
+    <row r="88" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
+      </c>
+      <c r="H88" t="s">
+        <v>296</v>
+      </c>
+      <c r="I88">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J88">
+        <v>0.45</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>500</v>
+      </c>
+      <c r="M88">
+        <v>1000</v>
+      </c>
+      <c r="N88">
+        <v>1000</v>
+      </c>
+      <c r="O88">
+        <v>10</v>
+      </c>
+      <c r="P88">
+        <v>40</v>
+      </c>
+      <c r="Q88">
+        <v>9</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
+        <v>350</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="W88">
+        <v>100</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="89" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>309</v>
+      </c>
       <c r="C89" t="s">
-        <v>273</v>
+        <v>305</v>
+      </c>
+      <c r="H89" t="s">
+        <v>296</v>
+      </c>
+      <c r="I89">
+        <v>0.45</v>
+      </c>
+      <c r="J89">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>500</v>
+      </c>
+      <c r="M89">
+        <v>1000</v>
+      </c>
+      <c r="N89">
+        <v>1000</v>
+      </c>
+      <c r="O89">
+        <v>10</v>
+      </c>
+      <c r="P89">
+        <v>40</v>
+      </c>
+      <c r="Q89">
+        <v>9</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <v>350</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>100</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>308</v>
+      </c>
       <c r="C90" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="92" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
-        <v>210</v>
+        <v>306</v>
+      </c>
+      <c r="H90" t="s">
+        <v>296</v>
+      </c>
+      <c r="I90">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J90">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>500</v>
+      </c>
+      <c r="M90">
+        <v>1000</v>
+      </c>
+      <c r="N90">
+        <v>1000</v>
+      </c>
+      <c r="O90">
+        <v>10</v>
+      </c>
+      <c r="P90">
+        <v>40</v>
+      </c>
+      <c r="Q90">
+        <v>9</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1</v>
+      </c>
+      <c r="T90">
+        <v>350</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>100</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C98" t="s">
-        <v>188</v>
-      </c>
-      <c r="H98" t="s">
-        <v>194</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C100" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C101" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>227</v>
-      </c>
-      <c r="B103" t="s">
-        <v>226</v>
-      </c>
       <c r="C103" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C104" s="8" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
-        <v>196</v>
+        <v>188</v>
+      </c>
+      <c r="H105" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
-        <v>202</v>
+      <c r="C107" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" t="s">
+        <v>226</v>
+      </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C111" t="s">
-        <v>191</v>
+      <c r="C111" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C115" t="s">
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D117" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D118" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D119" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="120" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D120" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="121" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D121" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D122" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D123" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="124" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D124" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D125" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D126" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D127" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D128" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D129" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D130" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D131" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D132" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D134" s="3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78349F07-3ACA-4EAD-A932-23B64F924ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0BD5F-1793-44F6-9C1B-F287088364EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="310">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1664,8 +1664,8 @@
   <dimension ref="A1:Z134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B110" sqref="B110"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D81:G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6671,6 +6671,18 @@
       <c r="C81" t="s">
         <v>288</v>
       </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
       <c r="H81" t="s">
         <v>260</v>
       </c>
@@ -6730,6 +6742,18 @@
       <c r="C82" t="s">
         <v>291</v>
       </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
       <c r="H82" t="s">
         <v>260</v>
       </c>
@@ -6789,6 +6813,18 @@
       <c r="C83" t="s">
         <v>293</v>
       </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
       <c r="H83" t="s">
         <v>260</v>
       </c>
@@ -7061,6 +7097,18 @@
       <c r="C87" t="s">
         <v>303</v>
       </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
       <c r="H87" t="s">
         <v>260</v>
       </c>
@@ -7120,6 +7168,18 @@
       <c r="C88" t="s">
         <v>304</v>
       </c>
+      <c r="D88" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
       <c r="H88" t="s">
         <v>296</v>
       </c>
@@ -7179,6 +7239,18 @@
       <c r="C89" t="s">
         <v>305</v>
       </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
       <c r="H89" t="s">
         <v>296</v>
       </c>
@@ -7237,6 +7309,18 @@
       </c>
       <c r="C90" t="s">
         <v>306</v>
+      </c>
+      <c r="D90" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>16</v>
       </c>
       <c r="H90" t="s">
         <v>296</v>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B0BD5F-1793-44F6-9C1B-F287088364EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0966ACDE-D2D3-420D-8E48-4658AFE91C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="377">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1130,12 +1130,213 @@
   <si>
     <t>524200:524204</t>
   </si>
+  <si>
+    <t>natureserveconservationstatusfactors_apr12.pdf</t>
+  </si>
+  <si>
+    <t>introduced allee effect</t>
+  </si>
+  <si>
+    <t>compare to run_11 to check if allee effect working ok</t>
+  </si>
+  <si>
+    <t>run_A</t>
+  </si>
+  <si>
+    <t>551580:551584</t>
+  </si>
+  <si>
+    <t>run_B</t>
+  </si>
+  <si>
+    <t>551585:551589</t>
+  </si>
+  <si>
+    <t>ABMrun_3.1.23_a</t>
+  </si>
+  <si>
+    <t>ABMrun_3.1.23_b</t>
+  </si>
+  <si>
+    <t>551595:551599</t>
+  </si>
+  <si>
+    <t>551600:551604</t>
+  </si>
+  <si>
+    <t>ABMrun_3.1.23_c</t>
+  </si>
+  <si>
+    <t>ABMrun_3.1.23_d</t>
+  </si>
+  <si>
+    <t>551605:551609</t>
+  </si>
+  <si>
+    <t>551611:551615</t>
+  </si>
+  <si>
+    <t>ABMrun_3.1.23_e</t>
+  </si>
+  <si>
+    <t>ABMrun_3.1.23_f</t>
+  </si>
+  <si>
+    <t>551616:551620</t>
+  </si>
+  <si>
+    <t>551621:551625</t>
+  </si>
+  <si>
+    <t>migb = 100@151, migc=25@151, 165, 181, 195; transloc AFTER habitat is restored</t>
+  </si>
+  <si>
+    <t>migb = 100@125, migc=25@125, 140, 155, 170; trans WHILE habitat quality is LOW</t>
+  </si>
+  <si>
+    <t>ABMrun_3.1.23_g</t>
+  </si>
+  <si>
+    <t>ABMrun_3.1.23_h</t>
+  </si>
+  <si>
+    <t>ABMrun_3.1.23_i</t>
+  </si>
+  <si>
+    <t>551645:551649</t>
+  </si>
+  <si>
+    <t>551650:551654</t>
+  </si>
+  <si>
+    <t>551655:551659</t>
+  </si>
+  <si>
+    <t>0.45 - 0.55</t>
+  </si>
+  <si>
+    <t>0.4-0.5</t>
+  </si>
+  <si>
+    <t>ABMrun_3.3.23_a</t>
+  </si>
+  <si>
+    <t>ABMrun_3.3.23_b</t>
+  </si>
+  <si>
+    <t>ABMrun_3.3.23_c</t>
+  </si>
+  <si>
+    <t>ABMrun_3.3.23_d</t>
+  </si>
+  <si>
+    <t>ABMrun_3.3.23_e</t>
+  </si>
+  <si>
+    <t>ABMrun_3.3.23_f</t>
+  </si>
+  <si>
+    <t>ABMrun_3.3.23_g</t>
+  </si>
+  <si>
+    <t>ABMrun_3.3.23_h</t>
+  </si>
+  <si>
+    <t>ABMrun_3.3.23_i</t>
+  </si>
+  <si>
+    <t>556991:556995</t>
+  </si>
+  <si>
+    <t>556998:557002</t>
+  </si>
+  <si>
+    <t>557008:557012</t>
+  </si>
+  <si>
+    <t>557017:557021</t>
+  </si>
+  <si>
+    <t>557025:557029</t>
+  </si>
+  <si>
+    <t>557054:557058</t>
+  </si>
+  <si>
+    <t>557086:557090</t>
+  </si>
+  <si>
+    <t>557112:557116</t>
+  </si>
+  <si>
+    <t>557128:557132</t>
+  </si>
+  <si>
+    <t>ABMrun_3.15.23_e</t>
+  </si>
+  <si>
+    <t>ABMrun_3.15.23_f</t>
+  </si>
+  <si>
+    <t>ABMrun_3.15.23_i</t>
+  </si>
+  <si>
+    <t>matemigs on</t>
+  </si>
+  <si>
+    <t>581613:581617</t>
+  </si>
+  <si>
+    <t>581624:581628</t>
+  </si>
+  <si>
+    <t>581645:581649</t>
+  </si>
+  <si>
+    <t>581677:581681</t>
+  </si>
+  <si>
+    <t>581683:581687</t>
+  </si>
+  <si>
+    <t>581688:581692</t>
+  </si>
+  <si>
+    <t>ABMrun_3.15.23_e2</t>
+  </si>
+  <si>
+    <t>581698:581702</t>
+  </si>
+  <si>
+    <t>0, a</t>
+  </si>
+  <si>
+    <t>matemigs OFF</t>
+  </si>
+  <si>
+    <t>ABMrun_3.15.23_emany</t>
+  </si>
+  <si>
+    <t>581707:581726</t>
+  </si>
+  <si>
+    <t>ABMrun_3.15.23_emany2</t>
+  </si>
+  <si>
+    <t>581727:381746</t>
+  </si>
+  <si>
+    <t>20 runs</t>
+  </si>
+  <si>
+    <t>20 runs, 2 reps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,6 +1423,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1291,7 +1500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1299,11 +1508,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1329,8 +1548,22 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1661,11 +1894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z134"/>
+  <dimension ref="A1:Z166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D81:G90"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6664,7 +6897,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>290</v>
       </c>
@@ -6735,7 +6968,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>292</v>
       </c>
@@ -6806,7 +7039,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>294</v>
       </c>
@@ -6877,7 +7110,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>299</v>
       </c>
@@ -6948,7 +7181,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>301</v>
       </c>
@@ -7019,7 +7252,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>300</v>
       </c>
@@ -7090,7 +7323,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="87" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>302</v>
       </c>
@@ -7161,7 +7394,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>307</v>
       </c>
@@ -7232,7 +7465,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>309</v>
       </c>
@@ -7303,7 +7536,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="90" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>308</v>
       </c>
@@ -7374,169 +7607,1960 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>312</v>
+      </c>
+      <c r="B92" t="s">
+        <v>314</v>
+      </c>
+      <c r="C92" t="s">
+        <v>313</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
+        <v>296</v>
+      </c>
+      <c r="I92">
+        <v>0.45</v>
+      </c>
+      <c r="J92">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>100</v>
+      </c>
+      <c r="M92">
+        <v>1000</v>
+      </c>
+      <c r="N92">
+        <v>1000</v>
+      </c>
+      <c r="O92">
+        <v>10</v>
+      </c>
+      <c r="P92">
+        <v>40</v>
+      </c>
+      <c r="Q92">
+        <v>9</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <v>350</v>
+      </c>
+      <c r="U92">
+        <v>1</v>
+      </c>
+      <c r="W92">
+        <v>100</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>312</v>
+      </c>
+      <c r="B93" t="s">
+        <v>316</v>
+      </c>
+      <c r="C93" t="s">
+        <v>315</v>
+      </c>
+      <c r="D93" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0.45</v>
+      </c>
+      <c r="J93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>100</v>
+      </c>
+      <c r="M93">
+        <v>1000</v>
+      </c>
+      <c r="N93">
+        <v>1000</v>
+      </c>
+      <c r="O93">
+        <v>10</v>
+      </c>
+      <c r="P93">
+        <v>40</v>
+      </c>
+      <c r="Q93">
+        <v>9</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>1</v>
+      </c>
+      <c r="T93">
+        <v>350</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>100</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>319</v>
+      </c>
+      <c r="C95" t="s">
+        <v>317</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s">
+        <v>260</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J95">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>700</v>
+      </c>
+      <c r="M95">
+        <v>1000</v>
+      </c>
+      <c r="N95">
+        <v>1000</v>
+      </c>
+      <c r="O95">
+        <v>10</v>
+      </c>
+      <c r="P95">
+        <v>40</v>
+      </c>
+      <c r="Q95">
+        <v>9</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>1</v>
+      </c>
+      <c r="T95">
+        <v>350</v>
+      </c>
+      <c r="U95">
+        <v>1</v>
+      </c>
+      <c r="W95">
+        <v>100</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>320</v>
+      </c>
       <c r="C96" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>253</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J96">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>700</v>
+      </c>
+      <c r="M96">
+        <v>1000</v>
+      </c>
+      <c r="N96">
+        <v>1000</v>
+      </c>
+      <c r="O96">
+        <v>10</v>
+      </c>
+      <c r="P96">
+        <v>40</v>
+      </c>
+      <c r="Q96">
+        <v>9</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>1</v>
+      </c>
+      <c r="T96">
+        <v>350</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="W96">
+        <v>100</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>324</v>
+      </c>
+      <c r="C97" t="s">
+        <v>321</v>
+      </c>
+      <c r="D97" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>260</v>
+      </c>
+      <c r="I97" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>500</v>
+      </c>
+      <c r="M97">
+        <v>1000</v>
+      </c>
+      <c r="N97">
+        <v>1000</v>
+      </c>
+      <c r="O97">
+        <v>10</v>
+      </c>
+      <c r="P97">
+        <v>40</v>
+      </c>
+      <c r="Q97">
+        <v>9</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
+        <v>1</v>
+      </c>
+      <c r="T97">
+        <v>350</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="W97">
+        <v>100</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s">
+        <v>253</v>
+      </c>
+      <c r="I98" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J98">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>500</v>
+      </c>
+      <c r="M98">
+        <v>1000</v>
+      </c>
+      <c r="N98">
+        <v>1000</v>
+      </c>
+      <c r="O98">
+        <v>10</v>
+      </c>
+      <c r="P98">
+        <v>40</v>
+      </c>
+      <c r="Q98">
+        <v>9</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>350</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
+      <c r="W98">
+        <v>100</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>327</v>
+      </c>
+      <c r="C99" t="s">
+        <v>325</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s">
+        <v>260</v>
+      </c>
+      <c r="I99" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J99">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>300</v>
+      </c>
+      <c r="M99">
+        <v>1000</v>
+      </c>
+      <c r="N99">
+        <v>1000</v>
+      </c>
+      <c r="O99">
+        <v>10</v>
+      </c>
+      <c r="P99">
+        <v>40</v>
+      </c>
+      <c r="Q99">
+        <v>9</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1</v>
+      </c>
+      <c r="T99">
+        <v>350</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>100</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" t="s">
+        <v>326</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s">
+        <v>253</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>300</v>
+      </c>
+      <c r="M100">
+        <v>1000</v>
+      </c>
+      <c r="N100">
+        <v>1000</v>
+      </c>
+      <c r="O100">
+        <v>10</v>
+      </c>
+      <c r="P100">
+        <v>40</v>
+      </c>
+      <c r="Q100">
+        <v>9</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>1</v>
+      </c>
+      <c r="T100">
+        <v>350</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>100</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="101" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>335</v>
+      </c>
+      <c r="C101" t="s">
+        <v>331</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>270</v>
+      </c>
+      <c r="I101" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J101">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>700</v>
+      </c>
+      <c r="M101">
+        <v>1000</v>
+      </c>
+      <c r="N101">
+        <v>1000</v>
+      </c>
+      <c r="O101">
+        <v>10</v>
+      </c>
+      <c r="P101">
+        <v>40</v>
+      </c>
+      <c r="Q101">
+        <v>9</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
+        <v>350</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>100</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>334</v>
+      </c>
+      <c r="C102" t="s">
+        <v>332</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
+        <v>270</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J102">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>500</v>
+      </c>
+      <c r="M102">
+        <v>1000</v>
+      </c>
+      <c r="N102">
+        <v>1000</v>
+      </c>
+      <c r="O102">
+        <v>10</v>
+      </c>
+      <c r="P102">
+        <v>40</v>
+      </c>
+      <c r="Q102">
+        <v>9</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <v>350</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="W102">
+        <v>100</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="2:25" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I103" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="J103" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K103" s="22">
+        <v>1</v>
+      </c>
+      <c r="L103" s="22">
+        <v>300</v>
+      </c>
+      <c r="M103" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N103" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O103" s="22">
+        <v>10</v>
+      </c>
+      <c r="P103" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q103" s="22">
+        <v>9</v>
+      </c>
+      <c r="R103" s="22">
+        <v>2</v>
+      </c>
+      <c r="S103" s="22">
+        <v>1</v>
+      </c>
+      <c r="T103" s="22">
+        <v>350</v>
+      </c>
+      <c r="U103" s="22">
+        <v>1</v>
+      </c>
+      <c r="W103" s="22">
+        <v>100</v>
+      </c>
+      <c r="X103" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>352</v>
+      </c>
+      <c r="C104" t="s">
+        <v>339</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s">
+        <v>260</v>
+      </c>
+      <c r="I104" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J104" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>700</v>
+      </c>
+      <c r="M104">
+        <v>1000</v>
+      </c>
+      <c r="N104">
+        <v>1000</v>
+      </c>
+      <c r="O104">
+        <v>10</v>
+      </c>
+      <c r="P104">
+        <v>40</v>
+      </c>
+      <c r="Q104">
+        <v>9</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>350</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="W104">
+        <v>100</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>351</v>
+      </c>
+      <c r="C105" t="s">
+        <v>340</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s">
+        <v>253</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J105" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>700</v>
+      </c>
+      <c r="M105">
+        <v>1000</v>
+      </c>
+      <c r="N105">
+        <v>1000</v>
+      </c>
+      <c r="O105">
+        <v>10</v>
+      </c>
+      <c r="P105">
+        <v>40</v>
+      </c>
+      <c r="Q105">
+        <v>9</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+      <c r="S105">
+        <v>1</v>
+      </c>
+      <c r="T105">
+        <v>350</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="W105">
+        <v>100</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>353</v>
+      </c>
+      <c r="C106" t="s">
+        <v>341</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s">
+        <v>260</v>
+      </c>
+      <c r="I106" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J106" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>500</v>
+      </c>
+      <c r="M106">
+        <v>1000</v>
+      </c>
+      <c r="N106">
+        <v>1000</v>
+      </c>
+      <c r="O106">
+        <v>10</v>
+      </c>
+      <c r="P106">
+        <v>40</v>
+      </c>
+      <c r="Q106">
+        <v>9</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>1</v>
+      </c>
+      <c r="T106">
+        <v>350</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="W106">
+        <v>100</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" t="s">
+        <v>342</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s">
+        <v>253</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J107" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>500</v>
+      </c>
+      <c r="M107">
+        <v>1000</v>
+      </c>
+      <c r="N107">
+        <v>1000</v>
+      </c>
+      <c r="O107">
+        <v>10</v>
+      </c>
+      <c r="P107">
+        <v>40</v>
+      </c>
+      <c r="Q107">
+        <v>9</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1</v>
+      </c>
+      <c r="T107">
+        <v>350</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="W107">
+        <v>100</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="108" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" t="s">
+        <v>343</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s">
+        <v>260</v>
+      </c>
+      <c r="I108" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J108" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>300</v>
+      </c>
+      <c r="M108">
+        <v>1000</v>
+      </c>
+      <c r="N108">
+        <v>1000</v>
+      </c>
+      <c r="O108">
+        <v>10</v>
+      </c>
+      <c r="P108">
+        <v>40</v>
+      </c>
+      <c r="Q108">
+        <v>9</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>1</v>
+      </c>
+      <c r="T108">
+        <v>350</v>
+      </c>
+      <c r="U108">
+        <v>1</v>
+      </c>
+      <c r="W108">
+        <v>100</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>355</v>
+      </c>
+      <c r="C109" t="s">
+        <v>344</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" t="s">
+        <v>253</v>
+      </c>
+      <c r="I109" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J109" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>300</v>
+      </c>
+      <c r="M109">
+        <v>1000</v>
+      </c>
+      <c r="N109">
+        <v>1000</v>
+      </c>
+      <c r="O109">
+        <v>10</v>
+      </c>
+      <c r="P109">
+        <v>40</v>
+      </c>
+      <c r="Q109">
+        <v>9</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>350</v>
+      </c>
+      <c r="U109">
+        <v>1</v>
+      </c>
+      <c r="W109">
+        <v>100</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>350</v>
+      </c>
+      <c r="C110" t="s">
+        <v>345</v>
+      </c>
+      <c r="D110" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" t="s">
+        <v>270</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J110" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>700</v>
+      </c>
+      <c r="M110">
+        <v>1000</v>
+      </c>
+      <c r="N110">
+        <v>1000</v>
+      </c>
+      <c r="O110">
+        <v>10</v>
+      </c>
+      <c r="P110">
+        <v>40</v>
+      </c>
+      <c r="Q110">
+        <v>9</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+      <c r="S110">
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>350</v>
+      </c>
+      <c r="U110">
+        <v>1</v>
+      </c>
+      <c r="W110">
+        <v>100</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" t="s">
+        <v>346</v>
+      </c>
+      <c r="D111" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s">
+        <v>270</v>
+      </c>
+      <c r="I111" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J111" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>500</v>
+      </c>
+      <c r="M111">
+        <v>1000</v>
+      </c>
+      <c r="N111">
+        <v>1000</v>
+      </c>
+      <c r="O111">
+        <v>10</v>
+      </c>
+      <c r="P111">
+        <v>40</v>
+      </c>
+      <c r="Q111">
+        <v>9</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>1</v>
+      </c>
+      <c r="T111">
+        <v>350</v>
+      </c>
+      <c r="U111">
+        <v>1</v>
+      </c>
+      <c r="W111">
+        <v>100</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" spans="2:25" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="I112" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="J112" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="K112" s="22">
+        <v>1</v>
+      </c>
+      <c r="L112" s="22">
+        <v>300</v>
+      </c>
+      <c r="M112" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N112" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O112" s="22">
+        <v>10</v>
+      </c>
+      <c r="P112" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q112" s="22">
+        <v>9</v>
+      </c>
+      <c r="R112" s="22">
+        <v>2</v>
+      </c>
+      <c r="S112" s="22">
+        <v>1</v>
+      </c>
+      <c r="T112" s="22">
+        <v>350</v>
+      </c>
+      <c r="U112" s="22">
+        <v>1</v>
+      </c>
+      <c r="W112" s="22">
+        <v>100</v>
+      </c>
+      <c r="X112" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A113" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="H113" t="s">
+        <v>260</v>
+      </c>
+      <c r="I113" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J113">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>300</v>
+      </c>
+      <c r="M113">
+        <v>1000</v>
+      </c>
+      <c r="N113">
+        <v>1000</v>
+      </c>
+      <c r="O113">
+        <v>10</v>
+      </c>
+      <c r="P113">
+        <v>40</v>
+      </c>
+      <c r="Q113">
+        <v>9</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>1</v>
+      </c>
+      <c r="T113">
+        <v>350</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="W113">
+        <v>100</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A114" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B114" t="s">
+        <v>365</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="H114" t="s">
+        <v>253</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J114">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>300</v>
+      </c>
+      <c r="M114">
+        <v>1000</v>
+      </c>
+      <c r="N114">
+        <v>1000</v>
+      </c>
+      <c r="O114">
+        <v>10</v>
+      </c>
+      <c r="P114">
+        <v>40</v>
+      </c>
+      <c r="Q114">
+        <v>9</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>350</v>
+      </c>
+      <c r="U114">
+        <v>1</v>
+      </c>
+      <c r="W114">
+        <v>100</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="H115" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="I115" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="J115">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K115" s="26">
+        <v>1</v>
+      </c>
+      <c r="L115" s="26">
+        <v>300</v>
+      </c>
+      <c r="M115" s="26">
+        <v>1000</v>
+      </c>
+      <c r="N115" s="26">
+        <v>1000</v>
+      </c>
+      <c r="O115" s="26">
+        <v>10</v>
+      </c>
+      <c r="P115" s="26">
+        <v>40</v>
+      </c>
+      <c r="Q115" s="26">
+        <v>9</v>
+      </c>
+      <c r="R115" s="26">
+        <v>2</v>
+      </c>
+      <c r="S115" s="26">
+        <v>1</v>
+      </c>
+      <c r="T115" s="26">
+        <v>350</v>
+      </c>
+      <c r="U115" s="26">
+        <v>1</v>
+      </c>
+      <c r="W115" s="26">
+        <v>100</v>
+      </c>
+      <c r="X115" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z115" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B116" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="H116" t="s">
+        <v>260</v>
+      </c>
+      <c r="I116" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J116">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>300</v>
+      </c>
+      <c r="M116">
+        <v>1000</v>
+      </c>
+      <c r="N116">
+        <v>1000</v>
+      </c>
+      <c r="O116">
+        <v>10</v>
+      </c>
+      <c r="P116">
+        <v>40</v>
+      </c>
+      <c r="Q116">
+        <v>9</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>1</v>
+      </c>
+      <c r="T116">
+        <v>350</v>
+      </c>
+      <c r="U116">
+        <v>1</v>
+      </c>
+      <c r="W116">
+        <v>100</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>375</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C117" t="s">
+        <v>371</v>
+      </c>
+      <c r="H117" t="s">
+        <v>369</v>
+      </c>
+      <c r="I117" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J117">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>300</v>
+      </c>
+      <c r="M117">
+        <v>1000</v>
+      </c>
+      <c r="N117">
+        <v>1000</v>
+      </c>
+      <c r="O117">
+        <v>10</v>
+      </c>
+      <c r="P117">
+        <v>40</v>
+      </c>
+      <c r="Q117">
+        <v>9</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>1</v>
+      </c>
+      <c r="T117">
+        <v>350</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="W117">
+        <v>100</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>376</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="C118" t="s">
+        <v>373</v>
+      </c>
+      <c r="H118" t="s">
+        <v>369</v>
+      </c>
+      <c r="I118" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J118">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>300</v>
+      </c>
+      <c r="M118">
+        <v>1000</v>
+      </c>
+      <c r="N118">
+        <v>1000</v>
+      </c>
+      <c r="O118">
+        <v>10</v>
+      </c>
+      <c r="P118">
+        <v>40</v>
+      </c>
+      <c r="Q118">
+        <v>9</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>1</v>
+      </c>
+      <c r="T118">
+        <v>350</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="W118">
+        <v>100</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C130" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C105" t="s">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
         <v>188</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H137" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C107" s="20" t="s">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C139" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C109" t="s">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>227</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B142" t="s">
         <v>226</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C142" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C111" s="8" t="s">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C143" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C113" t="s">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C114" t="s">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C117" t="s">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C118" t="s">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C119" t="s">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C120" t="s">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C121" t="s">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C122" t="s">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D124" s="6" t="s">
+    <row r="156" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D156" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D125" t="s">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D126" s="7" t="s">
+    <row r="158" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D158" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="127" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D127" s="3" t="s">
+    <row r="159" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D159" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="128" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D128" s="3" t="s">
+    <row r="160" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D160" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D129" s="3" t="s">
+    <row r="161" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D161" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="130" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D130" s="3" t="s">
+    <row r="162" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D162" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D131" s="6" t="s">
+    <row r="163" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D163" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="132" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D132" s="3" t="s">
+    <row r="164" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D164" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D134" s="3" t="s">
+    <row r="166" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D166" s="3" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C130" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0966ACDE-D2D3-420D-8E48-4658AFE91C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70867FCD-BF3F-45D2-9A4A-BCBCA2834536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,9 @@
     <author>tc={DBA9BB9F-4B46-4AD2-9246-0D16F6D6E925}</author>
     <author>tc={D342B0A0-480F-4E88-AE96-613A0A31F1D3}</author>
     <author>tc={430CFC64-274E-4835-BEFC-546C9F02A94D}</author>
+    <author>tc={525747C4-488A-4BDE-A64E-580F35A5B4D3}</author>
+    <author>tc={0F1598B2-F968-4D17-B298-9A435AB10725}</author>
+    <author>tc={A4C88661-DC8F-47E8-A546-65EF19F9B26B}</author>
   </authors>
   <commentList>
     <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -130,12 +133,49 @@
     0.07-0.17</t>
       </text>
     </comment>
+    <comment ref="B115" authorId="9" shapeId="0" xr:uid="{525747C4-488A-4BDE-A64E-580F35A5B4D3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Error in sample.int(length(x), size, replace, prob) :
+  invalid 'size' argument
+Calls: RunModel -&gt; Breed -&gt; sample -&gt; sample.int
+year 125 param 1 rep 1</t>
+      </text>
+    </comment>
+    <comment ref="B119" authorId="10" shapeId="0" xr:uid="{0F1598B2-F968-4D17-B298-9A435AB10725}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    [1] "there are 276 pairs"
+Error in dimnames(x) &lt;- dn :
+  length of 'dimnames' [2] not equal to array extent
+Calls: RunModel -&gt; MateChoice -&gt; colnames&lt;-
+Execution halted
+year 1 param 1 rep 1</t>
+      </text>
+    </comment>
+    <comment ref="B120" authorId="11" shapeId="0" xr:uid="{A4C88661-DC8F-47E8-A546-65EF19F9B26B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    [1] "there are 341 pairs"
+Error in dimnames(x) &lt;- dn :
+  length of 'dimnames' [2] not equal to array extent
+Calls: RunModel -&gt; MateChoice -&gt; colnames&lt;-
+Execution halted
+year 1 param 1 rep 1</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="383">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1330,6 +1370,24 @@
   </si>
   <si>
     <t>20 runs, 2 reps</t>
+  </si>
+  <si>
+    <t>ABMrun_3.16.23_e3</t>
+  </si>
+  <si>
+    <t>matemigs OFF, allee OFF, mutate OFF</t>
+  </si>
+  <si>
+    <t>582388:582392</t>
+  </si>
+  <si>
+    <t>matemigs OFF, allee OFF, mutate ON</t>
+  </si>
+  <si>
+    <t>ABMrun_3.16.23_e4</t>
+  </si>
+  <si>
+    <t>582397:582401</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1556,11 +1614,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1587,6 +1640,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Gina Lamka" id="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" userId="Gina Lamka" providerId="None"/>
+  <person displayName="Gina Lamka" id="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" userId="S::gfl0003@auburn.edu::0aca0fc3-0e9a-4da2-a023-68763baebc15" providerId="AD"/>
 </personList>
 </file>
 
@@ -1889,6 +1943,28 @@
   <threadedComment ref="J55" dT="2023-01-31T18:08:47.19" personId="{D651F15D-83BA-4EB7-94FE-80E180A01DF5}" id="{430CFC64-274E-4835-BEFC-546C9F02A94D}">
     <text>0.07-0.17</text>
   </threadedComment>
+  <threadedComment ref="B115" dT="2023-03-21T17:20:39.57" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{525747C4-488A-4BDE-A64E-580F35A5B4D3}">
+    <text>Error in sample.int(length(x), size, replace, prob) :
+  invalid 'size' argument
+Calls: RunModel -&gt; Breed -&gt; sample -&gt; sample.int
+year 125 param 1 rep 1</text>
+  </threadedComment>
+  <threadedComment ref="B119" dT="2023-03-21T17:22:20.46" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{0F1598B2-F968-4D17-B298-9A435AB10725}">
+    <text>[1] "there are 276 pairs"
+Error in dimnames(x) &lt;- dn :
+  length of 'dimnames' [2] not equal to array extent
+Calls: RunModel -&gt; MateChoice -&gt; colnames&lt;-
+Execution halted
+year 1 param 1 rep 1</text>
+  </threadedComment>
+  <threadedComment ref="B120" dT="2023-03-21T17:23:26.84" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A4C88661-DC8F-47E8-A546-65EF19F9B26B}">
+    <text>[1] "there are 341 pairs"
+Error in dimnames(x) &lt;- dn :
+  length of 'dimnames' [2] not equal to array extent
+Calls: RunModel -&gt; MateChoice -&gt; colnames&lt;-
+Execution halted
+year 1 param 1 rep 1</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1897,8 +1973,8 @@
   <dimension ref="A1:Z166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J118" sqref="J118"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9016,14 +9092,26 @@
       </c>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A113" s="25" t="s">
+      <c r="A113" t="s">
         <v>361</v>
       </c>
-      <c r="B113" s="25" t="s">
+      <c r="B113" t="s">
         <v>366</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" t="s">
         <v>357</v>
+      </c>
+      <c r="D113" t="s">
+        <v>16</v>
+      </c>
+      <c r="E113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
+        <v>16</v>
       </c>
       <c r="H113" t="s">
         <v>260</v>
@@ -9073,19 +9161,31 @@
       <c r="X113">
         <v>0</v>
       </c>
-      <c r="Y113" s="25" t="s">
+      <c r="Y113" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A114" s="25" t="s">
+      <c r="A114" t="s">
         <v>362</v>
       </c>
       <c r="B114" t="s">
         <v>365</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C114" t="s">
         <v>358</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>16</v>
       </c>
       <c r="H114" t="s">
         <v>253</v>
@@ -9135,84 +9235,108 @@
       <c r="X114">
         <v>0</v>
       </c>
-      <c r="Y114" s="25" t="s">
+      <c r="Y114" t="s">
         <v>360</v>
       </c>
       <c r="Z114" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="25" t="s">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>363</v>
       </c>
-      <c r="B115" s="26" t="s">
+      <c r="B115" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C115" s="25" t="s">
+      <c r="C115" t="s">
         <v>359</v>
       </c>
-      <c r="H115" s="26" t="s">
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" t="s">
         <v>270</v>
       </c>
-      <c r="I115" s="27" t="s">
+      <c r="I115" s="23" t="s">
         <v>337</v>
       </c>
       <c r="J115">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K115" s="26">
-        <v>1</v>
-      </c>
-      <c r="L115" s="26">
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
         <v>300</v>
       </c>
-      <c r="M115" s="26">
-        <v>1000</v>
-      </c>
-      <c r="N115" s="26">
-        <v>1000</v>
-      </c>
-      <c r="O115" s="26">
+      <c r="M115">
+        <v>1000</v>
+      </c>
+      <c r="N115">
+        <v>1000</v>
+      </c>
+      <c r="O115">
         <v>10</v>
       </c>
-      <c r="P115" s="26">
+      <c r="P115">
         <v>40</v>
       </c>
-      <c r="Q115" s="26">
-        <v>9</v>
-      </c>
-      <c r="R115" s="26">
-        <v>2</v>
-      </c>
-      <c r="S115" s="26">
-        <v>1</v>
-      </c>
-      <c r="T115" s="26">
+      <c r="Q115">
+        <v>9</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>1</v>
+      </c>
+      <c r="T115">
         <v>350</v>
       </c>
-      <c r="U115" s="26">
-        <v>1</v>
-      </c>
-      <c r="W115" s="26">
-        <v>100</v>
-      </c>
-      <c r="X115" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y115" s="25" t="s">
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="W115">
+        <v>100</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="s">
         <v>360</v>
       </c>
-      <c r="Z115" s="26" t="s">
+      <c r="Z115" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B116" s="25" t="s">
+      <c r="B116" t="s">
         <v>368</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C116" t="s">
         <v>367</v>
+      </c>
+      <c r="D116" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>16</v>
       </c>
       <c r="H116" t="s">
         <v>260</v>
@@ -9262,7 +9386,7 @@
       <c r="X116">
         <v>0</v>
       </c>
-      <c r="Y116" s="25" t="s">
+      <c r="Y116" t="s">
         <v>360</v>
       </c>
     </row>
@@ -9270,17 +9394,29 @@
       <c r="A117" t="s">
         <v>375</v>
       </c>
-      <c r="B117" s="25" t="s">
+      <c r="B117" t="s">
         <v>372</v>
       </c>
       <c r="C117" t="s">
         <v>371</v>
       </c>
+      <c r="D117" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>16</v>
+      </c>
       <c r="H117" t="s">
         <v>369</v>
       </c>
-      <c r="I117" s="23" t="s">
-        <v>337</v>
+      <c r="I117" s="23">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J117">
         <v>7.0000000000000007E-2</v>
@@ -9324,7 +9460,7 @@
       <c r="X117">
         <v>0</v>
       </c>
-      <c r="Y117" s="25" t="s">
+      <c r="Y117" t="s">
         <v>370</v>
       </c>
     </row>
@@ -9332,17 +9468,29 @@
       <c r="A118" t="s">
         <v>376</v>
       </c>
-      <c r="B118" s="25" t="s">
+      <c r="B118" t="s">
         <v>374</v>
       </c>
       <c r="C118" t="s">
         <v>373</v>
       </c>
+      <c r="D118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>16</v>
+      </c>
       <c r="H118" t="s">
         <v>369</v>
       </c>
-      <c r="I118" s="23" t="s">
-        <v>337</v>
+      <c r="I118" s="23">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J118">
         <v>7.0000000000000007E-2</v>
@@ -9386,8 +9534,150 @@
       <c r="X118">
         <v>0</v>
       </c>
-      <c r="Y118" s="25" t="s">
+      <c r="Y118" t="s">
         <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B119" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C119" t="s">
+        <v>377</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" t="s">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s">
+        <v>369</v>
+      </c>
+      <c r="I119" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J119">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>300</v>
+      </c>
+      <c r="M119">
+        <v>1000</v>
+      </c>
+      <c r="N119">
+        <v>1000</v>
+      </c>
+      <c r="O119">
+        <v>10</v>
+      </c>
+      <c r="P119">
+        <v>40</v>
+      </c>
+      <c r="Q119">
+        <v>9</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119">
+        <v>350</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="W119">
+        <v>100</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B120" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C120" t="s">
+        <v>381</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>16</v>
+      </c>
+      <c r="H120" t="s">
+        <v>369</v>
+      </c>
+      <c r="I120" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J120">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>300</v>
+      </c>
+      <c r="M120">
+        <v>1000</v>
+      </c>
+      <c r="N120">
+        <v>1000</v>
+      </c>
+      <c r="O120">
+        <v>10</v>
+      </c>
+      <c r="P120">
+        <v>40</v>
+      </c>
+      <c r="Q120">
+        <v>9</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>1</v>
+      </c>
+      <c r="T120">
+        <v>350</v>
+      </c>
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="W120">
+        <v>100</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70867FCD-BF3F-45D2-9A4A-BCBCA2834536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A82128-DD6B-4153-83DF-34F124E06636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,12 @@
     <author>tc={525747C4-488A-4BDE-A64E-580F35A5B4D3}</author>
     <author>tc={0F1598B2-F968-4D17-B298-9A435AB10725}</author>
     <author>tc={A4C88661-DC8F-47E8-A546-65EF19F9B26B}</author>
+    <author>tc={30C7EDCF-D18E-4306-B8FB-6610BE9685CC}</author>
+    <author>tc={AFBEEBB8-7275-4C79-9E52-FEE0810060FB}</author>
+    <author>tc={7BA0A5BA-523D-422F-B4A3-A90568D40F2F}</author>
+    <author>tc={D37EF45E-1776-45C7-A686-231D3B3CF349}</author>
+    <author>tc={9589ABAC-6157-4ED5-860F-6CD8BF271430}</author>
+    <author>tc={EF425E74-64E7-4C89-9CBB-3E45E4A7FD5C}</author>
   </authors>
   <commentList>
     <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -170,12 +176,90 @@
 year 1 param 1 rep 1</t>
       </text>
     </comment>
+    <comment ref="H123" authorId="12" shapeId="0" xr:uid="{30C7EDCF-D18E-4306-B8FB-6610BE9685CC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H124" authorId="13" shapeId="0" xr:uid="{AFBEEBB8-7275-4C79-9E52-FEE0810060FB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H125" authorId="14" shapeId="0" xr:uid="{7BA0A5BA-523D-422F-B4A3-A90568D40F2F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H126" authorId="15" shapeId="0" xr:uid="{D37EF45E-1776-45C7-A686-231D3B3CF349}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H127" authorId="16" shapeId="0" xr:uid="{9589ABAC-6157-4ED5-860F-6CD8BF271430}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H128" authorId="17" shapeId="0" xr:uid="{EF425E74-64E7-4C89-9CBB-3E45E4A7FD5C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="399">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1389,12 +1473,60 @@
   <si>
     <t>582397:582401</t>
   </si>
+  <si>
+    <t>allee on</t>
+  </si>
+  <si>
+    <t>mutate on</t>
+  </si>
+  <si>
+    <t>0,a,b,c,d,e,f</t>
+  </si>
+  <si>
+    <t>fin_5.2.23_7LL3</t>
+  </si>
+  <si>
+    <t>FINAL RUNS named as: #[n mig rates][H/L source p][H/L foc p][dropk]</t>
+  </si>
+  <si>
+    <t>615329:615348</t>
+  </si>
+  <si>
+    <t>fin_5.2.23_7LL5</t>
+  </si>
+  <si>
+    <t>615349:615368</t>
+  </si>
+  <si>
+    <t>fin_5.2.23_7LL7</t>
+  </si>
+  <si>
+    <t>615370:615389</t>
+  </si>
+  <si>
+    <t>fin_5.2.23_7LL1</t>
+  </si>
+  <si>
+    <t>615393:615412</t>
+  </si>
+  <si>
+    <t>fin_5.2.23_7HL3</t>
+  </si>
+  <si>
+    <t>615413:615432</t>
+  </si>
+  <si>
+    <t>fin_5.2.23_7HH3</t>
+  </si>
+  <si>
+    <t>615433:615452</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,8 +1621,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1557,6 +1695,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1580,7 +1724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1614,6 +1758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1965,16 +2110,64 @@
 Execution halted
 year 1 param 1 rep 1</text>
   </threadedComment>
+  <threadedComment ref="H123" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{30C7EDCF-D18E-4306-B8FB-6610BE9685CC}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H124" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{AFBEEBB8-7275-4C79-9E52-FEE0810060FB}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H125" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{7BA0A5BA-523D-422F-B4A3-A90568D40F2F}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H126" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{D37EF45E-1776-45C7-A686-231D3B3CF349}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H127" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{9589ABAC-6157-4ED5-860F-6CD8BF271430}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H128" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{EF425E74-64E7-4C89-9CBB-3E45E4A7FD5C}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z166"/>
+  <dimension ref="A1:AA172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9091,7 +9284,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>361</v>
       </c>
@@ -9165,7 +9358,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>362</v>
       </c>
@@ -9242,7 +9435,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>363</v>
       </c>
@@ -9319,7 +9512,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>368</v>
       </c>
@@ -9390,7 +9583,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>375</v>
       </c>
@@ -9464,7 +9657,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>376</v>
       </c>
@@ -9538,7 +9731,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B119" s="9" t="s">
         <v>379</v>
       </c>
@@ -9609,7 +9802,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B120" s="9" t="s">
         <v>382</v>
       </c>
@@ -9680,174 +9873,570 @@
         <v>378</v>
       </c>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>388</v>
+      </c>
+      <c r="C123" t="s">
+        <v>386</v>
+      </c>
+      <c r="H123" t="s">
+        <v>385</v>
+      </c>
+      <c r="I123">
+        <v>0.05</v>
+      </c>
+      <c r="J123">
+        <v>0.05</v>
+      </c>
+      <c r="K123">
+        <v>5</v>
+      </c>
+      <c r="L123">
+        <v>300</v>
+      </c>
+      <c r="M123">
+        <v>1000</v>
+      </c>
+      <c r="N123">
+        <v>1000</v>
+      </c>
+      <c r="O123">
+        <v>10</v>
+      </c>
+      <c r="P123">
+        <v>40</v>
+      </c>
+      <c r="Q123">
+        <v>9</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123">
+        <v>350</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="W123">
+        <v>100</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>390</v>
+      </c>
+      <c r="C124" t="s">
+        <v>389</v>
+      </c>
+      <c r="H124" t="s">
+        <v>385</v>
+      </c>
+      <c r="I124">
+        <v>0.05</v>
+      </c>
+      <c r="J124">
+        <v>0.05</v>
+      </c>
+      <c r="K124">
+        <v>5</v>
+      </c>
+      <c r="L124">
+        <v>500</v>
+      </c>
+      <c r="M124">
+        <v>1000</v>
+      </c>
+      <c r="N124">
+        <v>1000</v>
+      </c>
+      <c r="O124">
+        <v>10</v>
+      </c>
+      <c r="P124">
+        <v>40</v>
+      </c>
+      <c r="Q124">
+        <v>9</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1</v>
+      </c>
+      <c r="T124">
+        <v>350</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="W124">
+        <v>100</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>392</v>
+      </c>
+      <c r="C125" t="s">
+        <v>391</v>
+      </c>
+      <c r="H125" t="s">
+        <v>385</v>
+      </c>
+      <c r="I125">
+        <v>0.05</v>
+      </c>
+      <c r="J125">
+        <v>0.05</v>
+      </c>
+      <c r="K125">
+        <v>5</v>
+      </c>
+      <c r="L125">
+        <v>700</v>
+      </c>
+      <c r="M125">
+        <v>1000</v>
+      </c>
+      <c r="N125">
+        <v>1000</v>
+      </c>
+      <c r="O125">
+        <v>10</v>
+      </c>
+      <c r="P125">
+        <v>40</v>
+      </c>
+      <c r="Q125">
+        <v>9</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>1</v>
+      </c>
+      <c r="T125">
+        <v>350</v>
+      </c>
+      <c r="U125">
+        <v>1</v>
+      </c>
+      <c r="W125">
+        <v>100</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>394</v>
+      </c>
+      <c r="C126" t="s">
+        <v>393</v>
+      </c>
+      <c r="H126" t="s">
+        <v>385</v>
+      </c>
+      <c r="I126">
+        <v>0.05</v>
+      </c>
+      <c r="J126">
+        <v>0.05</v>
+      </c>
+      <c r="K126">
+        <v>5</v>
+      </c>
+      <c r="L126">
+        <v>100</v>
+      </c>
+      <c r="M126">
+        <v>1000</v>
+      </c>
+      <c r="N126">
+        <v>1000</v>
+      </c>
+      <c r="O126">
+        <v>10</v>
+      </c>
+      <c r="P126">
+        <v>40</v>
+      </c>
+      <c r="Q126">
+        <v>9</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>1</v>
+      </c>
+      <c r="T126">
+        <v>350</v>
+      </c>
+      <c r="U126">
+        <v>1</v>
+      </c>
+      <c r="W126">
+        <v>100</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>396</v>
+      </c>
+      <c r="C127" t="s">
+        <v>395</v>
+      </c>
+      <c r="H127" t="s">
+        <v>385</v>
+      </c>
+      <c r="I127">
+        <v>0.4</v>
+      </c>
+      <c r="J127">
+        <v>0.05</v>
+      </c>
+      <c r="K127">
+        <v>5</v>
+      </c>
+      <c r="L127">
+        <v>300</v>
+      </c>
+      <c r="M127">
+        <v>1000</v>
+      </c>
+      <c r="N127">
+        <v>1000</v>
+      </c>
+      <c r="O127">
+        <v>10</v>
+      </c>
+      <c r="P127">
+        <v>40</v>
+      </c>
+      <c r="Q127">
+        <v>9</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>1</v>
+      </c>
+      <c r="T127">
+        <v>350</v>
+      </c>
+      <c r="U127">
+        <v>1</v>
+      </c>
+      <c r="W127">
+        <v>100</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>398</v>
+      </c>
       <c r="C128" t="s">
+        <v>397</v>
+      </c>
+      <c r="H128" t="s">
+        <v>385</v>
+      </c>
+      <c r="I128">
+        <v>0.4</v>
+      </c>
+      <c r="J128">
+        <v>0.4</v>
+      </c>
+      <c r="K128">
+        <v>5</v>
+      </c>
+      <c r="L128">
+        <v>300</v>
+      </c>
+      <c r="M128">
+        <v>1000</v>
+      </c>
+      <c r="N128">
+        <v>1000</v>
+      </c>
+      <c r="O128">
+        <v>10</v>
+      </c>
+      <c r="P128">
+        <v>40</v>
+      </c>
+      <c r="Q128">
+        <v>9</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
+        <v>1</v>
+      </c>
+      <c r="T128">
+        <v>350</v>
+      </c>
+      <c r="U128">
+        <v>1</v>
+      </c>
+      <c r="W128">
+        <v>100</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C129" t="s">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C130" s="21" t="s">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C136" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C131" t="s">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C137" t="s">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
         <v>188</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H143" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C138" t="s">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C139" s="20" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>227</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B148" t="s">
         <v>226</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C148" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C143" s="8" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C144" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C145" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C149" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C151" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C152" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C153" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C154" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="156" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D156" s="6" t="s">
+    <row r="162" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D162" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D157" t="s">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="158" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D158" s="7" t="s">
+    <row r="164" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D164" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="159" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D159" s="3" t="s">
+    <row r="165" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D165" s="3" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="160" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D160" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D161" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D162" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D163" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D164" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="166" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D166" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D167" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D168" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D169" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D170" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D172" s="3" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C130" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
+    <hyperlink ref="C136" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A82128-DD6B-4153-83DF-34F124E06636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33977003-A0F0-454B-90E6-CF23BE618156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,6 +56,18 @@
     <author>tc={D37EF45E-1776-45C7-A686-231D3B3CF349}</author>
     <author>tc={9589ABAC-6157-4ED5-860F-6CD8BF271430}</author>
     <author>tc={EF425E74-64E7-4C89-9CBB-3E45E4A7FD5C}</author>
+    <author>tc={82C90A01-84AF-4C4A-B4E4-684A58E7DDF1}</author>
+    <author>tc={C4FB2540-82E6-4D33-BA81-80975C9086D1}</author>
+    <author>tc={D0A3207F-FEEC-4794-AB42-0CEDFDFF8F90}</author>
+    <author>tc={8FC32205-512B-46C7-89A5-0E1ADF11CB1F}</author>
+    <author>tc={4AB27585-BD80-4D6C-8BDD-8322D2637174}</author>
+    <author>tc={50C1E468-3FE3-4425-AF63-F693B778E1EB}</author>
+    <author>tc={9B2957F2-B0F0-4676-938E-589BF91EDDDB}</author>
+    <author>tc={8297EA8D-E880-4ED0-B636-0A3BAE761372}</author>
+    <author>tc={1A7E678B-791B-4624-9617-45050294B705}</author>
+    <author>tc={C8B45157-0C7D-4F43-8981-E394CFA9B30A}</author>
+    <author>tc={43182A03-EEEB-49F0-BA20-619E7651014A}</author>
+    <author>tc={A126A3DF-DFE8-44DC-A108-85EC9F636C8F}</author>
   </authors>
   <commentList>
     <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -254,12 +266,168 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
+    <comment ref="H130" authorId="18" shapeId="0" xr:uid="{82C90A01-84AF-4C4A-B4E4-684A58E7DDF1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H131" authorId="19" shapeId="0" xr:uid="{C4FB2540-82E6-4D33-BA81-80975C9086D1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H132" authorId="20" shapeId="0" xr:uid="{D0A3207F-FEEC-4794-AB42-0CEDFDFF8F90}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H133" authorId="21" shapeId="0" xr:uid="{8FC32205-512B-46C7-89A5-0E1ADF11CB1F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H134" authorId="22" shapeId="0" xr:uid="{4AB27585-BD80-4D6C-8BDD-8322D2637174}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H135" authorId="23" shapeId="0" xr:uid="{50C1E468-3FE3-4425-AF63-F693B778E1EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H136" authorId="24" shapeId="0" xr:uid="{9B2957F2-B0F0-4676-938E-589BF91EDDDB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H137" authorId="25" shapeId="0" xr:uid="{8297EA8D-E880-4ED0-B636-0A3BAE761372}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H138" authorId="26" shapeId="0" xr:uid="{1A7E678B-791B-4624-9617-45050294B705}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H139" authorId="27" shapeId="0" xr:uid="{C8B45157-0C7D-4F43-8981-E394CFA9B30A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H140" authorId="28" shapeId="0" xr:uid="{43182A03-EEEB-49F0-BA20-619E7651014A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H141" authorId="29" shapeId="0" xr:uid="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="428">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1520,6 +1688,93 @@
   </si>
   <si>
     <t>615433:615452</t>
+  </si>
+  <si>
+    <t>final runs but ran more split for time sake</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>633956:633975</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_1LL3f</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_1LL3e</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>634176:634195</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_1LL3d</t>
+  </si>
+  <si>
+    <t>634196:634215</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_1LL3c</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>634216:634235</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_1LL3b</t>
+  </si>
+  <si>
+    <t>634257:634276</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_1LL3a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_1LL30</t>
+  </si>
+  <si>
+    <t>634277:634296</t>
+  </si>
+  <si>
+    <t>634297:634316</t>
+  </si>
+  <si>
+    <t>0,a</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_2HL30a</t>
+  </si>
+  <si>
+    <t>634317:634336</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_2HH30a</t>
+  </si>
+  <si>
+    <t>634337:634356</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_2LL50a</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_2LL70a</t>
+  </si>
+  <si>
+    <t>fin_5.10.23_2LL10a</t>
+  </si>
+  <si>
+    <t>CANCELED due to being over max walltime</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1880,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2158,16 +2413,112 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
+  <threadedComment ref="H130" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{82C90A01-84AF-4C4A-B4E4-684A58E7DDF1}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H131" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{C4FB2540-82E6-4D33-BA81-80975C9086D1}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H132" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{D0A3207F-FEEC-4794-AB42-0CEDFDFF8F90}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H133" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{8FC32205-512B-46C7-89A5-0E1ADF11CB1F}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H134" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{4AB27585-BD80-4D6C-8BDD-8322D2637174}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H135" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{50C1E468-3FE3-4425-AF63-F693B778E1EB}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H136" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{9B2957F2-B0F0-4676-938E-589BF91EDDDB}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H137" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{8297EA8D-E880-4ED0-B636-0A3BAE761372}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H138" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{1A7E678B-791B-4624-9617-45050294B705}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H139" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{C8B45157-0C7D-4F43-8981-E394CFA9B30A}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H140" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{43182A03-EEEB-49F0-BA20-619E7651014A}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H141" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA172"/>
+  <dimension ref="A1:AA193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B129" sqref="B129"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10205,7 +10556,10 @@
       </c>
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
+      <c r="A128" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>398</v>
       </c>
       <c r="C128" t="s">
@@ -10269,174 +10623,950 @@
         <v>384</v>
       </c>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="130" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>401</v>
+      </c>
+      <c r="C130" t="s">
+        <v>402</v>
+      </c>
+      <c r="H130" t="s">
+        <v>400</v>
+      </c>
+      <c r="I130">
+        <v>0.05</v>
+      </c>
+      <c r="J130">
+        <v>0.05</v>
+      </c>
+      <c r="K130">
+        <v>5</v>
+      </c>
+      <c r="L130">
+        <v>300</v>
+      </c>
+      <c r="M130">
+        <v>1000</v>
+      </c>
+      <c r="N130">
+        <v>1000</v>
+      </c>
+      <c r="O130">
+        <v>10</v>
+      </c>
+      <c r="P130">
+        <v>40</v>
+      </c>
+      <c r="Q130">
+        <v>9</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+      <c r="S130">
+        <v>1</v>
+      </c>
+      <c r="T130">
+        <v>350</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="W130">
+        <v>100</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>405</v>
+      </c>
+      <c r="C131" t="s">
+        <v>403</v>
+      </c>
+      <c r="H131" t="s">
+        <v>404</v>
+      </c>
+      <c r="I131">
+        <v>0.05</v>
+      </c>
+      <c r="J131">
+        <v>0.05</v>
+      </c>
+      <c r="K131">
+        <v>5</v>
+      </c>
+      <c r="L131">
+        <v>300</v>
+      </c>
+      <c r="M131">
+        <v>1000</v>
+      </c>
+      <c r="N131">
+        <v>1000</v>
+      </c>
+      <c r="O131">
+        <v>10</v>
+      </c>
+      <c r="P131">
+        <v>40</v>
+      </c>
+      <c r="Q131">
+        <v>9</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131">
+        <v>350</v>
+      </c>
+      <c r="U131">
+        <v>1</v>
+      </c>
+      <c r="W131">
+        <v>100</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z131" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="132" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>407</v>
+      </c>
+      <c r="C132" t="s">
+        <v>406</v>
+      </c>
+      <c r="H132" t="s">
+        <v>408</v>
+      </c>
+      <c r="I132">
+        <v>0.05</v>
+      </c>
+      <c r="J132">
+        <v>0.05</v>
+      </c>
+      <c r="K132">
+        <v>5</v>
+      </c>
+      <c r="L132">
+        <v>300</v>
+      </c>
+      <c r="M132">
+        <v>1000</v>
+      </c>
+      <c r="N132">
+        <v>1000</v>
+      </c>
+      <c r="O132">
+        <v>10</v>
+      </c>
+      <c r="P132">
+        <v>40</v>
+      </c>
+      <c r="Q132">
+        <v>9</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>1</v>
+      </c>
+      <c r="T132">
+        <v>350</v>
+      </c>
+      <c r="U132">
+        <v>1</v>
+      </c>
+      <c r="W132">
+        <v>100</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="133" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>411</v>
+      </c>
+      <c r="C133" t="s">
+        <v>409</v>
+      </c>
+      <c r="H133" t="s">
+        <v>410</v>
+      </c>
+      <c r="I133">
+        <v>0.05</v>
+      </c>
+      <c r="J133">
+        <v>0.05</v>
+      </c>
+      <c r="K133">
+        <v>5</v>
+      </c>
+      <c r="L133">
+        <v>300</v>
+      </c>
+      <c r="M133">
+        <v>1000</v>
+      </c>
+      <c r="N133">
+        <v>1000</v>
+      </c>
+      <c r="O133">
+        <v>10</v>
+      </c>
+      <c r="P133">
+        <v>40</v>
+      </c>
+      <c r="Q133">
+        <v>9</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="T133">
+        <v>350</v>
+      </c>
+      <c r="U133">
+        <v>1</v>
+      </c>
+      <c r="W133">
+        <v>100</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="134" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>413</v>
+      </c>
       <c r="C134" t="s">
+        <v>412</v>
+      </c>
+      <c r="H134" t="s">
+        <v>415</v>
+      </c>
+      <c r="I134">
+        <v>0.05</v>
+      </c>
+      <c r="J134">
+        <v>0.05</v>
+      </c>
+      <c r="K134">
+        <v>5</v>
+      </c>
+      <c r="L134">
+        <v>300</v>
+      </c>
+      <c r="M134">
+        <v>1000</v>
+      </c>
+      <c r="N134">
+        <v>1000</v>
+      </c>
+      <c r="O134">
+        <v>10</v>
+      </c>
+      <c r="P134">
+        <v>40</v>
+      </c>
+      <c r="Q134">
+        <v>9</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>1</v>
+      </c>
+      <c r="T134">
+        <v>350</v>
+      </c>
+      <c r="U134">
+        <v>1</v>
+      </c>
+      <c r="W134">
+        <v>100</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z134" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA134" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>417</v>
+      </c>
+      <c r="C135" t="s">
+        <v>414</v>
+      </c>
+      <c r="H135" t="s">
+        <v>296</v>
+      </c>
+      <c r="I135">
+        <v>0.05</v>
+      </c>
+      <c r="J135">
+        <v>0.05</v>
+      </c>
+      <c r="K135">
+        <v>5</v>
+      </c>
+      <c r="L135">
+        <v>300</v>
+      </c>
+      <c r="M135">
+        <v>1000</v>
+      </c>
+      <c r="N135">
+        <v>1000</v>
+      </c>
+      <c r="O135">
+        <v>10</v>
+      </c>
+      <c r="P135">
+        <v>40</v>
+      </c>
+      <c r="Q135">
+        <v>9</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>1</v>
+      </c>
+      <c r="T135">
+        <v>350</v>
+      </c>
+      <c r="U135">
+        <v>1</v>
+      </c>
+      <c r="W135">
+        <v>100</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>418</v>
+      </c>
+      <c r="C136" t="s">
+        <v>416</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0.05</v>
+      </c>
+      <c r="J136">
+        <v>0.05</v>
+      </c>
+      <c r="K136">
+        <v>5</v>
+      </c>
+      <c r="L136">
+        <v>300</v>
+      </c>
+      <c r="M136">
+        <v>1000</v>
+      </c>
+      <c r="N136">
+        <v>1000</v>
+      </c>
+      <c r="O136">
+        <v>10</v>
+      </c>
+      <c r="P136">
+        <v>40</v>
+      </c>
+      <c r="Q136">
+        <v>9</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>1</v>
+      </c>
+      <c r="T136">
+        <v>350</v>
+      </c>
+      <c r="U136">
+        <v>1</v>
+      </c>
+      <c r="W136">
+        <v>100</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA136" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>421</v>
+      </c>
+      <c r="C137" t="s">
+        <v>420</v>
+      </c>
+      <c r="H137" t="s">
+        <v>419</v>
+      </c>
+      <c r="I137">
+        <v>0.4</v>
+      </c>
+      <c r="J137">
+        <v>0.05</v>
+      </c>
+      <c r="K137">
+        <v>5</v>
+      </c>
+      <c r="L137">
+        <v>300</v>
+      </c>
+      <c r="M137">
+        <v>1000</v>
+      </c>
+      <c r="N137">
+        <v>1000</v>
+      </c>
+      <c r="O137">
+        <v>10</v>
+      </c>
+      <c r="P137">
+        <v>40</v>
+      </c>
+      <c r="Q137">
+        <v>9</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>1</v>
+      </c>
+      <c r="T137">
+        <v>350</v>
+      </c>
+      <c r="U137">
+        <v>1</v>
+      </c>
+      <c r="W137">
+        <v>100</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z137" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA137" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="138" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>423</v>
+      </c>
+      <c r="C138" t="s">
+        <v>422</v>
+      </c>
+      <c r="H138" t="s">
+        <v>419</v>
+      </c>
+      <c r="I138">
+        <v>0.4</v>
+      </c>
+      <c r="J138">
+        <v>0.4</v>
+      </c>
+      <c r="K138">
+        <v>5</v>
+      </c>
+      <c r="L138">
+        <v>300</v>
+      </c>
+      <c r="M138">
+        <v>1000</v>
+      </c>
+      <c r="N138">
+        <v>1000</v>
+      </c>
+      <c r="O138">
+        <v>10</v>
+      </c>
+      <c r="P138">
+        <v>40</v>
+      </c>
+      <c r="Q138">
+        <v>9</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>1</v>
+      </c>
+      <c r="T138">
+        <v>350</v>
+      </c>
+      <c r="U138">
+        <v>1</v>
+      </c>
+      <c r="W138">
+        <v>100</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z138" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="139" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>424</v>
+      </c>
+      <c r="H139" t="s">
+        <v>419</v>
+      </c>
+      <c r="I139">
+        <v>0.05</v>
+      </c>
+      <c r="J139">
+        <v>0.05</v>
+      </c>
+      <c r="K139">
+        <v>5</v>
+      </c>
+      <c r="L139">
+        <v>500</v>
+      </c>
+      <c r="M139">
+        <v>1000</v>
+      </c>
+      <c r="N139">
+        <v>1000</v>
+      </c>
+      <c r="O139">
+        <v>10</v>
+      </c>
+      <c r="P139">
+        <v>40</v>
+      </c>
+      <c r="Q139">
+        <v>9</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>1</v>
+      </c>
+      <c r="T139">
+        <v>350</v>
+      </c>
+      <c r="U139">
+        <v>1</v>
+      </c>
+      <c r="W139">
+        <v>100</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z139" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA139" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="140" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>425</v>
+      </c>
+      <c r="H140" t="s">
+        <v>419</v>
+      </c>
+      <c r="I140">
+        <v>0.05</v>
+      </c>
+      <c r="J140">
+        <v>0.05</v>
+      </c>
+      <c r="K140">
+        <v>5</v>
+      </c>
+      <c r="L140">
+        <v>700</v>
+      </c>
+      <c r="M140">
+        <v>1000</v>
+      </c>
+      <c r="N140">
+        <v>1000</v>
+      </c>
+      <c r="O140">
+        <v>10</v>
+      </c>
+      <c r="P140">
+        <v>40</v>
+      </c>
+      <c r="Q140">
+        <v>9</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>1</v>
+      </c>
+      <c r="T140">
+        <v>350</v>
+      </c>
+      <c r="U140">
+        <v>1</v>
+      </c>
+      <c r="W140">
+        <v>100</v>
+      </c>
+      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA140" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="141" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>426</v>
+      </c>
+      <c r="H141" t="s">
+        <v>419</v>
+      </c>
+      <c r="I141">
+        <v>0.05</v>
+      </c>
+      <c r="J141">
+        <v>0.05</v>
+      </c>
+      <c r="K141">
+        <v>5</v>
+      </c>
+      <c r="L141">
+        <v>100</v>
+      </c>
+      <c r="M141">
+        <v>1000</v>
+      </c>
+      <c r="N141">
+        <v>1000</v>
+      </c>
+      <c r="O141">
+        <v>10</v>
+      </c>
+      <c r="P141">
+        <v>40</v>
+      </c>
+      <c r="Q141">
+        <v>9</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>1</v>
+      </c>
+      <c r="T141">
+        <v>350</v>
+      </c>
+      <c r="U141">
+        <v>1</v>
+      </c>
+      <c r="W141">
+        <v>100</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z141" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C135" t="s">
+    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C136" s="21" t="s">
+    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C137" t="s">
+    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C143" t="s">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
         <v>188</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H164" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C144" t="s">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="20" t="s">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C166" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C146" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C147" t="s">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>227</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B169" t="s">
         <v>226</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C169" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="8" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C170" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C151" t="s">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C152" t="s">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C157" t="s">
+    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C158" t="s">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C159" t="s">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C160" t="s">
+    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D162" s="6" t="s">
+    <row r="183" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D183" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D163" t="s">
+    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D164" s="7" t="s">
+    <row r="185" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D185" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="165" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D165" s="3" t="s">
+    <row r="186" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D186" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="166" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D166" s="3" t="s">
+    <row r="187" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D187" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D167" s="3" t="s">
+    <row r="188" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D188" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="168" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D168" s="3" t="s">
+    <row r="189" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D189" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="169" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D169" s="6" t="s">
+    <row r="190" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D190" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="170" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D170" s="3" t="s">
+    <row r="191" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D191" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="172" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D172" s="3" t="s">
+    <row r="193" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D193" s="3" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C136" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
+    <hyperlink ref="C157" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33977003-A0F0-454B-90E6-CF23BE618156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A843FEF-F3EF-41BF-90DC-1BA21BC95D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40545" yWindow="0" windowWidth="17160" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,9 @@
     <author>tc={1A7E678B-791B-4624-9617-45050294B705}</author>
     <author>tc={C8B45157-0C7D-4F43-8981-E394CFA9B30A}</author>
     <author>tc={43182A03-EEEB-49F0-BA20-619E7651014A}</author>
+    <author>tc={310F4159-C8A8-473D-8BF2-29A578DBD840}</author>
     <author>tc={A126A3DF-DFE8-44DC-A108-85EC9F636C8F}</author>
+    <author>tc={3428DC46-C51A-44A8-A139-7183DD2854FA}</author>
   </authors>
   <commentList>
     <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -409,7 +411,33 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H141" authorId="29" shapeId="0" xr:uid="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
+    <comment ref="H141" authorId="29" shapeId="0" xr:uid="{310F4159-C8A8-473D-8BF2-29A578DBD840}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H142" authorId="30" shapeId="0" xr:uid="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H143" authorId="31" shapeId="0" xr:uid="{3428DC46-C51A-44A8-A139-7183DD2854FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -427,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="438">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1765,16 +1793,57 @@
     <t>634337:634356</t>
   </si>
   <si>
-    <t>fin_5.10.23_2LL50a</t>
-  </si>
-  <si>
-    <t>fin_5.10.23_2LL70a</t>
-  </si>
-  <si>
-    <t>fin_5.10.23_2LL10a</t>
-  </si>
-  <si>
     <t>CANCELED due to being over max walltime</t>
+  </si>
+  <si>
+    <t>635638:635657</t>
+  </si>
+  <si>
+    <t>635659:635678</t>
+  </si>
+  <si>
+    <t>fin_5.11.23_2LL50a</t>
+  </si>
+  <si>
+    <t>fin_5.11.23_1LL70</t>
+  </si>
+  <si>
+    <t>635684:635703</t>
+  </si>
+  <si>
+    <t>fin_5.11.23_1LL7a</t>
+  </si>
+  <si>
+    <t>635706:635725</t>
+  </si>
+  <si>
+    <t>fin_5.11.23_1LL10</t>
+  </si>
+  <si>
+    <t>fin_5.11.23_1LL1a</t>
+  </si>
+  <si>
+    <t>635727:635746</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>ALL FAILED: y=125; Error in sample.int(length(x), size, replace, prob) :
+  invalid 'size' argument
+Calls: RunModel -&gt; Breed -&gt; sample -&gt; sample.int
+Execution halted</t>
+  </si>
+  <si>
+    <t>ON RUNS 3, 5, 16,: y=108 Error in sample.int(length(x), size, replace, prob) :
+  invalid 'size' argument
+Calls: RunModel -&gt; Breed -&gt; sample -&gt; sample.int     FOR RUN 17:Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed
+In addition: Warning messages:
+1: In remove(dead, immature, mates, rand) : object 'rand' not found
+2: In remove(dead, immature, mates, rand) : object 'rand' not found
+Execution halted
+Execution halted</t>
   </si>
 </sst>
 </file>
@@ -1877,10 +1946,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF7171"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1979,7 +2049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2014,6 +2084,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2501,7 +2576,23 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
-  <threadedComment ref="H141" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
+  <threadedComment ref="H141" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{310F4159-C8A8-473D-8BF2-29A578DBD840}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H142" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H143" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{3428DC46-C51A-44A8-A139-7183DD2854FA}">
     <text>A = 1 mig per gen
 b= 100 @ y=151
 c= 25 @y=151,165,181,195
@@ -2514,11 +2605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA193"/>
+  <dimension ref="A1:AA194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G143" sqref="G143"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10231,12 +10322,27 @@
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
+      <c r="A123" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>388</v>
       </c>
       <c r="C123" t="s">
         <v>386</v>
       </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>16</v>
+      </c>
       <c r="H123" t="s">
         <v>385</v>
       </c>
@@ -10296,11 +10402,26 @@
       </c>
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
+      <c r="A124" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>390</v>
       </c>
       <c r="C124" t="s">
         <v>389</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>16</v>
       </c>
       <c r="H124" t="s">
         <v>385</v>
@@ -10367,6 +10488,18 @@
       <c r="C125" t="s">
         <v>391</v>
       </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>16</v>
+      </c>
       <c r="H125" t="s">
         <v>385</v>
       </c>
@@ -10432,6 +10565,18 @@
       <c r="C126" t="s">
         <v>393</v>
       </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" t="s">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
       <c r="H126" t="s">
         <v>385</v>
       </c>
@@ -10491,12 +10636,27 @@
       </c>
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
+      <c r="A127" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>396</v>
       </c>
       <c r="C127" t="s">
         <v>395</v>
       </c>
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
       <c r="H127" t="s">
         <v>385</v>
       </c>
@@ -10557,7 +10717,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>398</v>
@@ -10565,6 +10725,18 @@
       <c r="C128" t="s">
         <v>397</v>
       </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>16</v>
+      </c>
       <c r="H128" t="s">
         <v>385</v>
       </c>
@@ -10623,17 +10795,29 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C129" s="10" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="130" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B130" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="20" t="s">
         <v>402</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" t="s">
+        <v>16</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>16</v>
       </c>
       <c r="H130" t="s">
         <v>400</v>
@@ -10693,12 +10877,27 @@
         <v>384</v>
       </c>
     </row>
-    <row r="131" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A131" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="9" t="s">
         <v>403</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
       </c>
       <c r="H131" t="s">
         <v>404</v>
@@ -10758,12 +10957,24 @@
         <v>384</v>
       </c>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>407</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="20" t="s">
         <v>406</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>16</v>
       </c>
       <c r="H132" t="s">
         <v>408</v>
@@ -10823,13 +11034,16 @@
         <v>384</v>
       </c>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>411</v>
       </c>
       <c r="C133" t="s">
         <v>409</v>
       </c>
+      <c r="D133" s="14" t="s">
+        <v>435</v>
+      </c>
       <c r="H133" t="s">
         <v>410</v>
       </c>
@@ -10888,12 +11102,24 @@
         <v>384</v>
       </c>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>413</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="20" t="s">
         <v>412</v>
+      </c>
+      <c r="D134" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>16</v>
       </c>
       <c r="H134" t="s">
         <v>415</v>
@@ -10953,12 +11179,24 @@
         <v>384</v>
       </c>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>417</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="20" t="s">
         <v>414</v>
+      </c>
+      <c r="D135" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" t="s">
+        <v>16</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>16</v>
       </c>
       <c r="H135" t="s">
         <v>296</v>
@@ -11018,12 +11256,24 @@
         <v>384</v>
       </c>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>418</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="20" t="s">
         <v>416</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -11083,13 +11333,16 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>421</v>
       </c>
       <c r="C137" t="s">
         <v>420</v>
       </c>
+      <c r="D137" s="14" t="s">
+        <v>435</v>
+      </c>
       <c r="H137" t="s">
         <v>419</v>
       </c>
@@ -11148,13 +11401,16 @@
         <v>384</v>
       </c>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>423</v>
       </c>
       <c r="C138" t="s">
         <v>422</v>
       </c>
+      <c r="D138" s="14" t="s">
+        <v>435</v>
+      </c>
       <c r="H138" t="s">
         <v>419</v>
       </c>
@@ -11213,9 +11469,15 @@
         <v>384</v>
       </c>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>425</v>
+      </c>
       <c r="C139" t="s">
-        <v>424</v>
+        <v>427</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>435</v>
       </c>
       <c r="H139" t="s">
         <v>419</v>
@@ -11275,12 +11537,27 @@
         <v>384</v>
       </c>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C140" t="s">
-        <v>425</v>
-      </c>
-      <c r="H140" t="s">
-        <v>419</v>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>426</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="D140" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0.05</v>
@@ -11337,12 +11614,27 @@
         <v>384</v>
       </c>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C141" t="s">
-        <v>426</v>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>429</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="D141" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>16</v>
       </c>
       <c r="H141" t="s">
-        <v>419</v>
+        <v>296</v>
       </c>
       <c r="I141">
         <v>0.05</v>
@@ -11354,7 +11646,7 @@
         <v>5</v>
       </c>
       <c r="L141">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="M141">
         <v>1000</v>
@@ -11399,174 +11691,325 @@
         <v>384</v>
       </c>
     </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" t="s">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>434</v>
+      </c>
+      <c r="C142" t="s">
+        <v>432</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0.05</v>
+      </c>
+      <c r="J142">
+        <v>0.05</v>
+      </c>
+      <c r="K142">
+        <v>5</v>
+      </c>
+      <c r="L142">
+        <v>100</v>
+      </c>
+      <c r="M142">
+        <v>1000</v>
+      </c>
+      <c r="N142">
+        <v>1000</v>
+      </c>
+      <c r="O142">
+        <v>10</v>
+      </c>
+      <c r="P142">
+        <v>40</v>
+      </c>
+      <c r="Q142">
+        <v>9</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>1</v>
+      </c>
+      <c r="T142">
+        <v>350</v>
+      </c>
+      <c r="U142">
+        <v>1</v>
+      </c>
+      <c r="W142">
+        <v>100</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A143" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="B143" t="s">
+        <v>431</v>
+      </c>
+      <c r="C143" t="s">
+        <v>433</v>
+      </c>
+      <c r="D143" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="I143">
+        <v>0.05</v>
+      </c>
+      <c r="J143">
+        <v>0.05</v>
+      </c>
+      <c r="K143">
+        <v>5</v>
+      </c>
+      <c r="L143">
+        <v>100</v>
+      </c>
+      <c r="M143">
+        <v>1000</v>
+      </c>
+      <c r="N143">
+        <v>1000</v>
+      </c>
+      <c r="O143">
+        <v>10</v>
+      </c>
+      <c r="P143">
+        <v>40</v>
+      </c>
+      <c r="Q143">
+        <v>9</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>1</v>
+      </c>
+      <c r="T143">
+        <v>350</v>
+      </c>
+      <c r="U143">
+        <v>1</v>
+      </c>
+      <c r="W143">
+        <v>100</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="F151" s="26"/>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="21" t="s">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C158" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C158" t="s">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C162" t="s">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C164" t="s">
-        <v>188</v>
-      </c>
-      <c r="H164" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
+        <v>188</v>
+      </c>
+      <c r="H165" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C166" s="20" t="s">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C167" s="20" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C167" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>227</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>226</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C170" s="8" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C171" s="8" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C171" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C176" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C177" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D183" s="6" t="s">
+    <row r="184" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D184" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D184" t="s">
+    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="185" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D185" s="7" t="s">
+    <row r="186" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D186" s="7" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="186" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D186" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="187" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D187" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D188" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D189" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D190" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="190" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D190" s="6" t="s">
+    <row r="191" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D191" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="191" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D191" s="3" t="s">
+    <row r="192" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D192" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="193" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D193" s="3" t="s">
+    <row r="194" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D194" s="3" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C157" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
+    <hyperlink ref="C158" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A843FEF-F3EF-41BF-90DC-1BA21BC95D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9A91D-A07A-4F7B-AA49-11ED4C52A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="0" windowWidth="17160" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,8 +68,14 @@
     <author>tc={C8B45157-0C7D-4F43-8981-E394CFA9B30A}</author>
     <author>tc={43182A03-EEEB-49F0-BA20-619E7651014A}</author>
     <author>tc={310F4159-C8A8-473D-8BF2-29A578DBD840}</author>
+    <author>tc={A2CF346E-C2C4-40B0-8D15-B453E7E94A05}</author>
     <author>tc={A126A3DF-DFE8-44DC-A108-85EC9F636C8F}</author>
     <author>tc={3428DC46-C51A-44A8-A139-7183DD2854FA}</author>
+    <author>tc={F1BEAB29-3F8B-40FF-BEFB-29D99E3CFC60}</author>
+    <author>tc={AB783DBB-442D-41FB-83F2-F6C993E0C8A9}</author>
+    <author>tc={F8AC0B1C-D71C-4069-8044-65C9DD2B6E0A}</author>
+    <author>tc={42A9F557-3DB1-4895-8FEC-40DFD5B943A7}</author>
+    <author>tc={E5606EC7-C73F-4146-A66D-EFD4ECEFC32F}</author>
   </authors>
   <commentList>
     <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -424,7 +430,19 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H142" authorId="30" shapeId="0" xr:uid="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
+    <comment ref="B142" authorId="30" shapeId="0" xr:uid="{A2CF346E-C2C4-40B0-8D15-B453E7E94A05}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Runs 3 and 4 failed:
+Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed
+In addition: Warning message:
+In remove(dead, immature, mates, rand) : object 'rand' not found</t>
+      </text>
+    </comment>
+    <comment ref="H142" authorId="31" shapeId="0" xr:uid="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -437,7 +455,71 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H143" authorId="31" shapeId="0" xr:uid="{3428DC46-C51A-44A8-A139-7183DD2854FA}">
+    <comment ref="H143" authorId="32" shapeId="0" xr:uid="{3428DC46-C51A-44A8-A139-7183DD2854FA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="B144" authorId="33" shapeId="0" xr:uid="{F1BEAB29-3F8B-40FF-BEFB-29D99E3CFC60}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Run 12 failed: Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed
+In addition: Warning message:
+In remove(dead, immature, mates, rand) : object 'rand' not found
+Execution halted</t>
+      </text>
+    </comment>
+    <comment ref="H144" authorId="34" shapeId="0" xr:uid="{AB783DBB-442D-41FB-83F2-F6C993E0C8A9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H145" authorId="35" shapeId="0" xr:uid="{F8AC0B1C-D71C-4069-8044-65C9DD2B6E0A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H146" authorId="36" shapeId="0" xr:uid="{42A9F557-3DB1-4895-8FEC-40DFD5B943A7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H147" authorId="37" shapeId="0" xr:uid="{E5606EC7-C73F-4146-A66D-EFD4ECEFC32F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -455,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="448">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1845,12 +1927,42 @@
 Execution halted
 Execution halted</t>
   </si>
+  <si>
+    <t>cpfin_5.11.23_1LL1a</t>
+  </si>
+  <si>
+    <t>fixed Breed a bit to hopefully help with this</t>
+  </si>
+  <si>
+    <t>644558:644577</t>
+  </si>
+  <si>
+    <t>cpfin_5.10.23_1LL3e</t>
+  </si>
+  <si>
+    <t>644580:644599</t>
+  </si>
+  <si>
+    <t>cpfin_5.11.23_1LL10</t>
+  </si>
+  <si>
+    <t>647700:647719</t>
+  </si>
+  <si>
+    <t>quickie to add for the failed run</t>
+  </si>
+  <si>
+    <t>c2fin_5.11.23_1LL1a</t>
+  </si>
+  <si>
+    <t>647755:647759</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1952,6 +2064,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2049,7 +2167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2087,8 +2205,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2584,6 +2703,13 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
+  <threadedComment ref="B142" dT="2023-05-22T15:59:47.06" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A2CF346E-C2C4-40B0-8D15-B453E7E94A05}">
+    <text>Runs 3 and 4 failed:
+Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed
+In addition: Warning message:
+In remove(dead, immature, mates, rand) : object 'rand' not found</text>
+  </threadedComment>
   <threadedComment ref="H142" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
     <text>A = 1 mig per gen
 b= 100 @ y=151
@@ -2600,6 +2726,45 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
+  <threadedComment ref="B144" dT="2023-05-22T15:47:21.36" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{F1BEAB29-3F8B-40FF-BEFB-29D99E3CFC60}">
+    <text>Run 12 failed: Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed
+In addition: Warning message:
+In remove(dead, immature, mates, rand) : object 'rand' not found
+Execution halted</text>
+  </threadedComment>
+  <threadedComment ref="H144" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{AB783DBB-442D-41FB-83F2-F6C993E0C8A9}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H145" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{F8AC0B1C-D71C-4069-8044-65C9DD2B6E0A}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H146" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{42A9F557-3DB1-4895-8FEC-40DFD5B943A7}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H147" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{E5606EC7-C73F-4146-A66D-EFD4ECEFC32F}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2608,8 +2773,8 @@
   <dimension ref="A1:AA194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10878,7 +11043,7 @@
       </c>
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A131" s="27" t="s">
+      <c r="A131" t="s">
         <v>436</v>
       </c>
       <c r="B131" s="9" t="s">
@@ -11038,11 +11203,20 @@
       <c r="B133" t="s">
         <v>411</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="D133" s="14" t="s">
-        <v>435</v>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>16</v>
       </c>
       <c r="H133" t="s">
         <v>410</v>
@@ -11692,14 +11866,23 @@
       </c>
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
+      <c r="B142" s="14" t="s">
         <v>434</v>
       </c>
       <c r="C142" t="s">
         <v>432</v>
       </c>
-      <c r="D142" s="14" t="s">
-        <v>435</v>
+      <c r="D142" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -11760,7 +11943,7 @@
       </c>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="28" t="s">
         <v>437</v>
       </c>
       <c r="B143" t="s">
@@ -11769,19 +11952,19 @@
       <c r="C143" t="s">
         <v>433</v>
       </c>
-      <c r="D143" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="F143" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H143" s="28" t="s">
+      <c r="D143" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" s="12" t="s">
         <v>296</v>
       </c>
       <c r="I143">
@@ -11839,25 +12022,316 @@
         <v>384</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>439</v>
+      </c>
+      <c r="B144" t="s">
+        <v>440</v>
+      </c>
+      <c r="C144" t="s">
+        <v>438</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I144">
+        <v>0.05</v>
+      </c>
+      <c r="J144">
+        <v>0.05</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>100</v>
+      </c>
+      <c r="M144">
+        <v>1000</v>
+      </c>
+      <c r="N144">
+        <v>1000</v>
+      </c>
+      <c r="O144">
+        <v>10</v>
+      </c>
+      <c r="P144">
+        <v>40</v>
+      </c>
+      <c r="Q144">
+        <v>9</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>1</v>
+      </c>
+      <c r="T144">
+        <v>350</v>
+      </c>
+      <c r="U144">
+        <v>1</v>
+      </c>
+      <c r="W144">
+        <v>100</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA144" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>439</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="H145" t="s">
+        <v>404</v>
+      </c>
+      <c r="I145">
+        <v>0.05</v>
+      </c>
+      <c r="J145">
+        <v>0.05</v>
+      </c>
+      <c r="K145">
+        <v>5</v>
+      </c>
+      <c r="L145">
+        <v>300</v>
+      </c>
+      <c r="M145">
+        <v>1000</v>
+      </c>
+      <c r="N145">
+        <v>1000</v>
+      </c>
+      <c r="O145">
+        <v>10</v>
+      </c>
+      <c r="P145">
+        <v>40</v>
+      </c>
+      <c r="Q145">
+        <v>9</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1</v>
+      </c>
+      <c r="T145">
+        <v>350</v>
+      </c>
+      <c r="U145">
+        <v>1</v>
+      </c>
+      <c r="W145">
+        <v>100</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA145" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B146" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C146" t="s">
+        <v>443</v>
+      </c>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0.05</v>
+      </c>
+      <c r="J146">
+        <v>0.05</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>100</v>
+      </c>
+      <c r="M146">
+        <v>1000</v>
+      </c>
+      <c r="N146">
+        <v>1000</v>
+      </c>
+      <c r="O146">
+        <v>10</v>
+      </c>
+      <c r="P146">
+        <v>40</v>
+      </c>
+      <c r="Q146">
+        <v>9</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1</v>
+      </c>
+      <c r="T146">
+        <v>350</v>
+      </c>
+      <c r="U146">
+        <v>1</v>
+      </c>
+      <c r="W146">
+        <v>100</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA146" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>445</v>
+      </c>
+      <c r="B147" s="29" t="s">
+        <v>447</v>
+      </c>
+      <c r="C147" t="s">
+        <v>446</v>
+      </c>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
+      <c r="G147" s="27"/>
+      <c r="H147" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I147">
+        <v>0.05</v>
+      </c>
+      <c r="J147">
+        <v>0.05</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>100</v>
+      </c>
+      <c r="M147">
+        <v>1000</v>
+      </c>
+      <c r="N147">
+        <v>1000</v>
+      </c>
+      <c r="O147">
+        <v>10</v>
+      </c>
+      <c r="P147">
+        <v>40</v>
+      </c>
+      <c r="Q147">
+        <v>9</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>1</v>
+      </c>
+      <c r="T147">
+        <v>350</v>
+      </c>
+      <c r="U147">
+        <v>1</v>
+      </c>
+      <c r="W147">
+        <v>100</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F151" s="26"/>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C158" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>210</v>
       </c>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA9A91D-A07A-4F7B-AA49-11ED4C52A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868D3F3-48DB-427C-A8B1-28AE22354467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,6 +64,7 @@
     <author>tc={50C1E468-3FE3-4425-AF63-F693B778E1EB}</author>
     <author>tc={9B2957F2-B0F0-4676-938E-589BF91EDDDB}</author>
     <author>tc={8297EA8D-E880-4ED0-B636-0A3BAE761372}</author>
+    <author>tc={297B97F3-1571-4C23-BD3D-5D4AF7E92D31}</author>
     <author>tc={1A7E678B-791B-4624-9617-45050294B705}</author>
     <author>tc={C8B45157-0C7D-4F43-8981-E394CFA9B30A}</author>
     <author>tc={43182A03-EEEB-49F0-BA20-619E7651014A}</author>
@@ -74,8 +75,26 @@
     <author>tc={F1BEAB29-3F8B-40FF-BEFB-29D99E3CFC60}</author>
     <author>tc={AB783DBB-442D-41FB-83F2-F6C993E0C8A9}</author>
     <author>tc={F8AC0B1C-D71C-4069-8044-65C9DD2B6E0A}</author>
+    <author>tc={9539A81A-0357-44C8-904B-9525D0225109}</author>
     <author>tc={42A9F557-3DB1-4895-8FEC-40DFD5B943A7}</author>
     <author>tc={E5606EC7-C73F-4146-A66D-EFD4ECEFC32F}</author>
+    <author>tc={F1C57B8D-C7BA-46E3-9EDF-3CD68F5478CC}</author>
+    <author>tc={7ADCD0F2-8855-48C1-B50C-C832D86CC687}</author>
+    <author>tc={1BF81254-04B2-4575-91DA-AFFE01FFBC07}</author>
+    <author>tc={60CD2847-67E4-4FE1-AF7D-A9C4280E832B}</author>
+    <author>tc={26EA21B7-1822-4490-B147-10EB4BE89102}</author>
+    <author>tc={EEB3040C-9168-4C72-BD78-21F971ABFFFA}</author>
+    <author>tc={CDEA74A6-CDCC-478A-9177-BA1089B032DD}</author>
+    <author>tc={4E61D6A3-8D5D-4633-A0D1-264E860C0447}</author>
+    <author>tc={C025CFCF-4CCB-487A-951B-257E5FAF8F22}</author>
+    <author>tc={4C5321BE-5A27-4A1C-A6CD-CA4BFD433842}</author>
+    <author>tc={E9678F3C-7CE1-4A9A-894D-C964E07E6873}</author>
+    <author>tc={A53A6616-9F7B-4385-BCF4-E91C19A87DA7}</author>
+    <author>tc={8D2DC832-E5E2-496E-9CB1-28BEB01C77E8}</author>
+    <author>tc={DF608B31-6706-478F-93D2-885D006151AB}</author>
+    <author>tc={EC1A40BB-1ADC-4813-8073-77E8ADC49A96}</author>
+    <author>tc={FD5155F5-AA31-47DA-B9F6-3D2471FEEA34}</author>
+    <author>tc={8B36E44F-4EF7-40F9-8BB2-8F3851006A51}</author>
   </authors>
   <commentList>
     <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -378,7 +397,17 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H138" authorId="26" shapeId="0" xr:uid="{1A7E678B-791B-4624-9617-45050294B705}">
+    <comment ref="B138" authorId="26" shapeId="0" xr:uid="{297B97F3-1571-4C23-BD3D-5D4AF7E92D31}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Run 20 failed: 
+[1] "DONE! 247 param 2 rep 5"
+slurmstepd: error: *** JOB 634356 ON node934 CANCELLED AT 2023-05-29T10:23:51 DUE TO TIME LIMIT ***</t>
+      </text>
+    </comment>
+    <comment ref="H138" authorId="27" shapeId="0" xr:uid="{1A7E678B-791B-4624-9617-45050294B705}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -391,7 +420,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H139" authorId="27" shapeId="0" xr:uid="{C8B45157-0C7D-4F43-8981-E394CFA9B30A}">
+    <comment ref="H139" authorId="28" shapeId="0" xr:uid="{C8B45157-0C7D-4F43-8981-E394CFA9B30A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -404,7 +433,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H140" authorId="28" shapeId="0" xr:uid="{43182A03-EEEB-49F0-BA20-619E7651014A}">
+    <comment ref="H140" authorId="29" shapeId="0" xr:uid="{43182A03-EEEB-49F0-BA20-619E7651014A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -417,7 +446,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H141" authorId="29" shapeId="0" xr:uid="{310F4159-C8A8-473D-8BF2-29A578DBD840}">
+    <comment ref="H141" authorId="30" shapeId="0" xr:uid="{310F4159-C8A8-473D-8BF2-29A578DBD840}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -430,7 +459,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="B142" authorId="30" shapeId="0" xr:uid="{A2CF346E-C2C4-40B0-8D15-B453E7E94A05}">
+    <comment ref="B142" authorId="31" shapeId="0" xr:uid="{A2CF346E-C2C4-40B0-8D15-B453E7E94A05}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -442,7 +471,7 @@
 In remove(dead, immature, mates, rand) : object 'rand' not found</t>
       </text>
     </comment>
-    <comment ref="H142" authorId="31" shapeId="0" xr:uid="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
+    <comment ref="H142" authorId="32" shapeId="0" xr:uid="{A126A3DF-DFE8-44DC-A108-85EC9F636C8F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -455,7 +484,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H143" authorId="32" shapeId="0" xr:uid="{3428DC46-C51A-44A8-A139-7183DD2854FA}">
+    <comment ref="H143" authorId="33" shapeId="0" xr:uid="{3428DC46-C51A-44A8-A139-7183DD2854FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -468,7 +497,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="B144" authorId="33" shapeId="0" xr:uid="{F1BEAB29-3F8B-40FF-BEFB-29D99E3CFC60}">
+    <comment ref="B144" authorId="34" shapeId="0" xr:uid="{F1BEAB29-3F8B-40FF-BEFB-29D99E3CFC60}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -480,7 +509,7 @@
 Execution halted</t>
       </text>
     </comment>
-    <comment ref="H144" authorId="34" shapeId="0" xr:uid="{AB783DBB-442D-41FB-83F2-F6C993E0C8A9}">
+    <comment ref="H144" authorId="35" shapeId="0" xr:uid="{AB783DBB-442D-41FB-83F2-F6C993E0C8A9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -493,7 +522,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H145" authorId="35" shapeId="0" xr:uid="{F8AC0B1C-D71C-4069-8044-65C9DD2B6E0A}">
+    <comment ref="H145" authorId="36" shapeId="0" xr:uid="{F8AC0B1C-D71C-4069-8044-65C9DD2B6E0A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -506,7 +535,27 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H146" authorId="36" shapeId="0" xr:uid="{42A9F557-3DB1-4895-8FEC-40DFD5B943A7}">
+    <comment ref="B146" authorId="37" shapeId="0" xr:uid="{9539A81A-0357-44C8-904B-9525D0225109}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Runs 2 and 17 didn’t work!
+ERROR 2::  Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed
+In addition: Warning message:
+In remove(dead, immature, mates, rand) : object 'rand' not found
+Execution halted
+ERROR 17:: [1] "can't generate father genotypes"
+Error in Breed(pop, pairs, numboff, k, sz, nSNP, nSNP.mig, broodsize,  :
+  no loop for break/next, jumping to top level
+Calls: RunModel -&gt; Breed
+Execution halted
+Reply:
+    Perhaps need a check so that if npairs*max broodsize &lt; numboff, there is a check</t>
+      </text>
+    </comment>
+    <comment ref="H146" authorId="38" shapeId="0" xr:uid="{42A9F557-3DB1-4895-8FEC-40DFD5B943A7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -519,7 +568,227 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H147" authorId="37" shapeId="0" xr:uid="{E5606EC7-C73F-4146-A66D-EFD4ECEFC32F}">
+    <comment ref="H147" authorId="39" shapeId="0" xr:uid="{E5606EC7-C73F-4146-A66D-EFD4ECEFC32F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H148" authorId="40" shapeId="0" xr:uid="{F1C57B8D-C7BA-46E3-9EDF-3CD68F5478CC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H149" authorId="41" shapeId="0" xr:uid="{7ADCD0F2-8855-48C1-B50C-C832D86CC687}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H150" authorId="42" shapeId="0" xr:uid="{1BF81254-04B2-4575-91DA-AFFE01FFBC07}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H151" authorId="43" shapeId="0" xr:uid="{60CD2847-67E4-4FE1-AF7D-A9C4280E832B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H152" authorId="44" shapeId="0" xr:uid="{26EA21B7-1822-4490-B147-10EB4BE89102}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H153" authorId="45" shapeId="0" xr:uid="{EEB3040C-9168-4C72-BD78-21F971ABFFFA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H154" authorId="46" shapeId="0" xr:uid="{CDEA74A6-CDCC-478A-9177-BA1089B032DD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H155" authorId="47" shapeId="0" xr:uid="{4E61D6A3-8D5D-4633-A0D1-264E860C0447}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H156" authorId="48" shapeId="0" xr:uid="{C025CFCF-4CCB-487A-951B-257E5FAF8F22}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H157" authorId="49" shapeId="0" xr:uid="{4C5321BE-5A27-4A1C-A6CD-CA4BFD433842}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H158" authorId="50" shapeId="0" xr:uid="{E9678F3C-7CE1-4A9A-894D-C964E07E6873}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H159" authorId="51" shapeId="0" xr:uid="{A53A6616-9F7B-4385-BCF4-E91C19A87DA7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="B160" authorId="52" shapeId="0" xr:uid="{8D2DC832-E5E2-496E-9CB1-28BEB01C77E8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    RUN 9, 10, 13 failed: Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed
+this happens when nparents*fecundity &lt; numboff
+Reply:
+    Technicallyyyyy these pops should probably crash at this point</t>
+      </text>
+    </comment>
+    <comment ref="H160" authorId="53" shapeId="0" xr:uid="{DF608B31-6706-478F-93D2-885D006151AB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H161" authorId="54" shapeId="0" xr:uid="{EC1A40BB-1ADC-4813-8073-77E8ADC49A96}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H162" authorId="55" shapeId="0" xr:uid="{FD5155F5-AA31-47DA-B9F6-3D2471FEEA34}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H163" authorId="56" shapeId="0" xr:uid="{8B36E44F-4EF7-40F9-8BB2-8F3851006A51}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -537,7 +806,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="483">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -1764,9 +2033,6 @@
     <t>fin_5.2.23_7LL3</t>
   </si>
   <si>
-    <t>FINAL RUNS named as: #[n mig rates][H/L source p][H/L foc p][dropk]</t>
-  </si>
-  <si>
     <t>615329:615348</t>
   </si>
   <si>
@@ -1906,9 +2172,6 @@
   </si>
   <si>
     <t>635727:635746</t>
-  </si>
-  <si>
-    <t>r</t>
   </si>
   <si>
     <t>ALL FAILED: y=125; Error in sample.int(length(x), size, replace, prob) :
@@ -1957,12 +2220,123 @@
   <si>
     <t>647755:647759</t>
   </si>
+  <si>
+    <t>fin_5.23.23_1HL30</t>
+  </si>
+  <si>
+    <t>fin_5.23.23_1HL3a</t>
+  </si>
+  <si>
+    <t>649508:649527</t>
+  </si>
+  <si>
+    <t>649529:649548</t>
+  </si>
+  <si>
+    <t>cpfin_5.30.23_1HH30</t>
+  </si>
+  <si>
+    <t>cpfin_5.30.23_1HH3a</t>
+  </si>
+  <si>
+    <t>656435:656439</t>
+  </si>
+  <si>
+    <t>656442:656446</t>
+  </si>
+  <si>
+    <t>matemigs off</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_1LL30.</t>
+  </si>
+  <si>
+    <t>658770:658789</t>
+  </si>
+  <si>
+    <t>658793:658812</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_1LL3a.</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_1LL3b.</t>
+  </si>
+  <si>
+    <t>658814:658833</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_1LL3c.</t>
+  </si>
+  <si>
+    <t>658835:658854</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>no bottleneck</t>
+  </si>
+  <si>
+    <t>1000/NA</t>
+  </si>
+  <si>
+    <t>FINAL RUNS named as: #[n mig rates][H/L source p][H/L foc p][dropk][. &gt;&gt; matemigs=OFF]</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_nbtl3a</t>
+  </si>
+  <si>
+    <t>658882:658901</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_nbtl30</t>
+  </si>
+  <si>
+    <t>658904:658923</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_LL5b</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_LL5c</t>
+  </si>
+  <si>
+    <t>658924:658943</t>
+  </si>
+  <si>
+    <t>658944:658963</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_LL1b</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_LL1c</t>
+  </si>
+  <si>
+    <t>658964:658983</t>
+  </si>
+  <si>
+    <t>658984:659003</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_LL7b</t>
+  </si>
+  <si>
+    <t>fin_6.1.23_LL7c</t>
+  </si>
+  <si>
+    <t>659004:659023</t>
+  </si>
+  <si>
+    <t>659024:659043</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2065,13 +2439,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2144,6 +2525,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2167,7 +2560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2202,12 +2595,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2671,6 +3068,11 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
+  <threadedComment ref="B138" dT="2023-05-30T20:02:05.18" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{297B97F3-1571-4C23-BD3D-5D4AF7E92D31}">
+    <text>Run 20 failed: 
+[1] "DONE! 247 param 2 rep 5"
+slurmstepd: error: *** JOB 634356 ON node934 CANCELLED AT 2023-05-29T10:23:51 DUE TO TIME LIMIT ***</text>
+  </threadedComment>
   <threadedComment ref="H138" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{1A7E678B-791B-4624-9617-45050294B705}">
     <text>A = 1 mig per gen
 b= 100 @ y=151
@@ -2749,6 +3151,22 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
+  <threadedComment ref="B146" dT="2023-05-23T22:14:33.69" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{9539A81A-0357-44C8-904B-9525D0225109}">
+    <text>Runs 2 and 17 didn’t work!
+ERROR 2::  Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed
+In addition: Warning message:
+In remove(dead, immature, mates, rand) : object 'rand' not found
+Execution halted
+ERROR 17:: [1] "can't generate father genotypes"
+Error in Breed(pop, pairs, numboff, k, sz, nSNP, nSNP.mig, broodsize,  :
+  no loop for break/next, jumping to top level
+Calls: RunModel -&gt; Breed
+Execution halted</text>
+  </threadedComment>
+  <threadedComment ref="B146" dT="2023-05-23T22:16:06.45" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{2D784FBE-63B3-4803-9ABA-5623F63B301E}" parentId="{9539A81A-0357-44C8-904B-9525D0225109}">
+    <text>Perhaps need a check so that if npairs*max broodsize &lt; numboff, there is a check</text>
+  </threadedComment>
   <threadedComment ref="H146" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{42A9F557-3DB1-4895-8FEC-40DFD5B943A7}">
     <text>A = 1 mig per gen
 b= 100 @ y=151
@@ -2765,16 +3183,152 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
+  <threadedComment ref="H148" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{F1C57B8D-C7BA-46E3-9EDF-3CD68F5478CC}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H149" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{7ADCD0F2-8855-48C1-B50C-C832D86CC687}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H150" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{1BF81254-04B2-4575-91DA-AFFE01FFBC07}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H151" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{60CD2847-67E4-4FE1-AF7D-A9C4280E832B}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H152" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{26EA21B7-1822-4490-B147-10EB4BE89102}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H153" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{EEB3040C-9168-4C72-BD78-21F971ABFFFA}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H154" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{CDEA74A6-CDCC-478A-9177-BA1089B032DD}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H155" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{4E61D6A3-8D5D-4633-A0D1-264E860C0447}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H156" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{C025CFCF-4CCB-487A-951B-257E5FAF8F22}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H157" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{4C5321BE-5A27-4A1C-A6CD-CA4BFD433842}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H158" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{E9678F3C-7CE1-4A9A-894D-C964E07E6873}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H159" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A53A6616-9F7B-4385-BCF4-E91C19A87DA7}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="B160" dT="2023-06-07T23:12:26.42" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{8D2DC832-E5E2-496E-9CB1-28BEB01C77E8}">
+    <text>RUN 9, 10, 13 failed: Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed
+this happens when nparents*fecundity &lt; numboff</text>
+  </threadedComment>
+  <threadedComment ref="B160" dT="2023-06-07T23:13:44.10" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{C9C09236-00DF-42CE-B8A6-A21952E0E9D9}" parentId="{8D2DC832-E5E2-496E-9CB1-28BEB01C77E8}">
+    <text>Technicallyyyyy these pops should probably crash at this point</text>
+  </threadedComment>
+  <threadedComment ref="H160" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{DF608B31-6706-478F-93D2-885D006151AB}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H161" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{EC1A40BB-1ADC-4813-8073-77E8ADC49A96}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H162" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{FD5155F5-AA31-47DA-B9F6-3D2471FEEA34}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H163" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{8B36E44F-4EF7-40F9-8BB2-8F3851006A51}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA194"/>
+  <dimension ref="A1:AB208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B148" sqref="B148"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H152" sqref="H152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2782,6 +3336,11 @@
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="22" max="22" width="3.44140625" customWidth="1"/>
+    <col min="23" max="23" width="7.88671875" customWidth="1"/>
+    <col min="24" max="24" width="7.21875" customWidth="1"/>
+    <col min="25" max="25" width="8.5546875" customWidth="1"/>
+    <col min="26" max="26" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -10483,15 +11042,15 @@
     <row r="121" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C122" s="25" t="s">
-        <v>387</v>
+        <v>466</v>
       </c>
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C123" t="s">
         <v>386</v>
@@ -10568,13 +11127,13 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C124" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
@@ -10648,10 +11207,10 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C125" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D125" t="s">
         <v>15</v>
@@ -10725,10 +11284,10 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C126" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
@@ -10802,13 +11361,13 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C127" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
@@ -10882,13 +11441,13 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C128" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
@@ -10960,18 +11519,18 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="10" t="s">
-        <v>399</v>
+    <row r="129" spans="1:27" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="30" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C130" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="C130" s="20" t="s">
-        <v>402</v>
-      </c>
       <c r="D130" t="s">
         <v>16</v>
       </c>
@@ -10985,7 +11544,7 @@
         <v>16</v>
       </c>
       <c r="H130" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I130">
         <v>0.05</v>
@@ -11044,13 +11603,13 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>15</v>
@@ -11065,7 +11624,7 @@
         <v>16</v>
       </c>
       <c r="H131" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I131">
         <v>0.05</v>
@@ -11124,25 +11683,25 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
+        <v>406</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="D132" t="s">
+        <v>16</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" t="s">
         <v>407</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D132" t="s">
-        <v>16</v>
-      </c>
-      <c r="E132" t="s">
-        <v>16</v>
-      </c>
-      <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s">
-        <v>16</v>
-      </c>
-      <c r="H132" t="s">
-        <v>408</v>
       </c>
       <c r="I132">
         <v>0.05</v>
@@ -11201,25 +11760,25 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C133" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D133" t="s">
+        <v>16</v>
+      </c>
+      <c r="E133" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s">
         <v>409</v>
-      </c>
-      <c r="D133" t="s">
-        <v>16</v>
-      </c>
-      <c r="E133" t="s">
-        <v>16</v>
-      </c>
-      <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s">
-        <v>16</v>
-      </c>
-      <c r="H133" t="s">
-        <v>410</v>
       </c>
       <c r="I133">
         <v>0.05</v>
@@ -11278,10 +11837,10 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D134" t="s">
         <v>16</v>
@@ -11296,7 +11855,7 @@
         <v>16</v>
       </c>
       <c r="H134" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I134">
         <v>0.05</v>
@@ -11355,10 +11914,10 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D135" t="s">
         <v>16</v>
@@ -11430,95 +11989,107 @@
         <v>384</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
+    <row r="136" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C136" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H136" s="22">
+        <v>0</v>
+      </c>
+      <c r="I136" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J136" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K136" s="22">
+        <v>5</v>
+      </c>
+      <c r="L136" s="22">
+        <v>300</v>
+      </c>
+      <c r="M136" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N136" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O136" s="22">
+        <v>10</v>
+      </c>
+      <c r="P136" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q136" s="22">
+        <v>9</v>
+      </c>
+      <c r="R136" s="22">
+        <v>2</v>
+      </c>
+      <c r="S136" s="22">
+        <v>1</v>
+      </c>
+      <c r="T136" s="22">
+        <v>350</v>
+      </c>
+      <c r="U136" s="22">
+        <v>1</v>
+      </c>
+      <c r="W136" s="22">
+        <v>100</v>
+      </c>
+      <c r="X136" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z136" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA136" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>423</v>
+      </c>
+      <c r="B137" t="s">
+        <v>420</v>
+      </c>
+      <c r="C137" t="s">
+        <v>419</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" t="s">
         <v>418</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D136" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" t="s">
-        <v>16</v>
-      </c>
-      <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s">
-        <v>16</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0.05</v>
-      </c>
-      <c r="J136">
-        <v>0.05</v>
-      </c>
-      <c r="K136">
-        <v>5</v>
-      </c>
-      <c r="L136">
-        <v>300</v>
-      </c>
-      <c r="M136">
-        <v>1000</v>
-      </c>
-      <c r="N136">
-        <v>1000</v>
-      </c>
-      <c r="O136">
-        <v>10</v>
-      </c>
-      <c r="P136">
-        <v>40</v>
-      </c>
-      <c r="Q136">
-        <v>9</v>
-      </c>
-      <c r="R136">
-        <v>2</v>
-      </c>
-      <c r="S136">
-        <v>1</v>
-      </c>
-      <c r="T136">
-        <v>350</v>
-      </c>
-      <c r="U136">
-        <v>1</v>
-      </c>
-      <c r="W136">
-        <v>100</v>
-      </c>
-      <c r="X136">
-        <v>0</v>
-      </c>
-      <c r="Y136" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z136" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA136" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
-        <v>421</v>
-      </c>
-      <c r="C137" t="s">
-        <v>420</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="H137" t="s">
-        <v>419</v>
       </c>
       <c r="I137">
         <v>0.4</v>
@@ -11575,86 +12146,104 @@
         <v>384</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
-        <v>423</v>
-      </c>
-      <c r="C138" t="s">
+    <row r="138" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="D138" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="H138" t="s">
-        <v>419</v>
-      </c>
-      <c r="I138">
+      <c r="C138" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="I138" s="22">
         <v>0.4</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="22">
         <v>0.4</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="22">
         <v>5</v>
       </c>
-      <c r="L138">
+      <c r="L138" s="22">
         <v>300</v>
       </c>
-      <c r="M138">
-        <v>1000</v>
-      </c>
-      <c r="N138">
-        <v>1000</v>
-      </c>
-      <c r="O138">
+      <c r="M138" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N138" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O138" s="22">
         <v>10</v>
       </c>
-      <c r="P138">
+      <c r="P138" s="22">
         <v>40</v>
       </c>
-      <c r="Q138">
+      <c r="Q138" s="22">
         <v>9</v>
       </c>
-      <c r="R138">
+      <c r="R138" s="22">
         <v>2</v>
       </c>
-      <c r="S138">
-        <v>1</v>
-      </c>
-      <c r="T138">
+      <c r="S138" s="22">
+        <v>1</v>
+      </c>
+      <c r="T138" s="22">
         <v>350</v>
       </c>
-      <c r="U138">
-        <v>1</v>
-      </c>
-      <c r="W138">
-        <v>100</v>
-      </c>
-      <c r="X138">
-        <v>0</v>
-      </c>
-      <c r="Y138" t="s">
+      <c r="U138" s="22">
+        <v>1</v>
+      </c>
+      <c r="W138" s="22">
+        <v>100</v>
+      </c>
+      <c r="X138" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="Z138" t="s">
+      <c r="Z138" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="AA138" t="s">
+      <c r="AA138" s="22" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C139" t="s">
-        <v>427</v>
-      </c>
-      <c r="D139" s="14" t="s">
-        <v>435</v>
+        <v>426</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139" t="s">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>16</v>
       </c>
       <c r="H139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I139">
         <v>0.05</v>
@@ -11713,10 +12302,10 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D140" t="s">
         <v>16</v>
@@ -11790,10 +12379,10 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
+        <v>428</v>
+      </c>
+      <c r="C141" s="20" t="s">
         <v>429</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>430</v>
       </c>
       <c r="D141" t="s">
         <v>16</v>
@@ -11867,21 +12456,21 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B142" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C142" t="s">
-        <v>432</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E142" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D142" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H142">
@@ -11943,25 +12532,25 @@
       </c>
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A143" s="28" t="s">
-        <v>437</v>
+      <c r="A143" t="s">
+        <v>435</v>
       </c>
       <c r="B143" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C143" t="s">
-        <v>433</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E143" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F143" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="D143" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H143" s="12" t="s">
@@ -12024,24 +12613,24 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B144" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C144" t="s">
-        <v>438</v>
-      </c>
-      <c r="D144" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E144" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F144" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="D144" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E144" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H144" s="12" t="s">
@@ -12102,20 +12691,30 @@
         <v>384</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>437</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C145" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
+      <c r="D145" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>16</v>
+      </c>
       <c r="H145" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I145">
         <v>0.05</v>
@@ -12172,17 +12771,25 @@
         <v>384</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B146" s="29" t="s">
-        <v>444</v>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>442</v>
       </c>
       <c r="C146" t="s">
-        <v>443</v>
-      </c>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
+        <v>441</v>
+      </c>
+      <c r="D146" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="H146">
         <v>0</v>
       </c>
@@ -12241,249 +12848,1396 @@
         <v>384</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="147" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B147" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B147" s="29" t="s">
+      <c r="C147" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="I147" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J147" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K147" s="22">
+        <v>1</v>
+      </c>
+      <c r="L147" s="22">
+        <v>100</v>
+      </c>
+      <c r="M147" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N147" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O147" s="22">
+        <v>10</v>
+      </c>
+      <c r="P147" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q147" s="22">
+        <v>9</v>
+      </c>
+      <c r="R147" s="22">
+        <v>2</v>
+      </c>
+      <c r="S147" s="22">
+        <v>1</v>
+      </c>
+      <c r="T147" s="22">
+        <v>350</v>
+      </c>
+      <c r="U147" s="22">
+        <v>1</v>
+      </c>
+      <c r="W147" s="22">
+        <v>100</v>
+      </c>
+      <c r="X147" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z147" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA147" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>449</v>
+      </c>
+      <c r="C148" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="D148" t="s">
+        <v>16</v>
+      </c>
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0.4</v>
+      </c>
+      <c r="J148">
+        <v>0.05</v>
+      </c>
+      <c r="K148">
+        <v>5</v>
+      </c>
+      <c r="L148">
+        <v>300</v>
+      </c>
+      <c r="M148">
+        <v>1000</v>
+      </c>
+      <c r="N148">
+        <v>1000</v>
+      </c>
+      <c r="O148">
+        <v>10</v>
+      </c>
+      <c r="P148">
+        <v>40</v>
+      </c>
+      <c r="Q148">
+        <v>9</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>1</v>
+      </c>
+      <c r="T148">
+        <v>350</v>
+      </c>
+      <c r="U148">
+        <v>1</v>
+      </c>
+      <c r="W148">
+        <v>100</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA148" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>448</v>
+      </c>
+      <c r="C149" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="C147" t="s">
-        <v>446</v>
-      </c>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="12" t="s">
+      <c r="D149" t="s">
+        <v>16</v>
+      </c>
+      <c r="E149" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s">
         <v>296</v>
       </c>
-      <c r="I147">
+      <c r="I149">
+        <v>0.4</v>
+      </c>
+      <c r="J149">
         <v>0.05</v>
       </c>
-      <c r="J147">
+      <c r="K149">
+        <v>5</v>
+      </c>
+      <c r="L149">
+        <v>300</v>
+      </c>
+      <c r="M149">
+        <v>1000</v>
+      </c>
+      <c r="N149">
+        <v>1000</v>
+      </c>
+      <c r="O149">
+        <v>10</v>
+      </c>
+      <c r="P149">
+        <v>40</v>
+      </c>
+      <c r="Q149">
+        <v>9</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>1</v>
+      </c>
+      <c r="T149">
+        <v>350</v>
+      </c>
+      <c r="U149">
+        <v>1</v>
+      </c>
+      <c r="W149">
+        <v>100</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA149" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>453</v>
+      </c>
+      <c r="C150" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="D150" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150" t="s">
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0.4</v>
+      </c>
+      <c r="J150">
+        <v>0.4</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>300</v>
+      </c>
+      <c r="M150">
+        <v>1000</v>
+      </c>
+      <c r="N150">
+        <v>1000</v>
+      </c>
+      <c r="O150">
+        <v>10</v>
+      </c>
+      <c r="P150">
+        <v>40</v>
+      </c>
+      <c r="Q150">
+        <v>9</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>1</v>
+      </c>
+      <c r="T150">
+        <v>350</v>
+      </c>
+      <c r="U150">
+        <v>1</v>
+      </c>
+      <c r="W150">
+        <v>100</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA150" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="C151" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H151" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I151" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="J151" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="K151" s="22">
+        <v>1</v>
+      </c>
+      <c r="L151" s="22">
+        <v>300</v>
+      </c>
+      <c r="M151" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N151" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O151" s="22">
+        <v>10</v>
+      </c>
+      <c r="P151" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q151" s="22">
+        <v>9</v>
+      </c>
+      <c r="R151" s="22">
+        <v>2</v>
+      </c>
+      <c r="S151" s="22">
+        <v>1</v>
+      </c>
+      <c r="T151" s="22">
+        <v>350</v>
+      </c>
+      <c r="U151" s="22">
+        <v>1</v>
+      </c>
+      <c r="W151" s="22">
+        <v>100</v>
+      </c>
+      <c r="X151" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z151" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA151" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>462</v>
+      </c>
+      <c r="C152" t="s">
+        <v>461</v>
+      </c>
+      <c r="H152" t="s">
+        <v>409</v>
+      </c>
+      <c r="I152">
         <v>0.05</v>
       </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-      <c r="L147">
-        <v>100</v>
-      </c>
-      <c r="M147">
-        <v>1000</v>
-      </c>
-      <c r="N147">
-        <v>1000</v>
-      </c>
-      <c r="O147">
+      <c r="J152">
+        <v>0.05</v>
+      </c>
+      <c r="K152">
+        <v>5</v>
+      </c>
+      <c r="L152">
+        <v>300</v>
+      </c>
+      <c r="M152">
+        <v>1000</v>
+      </c>
+      <c r="N152">
+        <v>1000</v>
+      </c>
+      <c r="O152">
         <v>10</v>
       </c>
-      <c r="P147">
+      <c r="P152">
         <v>40</v>
       </c>
-      <c r="Q147">
+      <c r="Q152">
         <v>9</v>
       </c>
-      <c r="R147">
+      <c r="R152">
         <v>2</v>
       </c>
-      <c r="S147">
-        <v>1</v>
-      </c>
-      <c r="T147">
+      <c r="S152">
+        <v>1</v>
+      </c>
+      <c r="T152">
         <v>350</v>
       </c>
-      <c r="U147">
-        <v>1</v>
-      </c>
-      <c r="W147">
-        <v>100</v>
-      </c>
-      <c r="X147">
-        <v>0</v>
-      </c>
-      <c r="Y147" t="s">
+      <c r="U152">
+        <v>1</v>
+      </c>
+      <c r="W152">
+        <v>100</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="s">
         <v>383</v>
       </c>
-      <c r="Z147" t="s">
+      <c r="Z152" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA152" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>460</v>
+      </c>
+      <c r="C153" t="s">
+        <v>459</v>
+      </c>
+      <c r="H153" t="s">
+        <v>414</v>
+      </c>
+      <c r="I153">
+        <v>0.05</v>
+      </c>
+      <c r="J153">
+        <v>0.05</v>
+      </c>
+      <c r="K153">
+        <v>5</v>
+      </c>
+      <c r="L153">
+        <v>300</v>
+      </c>
+      <c r="M153">
+        <v>1000</v>
+      </c>
+      <c r="N153">
+        <v>1000</v>
+      </c>
+      <c r="O153">
+        <v>10</v>
+      </c>
+      <c r="P153">
+        <v>40</v>
+      </c>
+      <c r="Q153">
+        <v>9</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>1</v>
+      </c>
+      <c r="T153">
+        <v>350</v>
+      </c>
+      <c r="U153">
+        <v>1</v>
+      </c>
+      <c r="W153">
+        <v>100</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>457</v>
+      </c>
+      <c r="C154" t="s">
+        <v>458</v>
+      </c>
+      <c r="H154" t="s">
+        <v>296</v>
+      </c>
+      <c r="I154">
+        <v>0.05</v>
+      </c>
+      <c r="J154">
+        <v>0.05</v>
+      </c>
+      <c r="K154">
+        <v>5</v>
+      </c>
+      <c r="L154">
+        <v>300</v>
+      </c>
+      <c r="M154">
+        <v>1000</v>
+      </c>
+      <c r="N154">
+        <v>1000</v>
+      </c>
+      <c r="O154">
+        <v>10</v>
+      </c>
+      <c r="P154">
+        <v>40</v>
+      </c>
+      <c r="Q154">
+        <v>9</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>1</v>
+      </c>
+      <c r="T154">
+        <v>350</v>
+      </c>
+      <c r="U154">
+        <v>1</v>
+      </c>
+      <c r="W154">
+        <v>100</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="H155" s="22">
+        <v>0</v>
+      </c>
+      <c r="I155" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J155" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K155" s="22">
+        <v>5</v>
+      </c>
+      <c r="L155" s="22">
+        <v>300</v>
+      </c>
+      <c r="M155" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N155" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O155" s="22">
+        <v>10</v>
+      </c>
+      <c r="P155" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q155" s="22">
+        <v>9</v>
+      </c>
+      <c r="R155" s="22">
+        <v>2</v>
+      </c>
+      <c r="S155" s="22">
+        <v>1</v>
+      </c>
+      <c r="T155" s="22">
+        <v>350</v>
+      </c>
+      <c r="U155" s="22">
+        <v>1</v>
+      </c>
+      <c r="W155" s="22">
+        <v>100</v>
+      </c>
+      <c r="X155" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y155" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z155" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA155" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>468</v>
+      </c>
+      <c r="C156" t="s">
+        <v>467</v>
+      </c>
+      <c r="H156" t="s">
+        <v>296</v>
+      </c>
+      <c r="I156">
+        <v>0.05</v>
+      </c>
+      <c r="J156">
+        <v>0.05</v>
+      </c>
+      <c r="K156">
+        <v>5</v>
+      </c>
+      <c r="L156" t="s">
+        <v>465</v>
+      </c>
+      <c r="M156">
+        <v>1000</v>
+      </c>
+      <c r="N156">
+        <v>1000</v>
+      </c>
+      <c r="O156" t="s">
+        <v>463</v>
+      </c>
+      <c r="P156" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q156">
+        <v>9</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>1</v>
+      </c>
+      <c r="T156">
+        <v>350</v>
+      </c>
+      <c r="U156">
+        <v>1</v>
+      </c>
+      <c r="W156">
+        <v>100</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z156" t="s">
         <v>360</v>
       </c>
-      <c r="AA147" t="s">
+      <c r="AA156" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="F151" s="26"/>
-    </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C156" t="s">
+      <c r="AB156" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="H157" s="22">
+        <v>0</v>
+      </c>
+      <c r="I157" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J157" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K157" s="22">
+        <v>5</v>
+      </c>
+      <c r="L157" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="M157" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N157" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O157" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="P157" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q157" s="22">
+        <v>9</v>
+      </c>
+      <c r="R157" s="22">
+        <v>2</v>
+      </c>
+      <c r="S157" s="22">
+        <v>1</v>
+      </c>
+      <c r="T157" s="22">
+        <v>350</v>
+      </c>
+      <c r="U157" s="22">
+        <v>1</v>
+      </c>
+      <c r="W157" s="22">
+        <v>100</v>
+      </c>
+      <c r="X157" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y157" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z157" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA157" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB157" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>473</v>
+      </c>
+      <c r="C158" t="s">
+        <v>471</v>
+      </c>
+      <c r="H158" t="s">
+        <v>414</v>
+      </c>
+      <c r="I158">
+        <v>0.05</v>
+      </c>
+      <c r="J158">
+        <v>0.05</v>
+      </c>
+      <c r="K158">
+        <v>5</v>
+      </c>
+      <c r="L158">
+        <v>500</v>
+      </c>
+      <c r="M158">
+        <v>1000</v>
+      </c>
+      <c r="N158">
+        <v>1000</v>
+      </c>
+      <c r="O158">
+        <v>10</v>
+      </c>
+      <c r="P158">
+        <v>40</v>
+      </c>
+      <c r="Q158">
+        <v>9</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>1</v>
+      </c>
+      <c r="T158">
+        <v>350</v>
+      </c>
+      <c r="U158">
+        <v>1</v>
+      </c>
+      <c r="W158">
+        <v>100</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>474</v>
+      </c>
+      <c r="C159" t="s">
+        <v>472</v>
+      </c>
+      <c r="H159" t="s">
+        <v>409</v>
+      </c>
+      <c r="I159">
+        <v>0.05</v>
+      </c>
+      <c r="J159">
+        <v>0.05</v>
+      </c>
+      <c r="K159">
+        <v>5</v>
+      </c>
+      <c r="L159">
+        <v>500</v>
+      </c>
+      <c r="M159">
+        <v>1000</v>
+      </c>
+      <c r="N159">
+        <v>1000</v>
+      </c>
+      <c r="O159">
+        <v>10</v>
+      </c>
+      <c r="P159">
+        <v>40</v>
+      </c>
+      <c r="Q159">
+        <v>9</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>1</v>
+      </c>
+      <c r="T159">
+        <v>350</v>
+      </c>
+      <c r="U159">
+        <v>1</v>
+      </c>
+      <c r="W159">
+        <v>100</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>477</v>
+      </c>
+      <c r="C160" t="s">
+        <v>475</v>
+      </c>
+      <c r="D160" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160" t="s">
+        <v>414</v>
+      </c>
+      <c r="I160">
+        <v>0.05</v>
+      </c>
+      <c r="J160">
+        <v>0.05</v>
+      </c>
+      <c r="K160">
+        <v>5</v>
+      </c>
+      <c r="L160">
+        <v>100</v>
+      </c>
+      <c r="M160">
+        <v>1000</v>
+      </c>
+      <c r="N160">
+        <v>1000</v>
+      </c>
+      <c r="O160">
+        <v>10</v>
+      </c>
+      <c r="P160">
+        <v>40</v>
+      </c>
+      <c r="Q160">
+        <v>9</v>
+      </c>
+      <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>1</v>
+      </c>
+      <c r="T160">
+        <v>350</v>
+      </c>
+      <c r="U160">
+        <v>1</v>
+      </c>
+      <c r="W160">
+        <v>100</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="161" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>478</v>
+      </c>
+      <c r="C161" t="s">
+        <v>476</v>
+      </c>
+      <c r="D161" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" t="s">
+        <v>16</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s">
+        <v>409</v>
+      </c>
+      <c r="I161">
+        <v>0.05</v>
+      </c>
+      <c r="J161">
+        <v>0.05</v>
+      </c>
+      <c r="K161">
+        <v>5</v>
+      </c>
+      <c r="L161">
+        <v>100</v>
+      </c>
+      <c r="M161">
+        <v>1000</v>
+      </c>
+      <c r="N161">
+        <v>1000</v>
+      </c>
+      <c r="O161">
+        <v>10</v>
+      </c>
+      <c r="P161">
+        <v>40</v>
+      </c>
+      <c r="Q161">
+        <v>9</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>1</v>
+      </c>
+      <c r="T161">
+        <v>350</v>
+      </c>
+      <c r="U161">
+        <v>1</v>
+      </c>
+      <c r="W161">
+        <v>100</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>482</v>
+      </c>
+      <c r="C162" t="s">
+        <v>479</v>
+      </c>
+      <c r="D162" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" t="s">
+        <v>16</v>
+      </c>
+      <c r="F162" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s">
+        <v>414</v>
+      </c>
+      <c r="I162">
+        <v>0.05</v>
+      </c>
+      <c r="J162">
+        <v>0.05</v>
+      </c>
+      <c r="K162">
+        <v>5</v>
+      </c>
+      <c r="L162">
+        <v>700</v>
+      </c>
+      <c r="M162">
+        <v>1000</v>
+      </c>
+      <c r="N162">
+        <v>1000</v>
+      </c>
+      <c r="O162">
+        <v>10</v>
+      </c>
+      <c r="P162">
+        <v>40</v>
+      </c>
+      <c r="Q162">
+        <v>9</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>1</v>
+      </c>
+      <c r="T162">
+        <v>350</v>
+      </c>
+      <c r="U162">
+        <v>1</v>
+      </c>
+      <c r="W162">
+        <v>100</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>481</v>
+      </c>
+      <c r="C163" t="s">
+        <v>480</v>
+      </c>
+      <c r="D163" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163" t="s">
+        <v>409</v>
+      </c>
+      <c r="I163">
+        <v>0.05</v>
+      </c>
+      <c r="J163">
+        <v>0.05</v>
+      </c>
+      <c r="K163">
+        <v>5</v>
+      </c>
+      <c r="L163">
+        <v>700</v>
+      </c>
+      <c r="M163">
+        <v>1000</v>
+      </c>
+      <c r="N163">
+        <v>1000</v>
+      </c>
+      <c r="O163">
+        <v>10</v>
+      </c>
+      <c r="P163">
+        <v>40</v>
+      </c>
+      <c r="Q163">
+        <v>9</v>
+      </c>
+      <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>1</v>
+      </c>
+      <c r="T163">
+        <v>350</v>
+      </c>
+      <c r="U163">
+        <v>1</v>
+      </c>
+      <c r="W163">
+        <v>100</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C157" t="s">
+    <row r="171" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C158" s="21" t="s">
+    <row r="172" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C172" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C159" t="s">
+    <row r="173" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C163" t="s">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C165" t="s">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
         <v>188</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H179" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C166" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C167" s="20" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C181" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C168" t="s">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C169" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
         <v>227</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B184" t="s">
         <v>226</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C184" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C171" s="8" t="s">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C185" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C172" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C173" t="s">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C174" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C177" t="s">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C178" t="s">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C179" t="s">
+    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C180" t="s">
+    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C181" t="s">
+    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C182" t="s">
+    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D184" s="6" t="s">
+    <row r="198" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D198" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D185" t="s">
+    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="186" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D186" s="7" t="s">
+    <row r="200" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D200" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="187" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D187" s="3" t="s">
+    <row r="201" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D201" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="188" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D188" s="3" t="s">
+    <row r="202" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D202" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="189" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D189" s="3" t="s">
+    <row r="203" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D203" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="190" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D190" s="3" t="s">
+    <row r="204" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D204" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D191" s="6" t="s">
+    <row r="205" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D205" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="192" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D192" s="3" t="s">
+    <row r="206" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D206" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="194" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D194" s="3" t="s">
+    <row r="208" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D208" s="3" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C158" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
+    <hyperlink ref="C172" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868D3F3-48DB-427C-A8B1-28AE22354467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477AED2F-0841-417D-A0CF-B6BF09E5A4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,12 +89,15 @@
     <author>tc={C025CFCF-4CCB-487A-951B-257E5FAF8F22}</author>
     <author>tc={4C5321BE-5A27-4A1C-A6CD-CA4BFD433842}</author>
     <author>tc={E9678F3C-7CE1-4A9A-894D-C964E07E6873}</author>
+    <author>tc={CA3EF922-965F-4EB6-A3E3-7559BF905CD5}</author>
     <author>tc={A53A6616-9F7B-4385-BCF4-E91C19A87DA7}</author>
     <author>tc={8D2DC832-E5E2-496E-9CB1-28BEB01C77E8}</author>
     <author>tc={DF608B31-6706-478F-93D2-885D006151AB}</author>
     <author>tc={EC1A40BB-1ADC-4813-8073-77E8ADC49A96}</author>
     <author>tc={FD5155F5-AA31-47DA-B9F6-3D2471FEEA34}</author>
     <author>tc={8B36E44F-4EF7-40F9-8BB2-8F3851006A51}</author>
+    <author>tc={B25E90D7-FF3C-4024-8C7B-EA52ACC26874}</author>
+    <author>tc={D2984361-F13F-469B-B1E2-0127DBB65D87}</author>
   </authors>
   <commentList>
     <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -724,7 +727,20 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H159" authorId="51" shapeId="0" xr:uid="{A53A6616-9F7B-4385-BCF4-E91C19A87DA7}">
+    <comment ref="B159" authorId="51" shapeId="0" xr:uid="{CA3EF922-965F-4EB6-A3E3-7559BF905CD5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Run 4 failed: rep 5, year 1: [1] "the number of offspring needed is 12"
+[1] "there are 12 babies added to the pop"
+Error in sample.int(length(x), size, replace, prob) :
+  negative probability
+Calls: RunModel -&gt; AgeDeath -&gt; sample -&gt; sample.int
+Execution halted</t>
+      </text>
+    </comment>
+    <comment ref="H159" authorId="52" shapeId="0" xr:uid="{A53A6616-9F7B-4385-BCF4-E91C19A87DA7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -737,7 +753,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="B160" authorId="52" shapeId="0" xr:uid="{8D2DC832-E5E2-496E-9CB1-28BEB01C77E8}">
+    <comment ref="B160" authorId="53" shapeId="0" xr:uid="{8D2DC832-E5E2-496E-9CB1-28BEB01C77E8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -749,7 +765,7 @@
     Technicallyyyyy these pops should probably crash at this point</t>
       </text>
     </comment>
-    <comment ref="H160" authorId="53" shapeId="0" xr:uid="{DF608B31-6706-478F-93D2-885D006151AB}">
+    <comment ref="H160" authorId="54" shapeId="0" xr:uid="{DF608B31-6706-478F-93D2-885D006151AB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -762,7 +778,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H161" authorId="54" shapeId="0" xr:uid="{EC1A40BB-1ADC-4813-8073-77E8ADC49A96}">
+    <comment ref="H161" authorId="55" shapeId="0" xr:uid="{EC1A40BB-1ADC-4813-8073-77E8ADC49A96}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -775,7 +791,7 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H162" authorId="55" shapeId="0" xr:uid="{FD5155F5-AA31-47DA-B9F6-3D2471FEEA34}">
+    <comment ref="H162" authorId="56" shapeId="0" xr:uid="{FD5155F5-AA31-47DA-B9F6-3D2471FEEA34}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -788,7 +804,33 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
-    <comment ref="H163" authorId="56" shapeId="0" xr:uid="{8B36E44F-4EF7-40F9-8BB2-8F3851006A51}">
+    <comment ref="H163" authorId="57" shapeId="0" xr:uid="{8B36E44F-4EF7-40F9-8BB2-8F3851006A51}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H164" authorId="58" shapeId="0" xr:uid="{B25E90D7-FF3C-4024-8C7B-EA52ACC26874}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H165" authorId="59" shapeId="0" xr:uid="{D2984361-F13F-469B-B1E2-0127DBB65D87}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -806,7 +848,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="487">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -2331,12 +2373,24 @@
   <si>
     <t>659024:659043</t>
   </si>
+  <si>
+    <t>cpfin_6.1.23_LL1b</t>
+  </si>
+  <si>
+    <t>669355:669359</t>
+  </si>
+  <si>
+    <t>cpfin_6.1.23_LL5c</t>
+  </si>
+  <si>
+    <t>671747:671751</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2445,14 +2499,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2525,18 +2573,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2560,7 +2596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2596,15 +2632,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3271,6 +3304,14 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
+  <threadedComment ref="B159" dT="2023-06-14T18:00:30.22" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{CA3EF922-965F-4EB6-A3E3-7559BF905CD5}">
+    <text>Run 4 failed: rep 5, year 1: [1] "the number of offspring needed is 12"
+[1] "there are 12 babies added to the pop"
+Error in sample.int(length(x), size, replace, prob) :
+  negative probability
+Calls: RunModel -&gt; AgeDeath -&gt; sample -&gt; sample.int
+Execution halted</text>
+  </threadedComment>
   <threadedComment ref="H159" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A53A6616-9F7B-4385-BCF4-E91C19A87DA7}">
     <text>A = 1 mig per gen
 b= 100 @ y=151
@@ -3319,6 +3360,22 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
+  <threadedComment ref="H164" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{B25E90D7-FF3C-4024-8C7B-EA52ACC26874}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H165" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{D2984361-F13F-469B-B1E2-0127DBB65D87}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -3327,8 +3384,8 @@
   <dimension ref="A1:AB208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H152" sqref="H152"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11519,8 +11576,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="30" t="s">
+    <row r="129" spans="1:27" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="28" t="s">
         <v>398</v>
       </c>
     </row>
@@ -11993,7 +12050,7 @@
       <c r="B136" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="C136" s="29" t="s">
+      <c r="C136" s="27" t="s">
         <v>415</v>
       </c>
       <c r="D136" s="22" t="s">
@@ -12150,19 +12207,19 @@
       <c r="B138" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="C138" s="32" t="s">
+      <c r="C138" s="31" t="s">
         <v>421</v>
       </c>
-      <c r="D138" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" s="33" t="s">
+      <c r="D138" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G138" s="30" t="s">
         <v>16</v>
       </c>
       <c r="H138" s="22" t="s">
@@ -12698,7 +12755,7 @@
       <c r="B145" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="C145" s="28" t="s">
+      <c r="C145" s="32" t="s">
         <v>439</v>
       </c>
       <c r="D145" t="s">
@@ -12772,7 +12829,7 @@
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
+      <c r="B146" s="14" t="s">
         <v>442</v>
       </c>
       <c r="C146" t="s">
@@ -12870,7 +12927,7 @@
       <c r="G147" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H147" s="31" t="s">
+      <c r="H147" s="29" t="s">
         <v>296</v>
       </c>
       <c r="I147" s="22">
@@ -12932,7 +12989,7 @@
       <c r="B148" t="s">
         <v>449</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="8" t="s">
         <v>446</v>
       </c>
       <c r="D148" t="s">
@@ -13009,7 +13066,7 @@
       <c r="B149" t="s">
         <v>448</v>
       </c>
-      <c r="C149" s="27" t="s">
+      <c r="C149" s="8" t="s">
         <v>447</v>
       </c>
       <c r="D149" t="s">
@@ -13086,7 +13143,7 @@
       <c r="B150" t="s">
         <v>453</v>
       </c>
-      <c r="C150" s="34" t="s">
+      <c r="C150" s="8" t="s">
         <v>450</v>
       </c>
       <c r="D150" t="s">
@@ -13163,7 +13220,7 @@
       <c r="B151" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="C151" s="35" t="s">
+      <c r="C151" s="31" t="s">
         <v>451</v>
       </c>
       <c r="D151" s="22" t="s">
@@ -13243,6 +13300,18 @@
       <c r="C152" t="s">
         <v>461</v>
       </c>
+      <c r="D152" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>16</v>
+      </c>
       <c r="H152" t="s">
         <v>409</v>
       </c>
@@ -13308,6 +13377,18 @@
       <c r="C153" t="s">
         <v>459</v>
       </c>
+      <c r="D153" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" t="s">
+        <v>16</v>
+      </c>
+      <c r="F153" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>16</v>
+      </c>
       <c r="H153" t="s">
         <v>414</v>
       </c>
@@ -13373,6 +13454,18 @@
       <c r="C154" t="s">
         <v>458</v>
       </c>
+      <c r="D154" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>16</v>
+      </c>
       <c r="H154" t="s">
         <v>296</v>
       </c>
@@ -13438,6 +13531,18 @@
       <c r="C155" s="22" t="s">
         <v>455</v>
       </c>
+      <c r="D155" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="H155" s="22">
         <v>0</v>
       </c>
@@ -13503,6 +13608,18 @@
       <c r="C156" t="s">
         <v>467</v>
       </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>16</v>
+      </c>
       <c r="H156" t="s">
         <v>296</v>
       </c>
@@ -13571,6 +13688,18 @@
       <c r="C157" s="22" t="s">
         <v>469</v>
       </c>
+      <c r="D157" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="H157" s="22">
         <v>0</v>
       </c>
@@ -13639,6 +13768,18 @@
       <c r="C158" t="s">
         <v>471</v>
       </c>
+      <c r="D158" t="s">
+        <v>16</v>
+      </c>
+      <c r="E158" t="s">
+        <v>16</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>16</v>
+      </c>
       <c r="H158" t="s">
         <v>414</v>
       </c>
@@ -13698,12 +13839,24 @@
       </c>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B159" t="s">
+      <c r="B159" s="14" t="s">
         <v>474</v>
       </c>
       <c r="C159" t="s">
         <v>472</v>
       </c>
+      <c r="D159" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F159" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="H159" t="s">
         <v>409</v>
       </c>
@@ -13763,7 +13916,7 @@
       </c>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="B160" t="s">
+      <c r="B160" s="14" t="s">
         <v>477</v>
       </c>
       <c r="C160" t="s">
@@ -13993,80 +14146,234 @@
         <v>384</v>
       </c>
     </row>
-    <row r="163" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B163" t="s">
+    <row r="163" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="D163" t="s">
-        <v>16</v>
-      </c>
-      <c r="E163" t="s">
-        <v>16</v>
-      </c>
-      <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s">
-        <v>16</v>
-      </c>
-      <c r="H163" t="s">
+      <c r="D163" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H163" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="22">
         <v>0.05</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="22">
         <v>0.05</v>
       </c>
-      <c r="K163">
+      <c r="K163" s="22">
         <v>5</v>
       </c>
-      <c r="L163">
+      <c r="L163" s="22">
         <v>700</v>
       </c>
-      <c r="M163">
-        <v>1000</v>
-      </c>
-      <c r="N163">
-        <v>1000</v>
-      </c>
-      <c r="O163">
+      <c r="M163" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N163" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O163" s="22">
         <v>10</v>
       </c>
-      <c r="P163">
+      <c r="P163" s="22">
         <v>40</v>
       </c>
-      <c r="Q163">
+      <c r="Q163" s="22">
         <v>9</v>
       </c>
-      <c r="R163">
+      <c r="R163" s="22">
         <v>2</v>
       </c>
-      <c r="S163">
-        <v>1</v>
-      </c>
-      <c r="T163">
+      <c r="S163" s="22">
+        <v>1</v>
+      </c>
+      <c r="T163" s="22">
         <v>350</v>
       </c>
-      <c r="U163">
-        <v>1</v>
-      </c>
-      <c r="W163">
-        <v>100</v>
-      </c>
-      <c r="X163">
-        <v>0</v>
-      </c>
-      <c r="Y163" t="s">
+      <c r="U163" s="22">
+        <v>1</v>
+      </c>
+      <c r="W163" s="22">
+        <v>100</v>
+      </c>
+      <c r="X163" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y163" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="Z163" t="s">
+      <c r="Z163" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="AA163" t="s">
+      <c r="AA163" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="164" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>484</v>
+      </c>
+      <c r="C164" t="s">
+        <v>483</v>
+      </c>
+      <c r="D164" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" t="s">
+        <v>414</v>
+      </c>
+      <c r="I164">
+        <v>0.05</v>
+      </c>
+      <c r="J164">
+        <v>0.05</v>
+      </c>
+      <c r="K164">
+        <v>5</v>
+      </c>
+      <c r="L164">
+        <v>100</v>
+      </c>
+      <c r="M164">
+        <v>1000</v>
+      </c>
+      <c r="N164">
+        <v>1000</v>
+      </c>
+      <c r="O164">
+        <v>10</v>
+      </c>
+      <c r="P164">
+        <v>40</v>
+      </c>
+      <c r="Q164">
+        <v>9</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>1</v>
+      </c>
+      <c r="T164">
+        <v>350</v>
+      </c>
+      <c r="U164">
+        <v>1</v>
+      </c>
+      <c r="W164">
+        <v>100</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="165" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>486</v>
+      </c>
+      <c r="C165" t="s">
+        <v>485</v>
+      </c>
+      <c r="D165" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" t="s">
+        <v>16</v>
+      </c>
+      <c r="H165" t="s">
+        <v>409</v>
+      </c>
+      <c r="I165">
+        <v>0.05</v>
+      </c>
+      <c r="J165">
+        <v>0.05</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>500</v>
+      </c>
+      <c r="M165">
+        <v>1000</v>
+      </c>
+      <c r="N165">
+        <v>1000</v>
+      </c>
+      <c r="O165">
+        <v>10</v>
+      </c>
+      <c r="P165">
+        <v>40</v>
+      </c>
+      <c r="Q165">
+        <v>9</v>
+      </c>
+      <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>1</v>
+      </c>
+      <c r="T165">
+        <v>350</v>
+      </c>
+      <c r="U165">
+        <v>1</v>
+      </c>
+      <c r="W165">
+        <v>100</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA165" t="s">
         <v>384</v>
       </c>
     </row>

--- a/Archive/ABM Runs.xlsx
+++ b/Archive/ABM Runs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginab\Box\New Computer\Auburn\Data\ComplexModel_ABM\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477AED2F-0841-417D-A0CF-B6BF09E5A4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179545F-E204-4337-9E93-9D4C91129D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -98,6 +99,46 @@
     <author>tc={8B36E44F-4EF7-40F9-8BB2-8F3851006A51}</author>
     <author>tc={B25E90D7-FF3C-4024-8C7B-EA52ACC26874}</author>
     <author>tc={D2984361-F13F-469B-B1E2-0127DBB65D87}</author>
+    <author>tc={3090656F-DDA7-467E-8B6F-8789C89F58CA}</author>
+    <author>tc={7B1500BC-F541-407D-97F0-6C0D03627AE1}</author>
+    <author>tc={BAA31817-EAC8-4F5E-BC03-46CBE1BE9228}</author>
+    <author>tc={2A6EDDAA-3111-42C7-8497-86E1B37E17FA}</author>
+    <author>tc={12DF5D79-A07E-481B-8E6E-70672A6B4324}</author>
+    <author>tc={F309F0DE-3199-4E63-A503-3A5DB1CCAE81}</author>
+    <author>tc={87F8F7F6-D6DF-4EAC-A492-BC4B01D175F4}</author>
+    <author>tc={DA037A73-0CEA-4466-9367-C518395BF34E}</author>
+    <author>tc={4355BEFD-D19F-4C0A-A9E0-892AB96FBA62}</author>
+    <author>tc={BBD32FE6-6008-44B1-800D-5FB543C5BD50}</author>
+    <author>tc={D11DEF16-3D72-4CA6-8ADD-398796FE16A8}</author>
+    <author>tc={8DBA1E78-F9D3-45D8-AFD5-E10CE4FAF0B9}</author>
+    <author>tc={FC7032BC-CE89-447D-88CA-C3CD2FB16213}</author>
+    <author>tc={256E817F-CF21-4C20-B0DE-95ECC78BA9D4}</author>
+    <author>tc={8C0C60CD-2FFC-416C-88D6-E4416022371E}</author>
+    <author>tc={5DE256C6-C31F-4605-A18D-2BE29D766566}</author>
+    <author>tc={A42173E6-84D0-46C7-B378-8634718C2FC8}</author>
+    <author>tc={EBF43E29-75DA-480E-BBE5-B12D156F4C90}</author>
+    <author>tc={6C977184-882A-441A-AE0B-68A20136A079}</author>
+    <author>tc={ED91EFEA-F400-49F6-85FB-42D020B71268}</author>
+    <author>tc={EBAC87DC-D6FE-4071-AAE6-0C36885047E2}</author>
+    <author>tc={8C4EA953-475C-4BBB-9B78-DAFADCFDBEFA}</author>
+    <author>tc={2FEBDDD9-921D-4287-8219-55D25EFC68AD}</author>
+    <author>tc={0E67955F-4ADE-4A4F-BAF9-F1899691263A}</author>
+    <author>tc={963825C3-BD84-4CE4-88BF-AA168CC7DAC9}</author>
+    <author>tc={44A9303A-88D5-4BB8-9879-72F5FB7F39F1}</author>
+    <author>tc={09306D4D-E8BF-4998-9564-E7BA359D5135}</author>
+    <author>tc={515314A8-BFD2-41C1-90E5-88B3BF915352}</author>
+    <author>tc={EBE5ABD0-D0E0-4D98-8775-45A40346A5B8}</author>
+    <author>tc={45EB5FC7-B067-4E16-BC88-2FE18DB32EE9}</author>
+    <author>tc={D7E8C1D8-0A1A-4552-9BE2-DF2C70622C4F}</author>
+    <author>tc={A6232F6B-D4D4-4C06-A077-77622943784A}</author>
+    <author>tc={202159C9-01FE-40D8-BC35-E4387FDA6974}</author>
+    <author>tc={48FED36A-64A0-4E6E-B2FC-4DCB941E833D}</author>
+    <author>tc={98B014DF-78D4-4975-90B9-78901C25281F}</author>
+    <author>tc={68770FB5-ABB7-45E1-969B-1AB4920C0364}</author>
+    <author>tc={96A288A9-00D2-44F1-81EB-075B4A2B779B}</author>
+    <author>tc={70261BF8-3B60-447F-82FE-F3F6F24265EF}</author>
+    <author>tc={D4B85581-504C-45FC-83BB-050D16433043}</author>
+    <author>tc={0CC2D386-04EA-4FB3-8FC0-C44B9D3B579B}</author>
   </authors>
   <commentList>
     <comment ref="L29" authorId="0" shapeId="0" xr:uid="{CFC0881D-C570-4D60-B8C1-048EFA885EF5}">
@@ -843,12 +884,522 @@
 f= 25 @ y=125, 140, 155, 170</t>
       </text>
     </comment>
+    <comment ref="H170" authorId="60" shapeId="0" xr:uid="{3090656F-DDA7-467E-8B6F-8789C89F58CA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H171" authorId="61" shapeId="0" xr:uid="{7B1500BC-F541-407D-97F0-6C0D03627AE1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H172" authorId="62" shapeId="0" xr:uid="{BAA31817-EAC8-4F5E-BC03-46CBE1BE9228}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H173" authorId="63" shapeId="0" xr:uid="{2A6EDDAA-3111-42C7-8497-86E1B37E17FA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H174" authorId="64" shapeId="0" xr:uid="{12DF5D79-A07E-481B-8E6E-70672A6B4324}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H175" authorId="65" shapeId="0" xr:uid="{F309F0DE-3199-4E63-A503-3A5DB1CCAE81}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H176" authorId="66" shapeId="0" xr:uid="{87F8F7F6-D6DF-4EAC-A492-BC4B01D175F4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H177" authorId="67" shapeId="0" xr:uid="{DA037A73-0CEA-4466-9367-C518395BF34E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H178" authorId="68" shapeId="0" xr:uid="{4355BEFD-D19F-4C0A-A9E0-892AB96FBA62}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H179" authorId="69" shapeId="0" xr:uid="{BBD32FE6-6008-44B1-800D-5FB543C5BD50}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H180" authorId="70" shapeId="0" xr:uid="{D11DEF16-3D72-4CA6-8ADD-398796FE16A8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H181" authorId="71" shapeId="0" xr:uid="{8DBA1E78-F9D3-45D8-AFD5-E10CE4FAF0B9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H182" authorId="72" shapeId="0" xr:uid="{FC7032BC-CE89-447D-88CA-C3CD2FB16213}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H183" authorId="73" shapeId="0" xr:uid="{256E817F-CF21-4C20-B0DE-95ECC78BA9D4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H184" authorId="74" shapeId="0" xr:uid="{8C0C60CD-2FFC-416C-88D6-E4416022371E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="B185" authorId="75" shapeId="0" xr:uid="{5DE256C6-C31F-4605-A18D-2BE29D766566}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    750890:750909 canceled due to mistype in runmodel.sh</t>
+      </text>
+    </comment>
+    <comment ref="H185" authorId="76" shapeId="0" xr:uid="{A42173E6-84D0-46C7-B378-8634718C2FC8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H186" authorId="77" shapeId="0" xr:uid="{EBF43E29-75DA-480E-BBE5-B12D156F4C90}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H187" authorId="78" shapeId="0" xr:uid="{6C977184-882A-441A-AE0B-68A20136A079}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H188" authorId="79" shapeId="0" xr:uid="{ED91EFEA-F400-49F6-85FB-42D020B71268}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H189" authorId="80" shapeId="0" xr:uid="{EBAC87DC-D6FE-4071-AAE6-0C36885047E2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H190" authorId="81" shapeId="0" xr:uid="{8C4EA953-475C-4BBB-9B78-DAFADCFDBEFA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H191" authorId="82" shapeId="0" xr:uid="{2FEBDDD9-921D-4287-8219-55D25EFC68AD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H192" authorId="83" shapeId="0" xr:uid="{0E67955F-4ADE-4A4F-BAF9-F1899691263A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H193" authorId="84" shapeId="0" xr:uid="{963825C3-BD84-4CE4-88BF-AA168CC7DAC9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H194" authorId="85" shapeId="0" xr:uid="{44A9303A-88D5-4BB8-9879-72F5FB7F39F1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H195" authorId="86" shapeId="0" xr:uid="{09306D4D-E8BF-4998-9564-E7BA359D5135}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H196" authorId="87" shapeId="0" xr:uid="{515314A8-BFD2-41C1-90E5-88B3BF915352}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="B197" authorId="88" shapeId="0" xr:uid="{EBE5ABD0-D0E0-4D98-8775-45A40346A5B8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    757600:757619 canceled due to mistype</t>
+      </text>
+    </comment>
+    <comment ref="H197" authorId="89" shapeId="0" xr:uid="{45EB5FC7-B067-4E16-BC88-2FE18DB32EE9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H198" authorId="90" shapeId="0" xr:uid="{D7E8C1D8-0A1A-4552-9BE2-DF2C70622C4F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H199" authorId="91" shapeId="0" xr:uid="{A6232F6B-D4D4-4C06-A077-77622943784A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H200" authorId="92" shapeId="0" xr:uid="{202159C9-01FE-40D8-BC35-E4387FDA6974}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H201" authorId="93" shapeId="0" xr:uid="{48FED36A-64A0-4E6E-B2FC-4DCB941E833D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H202" authorId="94" shapeId="0" xr:uid="{98B014DF-78D4-4975-90B9-78901C25281F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H203" authorId="95" shapeId="0" xr:uid="{68770FB5-ABB7-45E1-969B-1AB4920C0364}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H205" authorId="96" shapeId="0" xr:uid="{96A288A9-00D2-44F1-81EB-075B4A2B779B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H206" authorId="97" shapeId="0" xr:uid="{70261BF8-3B60-447F-82FE-F3F6F24265EF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H207" authorId="98" shapeId="0" xr:uid="{D4B85581-504C-45FC-83BB-050D16433043}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
+    <comment ref="H208" authorId="99" shapeId="0" xr:uid="{0CC2D386-04EA-4FB3-8FC0-C44B9D3B579B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="592">
   <si>
     <t>ABM_run.10.12.22_b_</t>
   </si>
@@ -2384,6 +2935,340 @@
   </si>
   <si>
     <t>671747:671751</t>
+  </si>
+  <si>
+    <t>fin_9.8.23_LL30m</t>
+  </si>
+  <si>
+    <t>fin_9.8.23_LL3am</t>
+  </si>
+  <si>
+    <t>mutate OFF</t>
+  </si>
+  <si>
+    <t>1 rep cuz of maintenance. Running to see if my mu is hella too high.</t>
+  </si>
+  <si>
+    <t>746572:746591</t>
+  </si>
+  <si>
+    <t>746592:746611</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL30</t>
+  </si>
+  <si>
+    <t>mu = 0.00000001</t>
+  </si>
+  <si>
+    <t>750441:750460</t>
+  </si>
+  <si>
+    <t>750461:750480</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL3a</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL3b</t>
+  </si>
+  <si>
+    <t>750481:750500</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL3c</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL3d</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL3e</t>
+  </si>
+  <si>
+    <t>750504:750523</t>
+  </si>
+  <si>
+    <t>750525:750544</t>
+  </si>
+  <si>
+    <t>750546:750565</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL3f</t>
+  </si>
+  <si>
+    <t>750570:750589</t>
+  </si>
+  <si>
+    <t>end_9.18.23_HH30</t>
+  </si>
+  <si>
+    <t>end_9.18.23_HH3a</t>
+  </si>
+  <si>
+    <t>750598:750617</t>
+  </si>
+  <si>
+    <t>750618:750637</t>
+  </si>
+  <si>
+    <t>end_9.18.23_HL30</t>
+  </si>
+  <si>
+    <t>end_9.18.23_HL3a</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LH30</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LH3a</t>
+  </si>
+  <si>
+    <t>750639:750658</t>
+  </si>
+  <si>
+    <t>750660:750679</t>
+  </si>
+  <si>
+    <t>750682:750701</t>
+  </si>
+  <si>
+    <t>750702:750721</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL10</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL1a</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL1b</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL1c</t>
+  </si>
+  <si>
+    <t>750849:750868</t>
+  </si>
+  <si>
+    <t>750870:750889</t>
+  </si>
+  <si>
+    <t>750910:750929</t>
+  </si>
+  <si>
+    <t>750931:750950</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL70</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL7a</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL7b</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL7c</t>
+  </si>
+  <si>
+    <t>750958:750977</t>
+  </si>
+  <si>
+    <t>750978:750997</t>
+  </si>
+  <si>
+    <t>750999:751018</t>
+  </si>
+  <si>
+    <t>751019:751038</t>
+  </si>
+  <si>
+    <t>end_9.18.23_nbtl3a</t>
+  </si>
+  <si>
+    <t>end_9.18.23_nbtl30</t>
+  </si>
+  <si>
+    <t>751040:751059</t>
+  </si>
+  <si>
+    <t>751060:751079</t>
+  </si>
+  <si>
+    <t>751087:751106</t>
+  </si>
+  <si>
+    <t>751107:751126</t>
+  </si>
+  <si>
+    <t>751127:751146</t>
+  </si>
+  <si>
+    <t>751149:751168</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL3c.</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL3b.</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL3a.</t>
+  </si>
+  <si>
+    <t>end_9.18.23_LL30.</t>
+  </si>
+  <si>
+    <t>end_9.27.23_LH3a</t>
+  </si>
+  <si>
+    <t>757622:757641</t>
+  </si>
+  <si>
+    <t>757652:757671</t>
+  </si>
+  <si>
+    <t>end_9.27.23_LH30</t>
+  </si>
+  <si>
+    <t>end_9.27.23_HL30</t>
+  </si>
+  <si>
+    <t>757672:757691</t>
+  </si>
+  <si>
+    <t>757692:757711</t>
+  </si>
+  <si>
+    <t>many failed</t>
+  </si>
+  <si>
+    <t>end_10.2.23_LL10</t>
+  </si>
+  <si>
+    <t>760212:760231</t>
+  </si>
+  <si>
+    <t>end_10.2.23_LL1b</t>
+  </si>
+  <si>
+    <t>end_10.2.23_LL1c</t>
+  </si>
+  <si>
+    <t>760233:760252</t>
+  </si>
+  <si>
+    <t>760254:760273</t>
+  </si>
+  <si>
+    <t>these next ones are just in case!</t>
+  </si>
+  <si>
+    <t>end_10.4.23_LL10</t>
+  </si>
+  <si>
+    <t>end_10.4.23_LL1b</t>
+  </si>
+  <si>
+    <t>end_10.4.23_LL1c</t>
+  </si>
+  <si>
+    <t>762162:762181</t>
+  </si>
+  <si>
+    <t>762182:762201</t>
+  </si>
+  <si>
+    <t>762203:762222</t>
+  </si>
+  <si>
+    <t>end_10.4.23_LL10c</t>
+  </si>
+  <si>
+    <t>762225:762244</t>
+  </si>
+  <si>
+    <t>end_9.27.23_HL3a</t>
+  </si>
+  <si>
+    <t>2, 5, 7, 8, 15, 19</t>
+  </si>
+  <si>
+    <t>1, 2, 5, 6, 7, 15</t>
+  </si>
+  <si>
+    <t>6, 13, 14, 17, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>errors</t>
+  </si>
+  <si>
+    <t>[1] "The next generation's population size will be 18 K is 100 k is 1000"
+[1] "the number of offspring needed is 6"
+[1] "there are 3 babies added to the pop"
+[1] "killed 3 individuals"
+[1] "DONE! 132 param 1 rep 1"
+[1] "killed 0 individuals"
+[1] "the sex ratio is 0.75"
+[1] "there are 3 pairs"
+[1] "The next generation's population size will be 20 K is 100 k is 1000"
+[1] "the number of offspring needed is 8"
+[1] "there are 3 babies added to the pop"
+[1] "killed 2 individuals"
+[1] "DONE! 133 param 1 rep 1"
+[1] "killed 2 individuals"
+[1] "the sex ratio is 0.875"
+[1] "there are 1 pairs"
+[1] "The next generation's population size will be 11 K is 100 k is 1000"
+[1] "the number of offspring needed is 3"
+Error in parents[n, , drop = FALSE] : subscript out of bounds
+Calls: RunModel -&gt; Breed</t>
+  </si>
+  <si>
+    <t>[1] "The next generation's population size will be 20 K is 100 k is 1000"</t>
+  </si>
+  <si>
+    <t>[1] "the number of offspring needed is 5"</t>
+  </si>
+  <si>
+    <t>[1] "there are 3 babies added to the pop"</t>
+  </si>
+  <si>
+    <t>[1] "killed 4 individuals"</t>
+  </si>
+  <si>
+    <t>[1] "DONE! 125 param 1 rep 1"</t>
+  </si>
+  <si>
+    <t>[1] "Cleaning up dead!"</t>
+  </si>
+  <si>
+    <t>[1] "killed 0 individuals"</t>
+  </si>
+  <si>
+    <t>[1] "the sex ratio is 0.857142857142857"</t>
+  </si>
+  <si>
+    <t>[1] "there are 2 pairs"</t>
+  </si>
+  <si>
+    <t>[1] "the number of offspring needed is 6"</t>
+  </si>
+  <si>
+    <t>Error in parents[n, , drop = FALSE] : subscript out of bounds</t>
+  </si>
+  <si>
+    <t>Calls: RunModel -&gt; Breed</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 8, 10, 11, 12, 13, 16</t>
+  </si>
+  <si>
+    <t>6, 8, 9, 18, 19</t>
+  </si>
+  <si>
+    <t>3, 5, 6, 9, 16, 19, 20</t>
   </si>
 </sst>
 </file>
@@ -2500,7 +3385,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2573,8 +3458,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2591,12 +3488,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2638,6 +3546,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3376,20 +4293,331 @@
 e= 100 @ y=125
 f= 25 @ y=125, 140, 155, 170</text>
   </threadedComment>
+  <threadedComment ref="H170" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{3090656F-DDA7-467E-8B6F-8789C89F58CA}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H171" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{7B1500BC-F541-407D-97F0-6C0D03627AE1}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H172" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{BAA31817-EAC8-4F5E-BC03-46CBE1BE9228}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H173" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{2A6EDDAA-3111-42C7-8497-86E1B37E17FA}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H174" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{12DF5D79-A07E-481B-8E6E-70672A6B4324}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H175" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{F309F0DE-3199-4E63-A503-3A5DB1CCAE81}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H176" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{87F8F7F6-D6DF-4EAC-A492-BC4B01D175F4}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H177" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{DA037A73-0CEA-4466-9367-C518395BF34E}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H178" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{4355BEFD-D19F-4C0A-A9E0-892AB96FBA62}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H179" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{BBD32FE6-6008-44B1-800D-5FB543C5BD50}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H180" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{D11DEF16-3D72-4CA6-8ADD-398796FE16A8}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H181" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{8DBA1E78-F9D3-45D8-AFD5-E10CE4FAF0B9}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H182" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{FC7032BC-CE89-447D-88CA-C3CD2FB16213}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H183" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{256E817F-CF21-4C20-B0DE-95ECC78BA9D4}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H184" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{8C0C60CD-2FFC-416C-88D6-E4416022371E}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="B185" dT="2023-09-18T19:52:21.26" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{5DE256C6-C31F-4605-A18D-2BE29D766566}">
+    <text>750890:750909 canceled due to mistype in runmodel.sh</text>
+  </threadedComment>
+  <threadedComment ref="H185" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A42173E6-84D0-46C7-B378-8634718C2FC8}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H186" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{EBF43E29-75DA-480E-BBE5-B12D156F4C90}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H187" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{6C977184-882A-441A-AE0B-68A20136A079}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H188" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{ED91EFEA-F400-49F6-85FB-42D020B71268}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H189" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{EBAC87DC-D6FE-4071-AAE6-0C36885047E2}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H190" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{8C4EA953-475C-4BBB-9B78-DAFADCFDBEFA}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H191" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{2FEBDDD9-921D-4287-8219-55D25EFC68AD}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H192" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{0E67955F-4ADE-4A4F-BAF9-F1899691263A}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H193" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{963825C3-BD84-4CE4-88BF-AA168CC7DAC9}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H194" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{44A9303A-88D5-4BB8-9879-72F5FB7F39F1}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H195" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{09306D4D-E8BF-4998-9564-E7BA359D5135}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H196" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{515314A8-BFD2-41C1-90E5-88B3BF915352}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="B197" dT="2023-09-27T21:52:50.68" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{EBE5ABD0-D0E0-4D98-8775-45A40346A5B8}">
+    <text>757600:757619 canceled due to mistype</text>
+  </threadedComment>
+  <threadedComment ref="H197" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{45EB5FC7-B067-4E16-BC88-2FE18DB32EE9}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H198" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{D7E8C1D8-0A1A-4552-9BE2-DF2C70622C4F}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H199" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{A6232F6B-D4D4-4C06-A077-77622943784A}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H200" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{202159C9-01FE-40D8-BC35-E4387FDA6974}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H201" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{48FED36A-64A0-4E6E-B2FC-4DCB941E833D}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H202" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{98B014DF-78D4-4975-90B9-78901C25281F}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H203" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{68770FB5-ABB7-45E1-969B-1AB4920C0364}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H205" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{96A288A9-00D2-44F1-81EB-075B4A2B779B}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H206" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{70261BF8-3B60-447F-82FE-F3F6F24265EF}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H207" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{D4B85581-504C-45FC-83BB-050D16433043}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
+  <threadedComment ref="H208" dT="2023-05-02T16:25:06.05" personId="{84F4058D-3156-4278-BCDB-0417AD55C0CC}" id="{0CC2D386-04EA-4FB3-8FC0-C44B9D3B579B}">
+    <text>A = 1 mig per gen
+b= 100 @ y=151
+c= 25 @y=151,165,181,195
+d= 1 mig wheny &gt;= edyr + dur+1
+e= 100 @ y=125
+f= 25 @ y=125, 140, 155, 170</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB208"/>
+  <dimension ref="A1:AB258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B160" sqref="B160"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.77734375" customWidth="1"/>
@@ -13992,7 +15220,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="161" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
         <v>478</v>
       </c>
@@ -14069,7 +15297,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="162" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
         <v>482</v>
       </c>
@@ -14146,7 +15374,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="163" spans="2:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B163" s="22" t="s">
         <v>481</v>
       </c>
@@ -14223,7 +15451,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="164" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>484</v>
       </c>
@@ -14300,7 +15528,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="165" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>486</v>
       </c>
@@ -14377,177 +15605,3245 @@
         <v>384</v>
       </c>
     </row>
-    <row r="170" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" s="33" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>490</v>
+      </c>
+      <c r="B167" t="s">
+        <v>491</v>
+      </c>
+      <c r="C167" t="s">
+        <v>487</v>
+      </c>
+      <c r="D167" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" t="s">
+        <v>16</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>16</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0.05</v>
+      </c>
+      <c r="J167">
+        <v>0.05</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>300</v>
+      </c>
+      <c r="M167">
+        <v>1000</v>
+      </c>
+      <c r="N167">
+        <v>1000</v>
+      </c>
+      <c r="O167">
+        <v>10</v>
+      </c>
+      <c r="P167">
+        <v>40</v>
+      </c>
+      <c r="Q167">
+        <v>9</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>1</v>
+      </c>
+      <c r="T167">
+        <v>350</v>
+      </c>
+      <c r="U167">
+        <v>1</v>
+      </c>
+      <c r="W167">
+        <v>100</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>492</v>
+      </c>
+      <c r="C168" t="s">
+        <v>488</v>
+      </c>
+      <c r="D168" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s">
+        <v>296</v>
+      </c>
+      <c r="I168">
+        <v>0.05</v>
+      </c>
+      <c r="J168">
+        <v>0.05</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>300</v>
+      </c>
+      <c r="M168">
+        <v>1000</v>
+      </c>
+      <c r="N168">
+        <v>1000</v>
+      </c>
+      <c r="O168">
+        <v>10</v>
+      </c>
+      <c r="P168">
+        <v>40</v>
+      </c>
+      <c r="Q168">
+        <v>9</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>1</v>
+      </c>
+      <c r="T168">
+        <v>350</v>
+      </c>
+      <c r="U168">
+        <v>1</v>
+      </c>
+      <c r="W168">
+        <v>100</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="34" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>495</v>
+      </c>
       <c r="C170" t="s">
+        <v>493</v>
+      </c>
+      <c r="D170" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" t="s">
+        <v>16</v>
+      </c>
+      <c r="F170" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0.05</v>
+      </c>
+      <c r="J170">
+        <v>0.05</v>
+      </c>
+      <c r="K170">
+        <v>5</v>
+      </c>
+      <c r="L170">
+        <v>300</v>
+      </c>
+      <c r="M170">
+        <v>1000</v>
+      </c>
+      <c r="N170">
+        <v>1000</v>
+      </c>
+      <c r="O170">
+        <v>10</v>
+      </c>
+      <c r="P170">
+        <v>40</v>
+      </c>
+      <c r="Q170">
+        <v>9</v>
+      </c>
+      <c r="R170">
+        <v>2</v>
+      </c>
+      <c r="S170">
+        <v>1</v>
+      </c>
+      <c r="T170">
+        <v>350</v>
+      </c>
+      <c r="U170">
+        <v>1</v>
+      </c>
+      <c r="W170">
+        <v>100</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>496</v>
+      </c>
+      <c r="C171" t="s">
+        <v>497</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" t="s">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s">
+        <v>296</v>
+      </c>
+      <c r="I171">
+        <v>0.05</v>
+      </c>
+      <c r="J171">
+        <v>0.05</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+      <c r="L171">
+        <v>300</v>
+      </c>
+      <c r="M171">
+        <v>1000</v>
+      </c>
+      <c r="N171">
+        <v>1000</v>
+      </c>
+      <c r="O171">
+        <v>10</v>
+      </c>
+      <c r="P171">
+        <v>40</v>
+      </c>
+      <c r="Q171">
+        <v>9</v>
+      </c>
+      <c r="R171">
+        <v>2</v>
+      </c>
+      <c r="S171">
+        <v>1</v>
+      </c>
+      <c r="T171">
+        <v>350</v>
+      </c>
+      <c r="U171">
+        <v>1</v>
+      </c>
+      <c r="W171">
+        <v>100</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>499</v>
+      </c>
+      <c r="C172" t="s">
+        <v>498</v>
+      </c>
+      <c r="D172" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>16</v>
+      </c>
+      <c r="H172" t="s">
+        <v>414</v>
+      </c>
+      <c r="I172">
+        <v>0.05</v>
+      </c>
+      <c r="J172">
+        <v>0.05</v>
+      </c>
+      <c r="K172">
+        <v>5</v>
+      </c>
+      <c r="L172">
+        <v>300</v>
+      </c>
+      <c r="M172">
+        <v>1000</v>
+      </c>
+      <c r="N172">
+        <v>1000</v>
+      </c>
+      <c r="O172">
+        <v>10</v>
+      </c>
+      <c r="P172">
+        <v>40</v>
+      </c>
+      <c r="Q172">
+        <v>9</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>1</v>
+      </c>
+      <c r="T172">
+        <v>350</v>
+      </c>
+      <c r="U172">
+        <v>1</v>
+      </c>
+      <c r="W172">
+        <v>100</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>503</v>
+      </c>
+      <c r="C173" t="s">
+        <v>500</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+      <c r="E173" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" t="s">
+        <v>16</v>
+      </c>
+      <c r="H173" t="s">
+        <v>409</v>
+      </c>
+      <c r="I173">
+        <v>0.05</v>
+      </c>
+      <c r="J173">
+        <v>0.05</v>
+      </c>
+      <c r="K173">
+        <v>5</v>
+      </c>
+      <c r="L173">
+        <v>300</v>
+      </c>
+      <c r="M173">
+        <v>1000</v>
+      </c>
+      <c r="N173">
+        <v>1000</v>
+      </c>
+      <c r="O173">
+        <v>10</v>
+      </c>
+      <c r="P173">
+        <v>40</v>
+      </c>
+      <c r="Q173">
+        <v>9</v>
+      </c>
+      <c r="R173">
+        <v>2</v>
+      </c>
+      <c r="S173">
+        <v>1</v>
+      </c>
+      <c r="T173">
+        <v>350</v>
+      </c>
+      <c r="U173">
+        <v>1</v>
+      </c>
+      <c r="W173">
+        <v>100</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>504</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" t="s">
+        <v>16</v>
+      </c>
+      <c r="F174" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" t="s">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s">
+        <v>407</v>
+      </c>
+      <c r="I174">
+        <v>0.05</v>
+      </c>
+      <c r="J174">
+        <v>0.05</v>
+      </c>
+      <c r="K174">
+        <v>5</v>
+      </c>
+      <c r="L174">
+        <v>300</v>
+      </c>
+      <c r="M174">
+        <v>1000</v>
+      </c>
+      <c r="N174">
+        <v>1000</v>
+      </c>
+      <c r="O174">
+        <v>10</v>
+      </c>
+      <c r="P174">
+        <v>40</v>
+      </c>
+      <c r="Q174">
+        <v>9</v>
+      </c>
+      <c r="R174">
+        <v>2</v>
+      </c>
+      <c r="S174">
+        <v>1</v>
+      </c>
+      <c r="T174">
+        <v>350</v>
+      </c>
+      <c r="U174">
+        <v>1</v>
+      </c>
+      <c r="W174">
+        <v>100</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>505</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175" t="s">
+        <v>16</v>
+      </c>
+      <c r="G175" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s">
+        <v>403</v>
+      </c>
+      <c r="I175">
+        <v>0.05</v>
+      </c>
+      <c r="J175">
+        <v>0.05</v>
+      </c>
+      <c r="K175">
+        <v>5</v>
+      </c>
+      <c r="L175">
+        <v>300</v>
+      </c>
+      <c r="M175">
+        <v>1000</v>
+      </c>
+      <c r="N175">
+        <v>1000</v>
+      </c>
+      <c r="O175">
+        <v>10</v>
+      </c>
+      <c r="P175">
+        <v>40</v>
+      </c>
+      <c r="Q175">
+        <v>9</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>1</v>
+      </c>
+      <c r="T175">
+        <v>350</v>
+      </c>
+      <c r="U175">
+        <v>1</v>
+      </c>
+      <c r="W175">
+        <v>100</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="C176" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D176" t="s">
+        <v>16</v>
+      </c>
+      <c r="E176" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176" t="s">
+        <v>16</v>
+      </c>
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="I176" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J176" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K176" s="22">
+        <v>5</v>
+      </c>
+      <c r="L176" s="22">
+        <v>300</v>
+      </c>
+      <c r="M176" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N176" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O176" s="22">
+        <v>10</v>
+      </c>
+      <c r="P176" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q176" s="22">
+        <v>9</v>
+      </c>
+      <c r="R176" s="22">
+        <v>2</v>
+      </c>
+      <c r="S176" s="22">
+        <v>1</v>
+      </c>
+      <c r="T176" s="22">
+        <v>350</v>
+      </c>
+      <c r="U176" s="22">
+        <v>1</v>
+      </c>
+      <c r="W176" s="22">
+        <v>100</v>
+      </c>
+      <c r="X176" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z176" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA176" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>510</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="D177" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177" t="s">
+        <v>16</v>
+      </c>
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0.4</v>
+      </c>
+      <c r="J177">
+        <v>0.4</v>
+      </c>
+      <c r="K177">
+        <v>5</v>
+      </c>
+      <c r="L177">
+        <v>300</v>
+      </c>
+      <c r="M177">
+        <v>1000</v>
+      </c>
+      <c r="N177">
+        <v>1000</v>
+      </c>
+      <c r="O177">
+        <v>10</v>
+      </c>
+      <c r="P177">
+        <v>40</v>
+      </c>
+      <c r="Q177">
+        <v>9</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>1</v>
+      </c>
+      <c r="T177">
+        <v>350</v>
+      </c>
+      <c r="U177">
+        <v>1</v>
+      </c>
+      <c r="W177">
+        <v>100</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>511</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D178" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" t="s">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s">
+        <v>296</v>
+      </c>
+      <c r="I178">
+        <v>0.4</v>
+      </c>
+      <c r="J178">
+        <v>0.4</v>
+      </c>
+      <c r="K178">
+        <v>5</v>
+      </c>
+      <c r="L178">
+        <v>300</v>
+      </c>
+      <c r="M178">
+        <v>1000</v>
+      </c>
+      <c r="N178">
+        <v>1000</v>
+      </c>
+      <c r="O178">
+        <v>10</v>
+      </c>
+      <c r="P178">
+        <v>40</v>
+      </c>
+      <c r="Q178">
+        <v>9</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>1</v>
+      </c>
+      <c r="T178">
+        <v>350</v>
+      </c>
+      <c r="U178">
+        <v>1</v>
+      </c>
+      <c r="W178">
+        <v>100</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>517</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0.4</v>
+      </c>
+      <c r="J179">
+        <v>0.05</v>
+      </c>
+      <c r="K179">
+        <v>5</v>
+      </c>
+      <c r="L179">
+        <v>300</v>
+      </c>
+      <c r="M179">
+        <v>1000</v>
+      </c>
+      <c r="N179">
+        <v>1000</v>
+      </c>
+      <c r="O179">
+        <v>10</v>
+      </c>
+      <c r="P179">
+        <v>40</v>
+      </c>
+      <c r="Q179">
+        <v>9</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>1</v>
+      </c>
+      <c r="T179">
+        <v>350</v>
+      </c>
+      <c r="U179">
+        <v>1</v>
+      </c>
+      <c r="W179">
+        <v>100</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>516</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="H180" t="s">
+        <v>296</v>
+      </c>
+      <c r="I180">
+        <v>0.4</v>
+      </c>
+      <c r="J180">
+        <v>0.05</v>
+      </c>
+      <c r="K180">
+        <v>5</v>
+      </c>
+      <c r="L180">
+        <v>300</v>
+      </c>
+      <c r="M180">
+        <v>1000</v>
+      </c>
+      <c r="N180">
+        <v>1000</v>
+      </c>
+      <c r="O180">
+        <v>10</v>
+      </c>
+      <c r="P180">
+        <v>40</v>
+      </c>
+      <c r="Q180">
+        <v>9</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>1</v>
+      </c>
+      <c r="T180">
+        <v>350</v>
+      </c>
+      <c r="U180">
+        <v>1</v>
+      </c>
+      <c r="W180">
+        <v>100</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>518</v>
+      </c>
+      <c r="C181" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0.05</v>
+      </c>
+      <c r="J181">
+        <v>0.4</v>
+      </c>
+      <c r="K181">
+        <v>5</v>
+      </c>
+      <c r="L181">
+        <v>300</v>
+      </c>
+      <c r="M181">
+        <v>1000</v>
+      </c>
+      <c r="N181">
+        <v>1000</v>
+      </c>
+      <c r="O181">
+        <v>10</v>
+      </c>
+      <c r="P181">
+        <v>40</v>
+      </c>
+      <c r="Q181">
+        <v>9</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1</v>
+      </c>
+      <c r="T181">
+        <v>350</v>
+      </c>
+      <c r="U181">
+        <v>1</v>
+      </c>
+      <c r="W181">
+        <v>100</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="C182" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="H182" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="I182" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J182" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="K182" s="22">
+        <v>5</v>
+      </c>
+      <c r="L182" s="22">
+        <v>300</v>
+      </c>
+      <c r="M182" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N182" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O182" s="22">
+        <v>10</v>
+      </c>
+      <c r="P182" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q182" s="22">
+        <v>9</v>
+      </c>
+      <c r="R182" s="22">
+        <v>2</v>
+      </c>
+      <c r="S182" s="22">
+        <v>1</v>
+      </c>
+      <c r="T182" s="22">
+        <v>350</v>
+      </c>
+      <c r="U182" s="22">
+        <v>1</v>
+      </c>
+      <c r="W182" s="22">
+        <v>100</v>
+      </c>
+      <c r="X182" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z182" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA182" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>589</v>
+      </c>
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D183" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="E183" s="26"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="26"/>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0.05</v>
+      </c>
+      <c r="J183">
+        <v>0.05</v>
+      </c>
+      <c r="K183">
+        <v>5</v>
+      </c>
+      <c r="L183">
+        <v>100</v>
+      </c>
+      <c r="M183">
+        <v>1000</v>
+      </c>
+      <c r="N183">
+        <v>1000</v>
+      </c>
+      <c r="O183">
+        <v>10</v>
+      </c>
+      <c r="P183">
+        <v>40</v>
+      </c>
+      <c r="Q183">
+        <v>9</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>1</v>
+      </c>
+      <c r="T183">
+        <v>350</v>
+      </c>
+      <c r="U183">
+        <v>1</v>
+      </c>
+      <c r="W183">
+        <v>100</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>525</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I184">
+        <v>0.05</v>
+      </c>
+      <c r="J184">
+        <v>0.05</v>
+      </c>
+      <c r="K184">
+        <v>5</v>
+      </c>
+      <c r="L184">
+        <v>100</v>
+      </c>
+      <c r="M184">
+        <v>1000</v>
+      </c>
+      <c r="N184">
+        <v>1000</v>
+      </c>
+      <c r="O184">
+        <v>10</v>
+      </c>
+      <c r="P184">
+        <v>40</v>
+      </c>
+      <c r="Q184">
+        <v>9</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>1</v>
+      </c>
+      <c r="T184">
+        <v>350</v>
+      </c>
+      <c r="U184">
+        <v>1</v>
+      </c>
+      <c r="W184">
+        <v>100</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>590</v>
+      </c>
+      <c r="B185" t="s">
+        <v>527</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D185" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="E185" s="26"/>
+      <c r="F185" s="26"/>
+      <c r="G185" s="26"/>
+      <c r="H185" t="s">
+        <v>414</v>
+      </c>
+      <c r="I185">
+        <v>0.05</v>
+      </c>
+      <c r="J185">
+        <v>0.05</v>
+      </c>
+      <c r="K185">
+        <v>5</v>
+      </c>
+      <c r="L185">
+        <v>100</v>
+      </c>
+      <c r="M185">
+        <v>1000</v>
+      </c>
+      <c r="N185">
+        <v>1000</v>
+      </c>
+      <c r="O185">
+        <v>10</v>
+      </c>
+      <c r="P185">
+        <v>40</v>
+      </c>
+      <c r="Q185">
+        <v>9</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
+      <c r="T185">
+        <v>350</v>
+      </c>
+      <c r="U185">
+        <v>1</v>
+      </c>
+      <c r="W185">
+        <v>100</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="B186" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="D186" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="E186" s="30"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="I186" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J186" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K186" s="22">
+        <v>5</v>
+      </c>
+      <c r="L186" s="22">
+        <v>100</v>
+      </c>
+      <c r="M186" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N186" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O186" s="22">
+        <v>10</v>
+      </c>
+      <c r="P186" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q186" s="22">
+        <v>9</v>
+      </c>
+      <c r="R186" s="22">
+        <v>2</v>
+      </c>
+      <c r="S186" s="22">
+        <v>1</v>
+      </c>
+      <c r="T186" s="22">
+        <v>350</v>
+      </c>
+      <c r="U186" s="22">
+        <v>1</v>
+      </c>
+      <c r="W186" s="22">
+        <v>100</v>
+      </c>
+      <c r="X186" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y186" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z186" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA186" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>532</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0.05</v>
+      </c>
+      <c r="J187">
+        <v>0.05</v>
+      </c>
+      <c r="K187">
+        <v>5</v>
+      </c>
+      <c r="L187">
+        <v>700</v>
+      </c>
+      <c r="M187">
+        <v>1000</v>
+      </c>
+      <c r="N187">
+        <v>1000</v>
+      </c>
+      <c r="O187">
+        <v>10</v>
+      </c>
+      <c r="P187">
+        <v>40</v>
+      </c>
+      <c r="Q187">
+        <v>9</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>1</v>
+      </c>
+      <c r="T187">
+        <v>350</v>
+      </c>
+      <c r="U187">
+        <v>1</v>
+      </c>
+      <c r="W187">
+        <v>100</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>533</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="I188">
+        <v>0.05</v>
+      </c>
+      <c r="J188">
+        <v>0.05</v>
+      </c>
+      <c r="K188">
+        <v>5</v>
+      </c>
+      <c r="L188">
+        <v>700</v>
+      </c>
+      <c r="M188">
+        <v>1000</v>
+      </c>
+      <c r="N188">
+        <v>1000</v>
+      </c>
+      <c r="O188">
+        <v>10</v>
+      </c>
+      <c r="P188">
+        <v>40</v>
+      </c>
+      <c r="Q188">
+        <v>9</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>1</v>
+      </c>
+      <c r="T188">
+        <v>350</v>
+      </c>
+      <c r="U188">
+        <v>1</v>
+      </c>
+      <c r="W188">
+        <v>100</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>534</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s">
+        <v>414</v>
+      </c>
+      <c r="I189">
+        <v>0.05</v>
+      </c>
+      <c r="J189">
+        <v>0.05</v>
+      </c>
+      <c r="K189">
+        <v>5</v>
+      </c>
+      <c r="L189">
+        <v>700</v>
+      </c>
+      <c r="M189">
+        <v>1000</v>
+      </c>
+      <c r="N189">
+        <v>1000</v>
+      </c>
+      <c r="O189">
+        <v>10</v>
+      </c>
+      <c r="P189">
+        <v>40</v>
+      </c>
+      <c r="Q189">
+        <v>9</v>
+      </c>
+      <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
+        <v>1</v>
+      </c>
+      <c r="T189">
+        <v>350</v>
+      </c>
+      <c r="U189">
+        <v>1</v>
+      </c>
+      <c r="W189">
+        <v>100</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="C190" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="D190" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="I190" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J190" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K190" s="22">
+        <v>5</v>
+      </c>
+      <c r="L190" s="22">
+        <v>700</v>
+      </c>
+      <c r="M190" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N190" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O190" s="22">
+        <v>10</v>
+      </c>
+      <c r="P190" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q190" s="22">
+        <v>9</v>
+      </c>
+      <c r="R190" s="22">
+        <v>2</v>
+      </c>
+      <c r="S190" s="22">
+        <v>1</v>
+      </c>
+      <c r="T190" s="22">
+        <v>350</v>
+      </c>
+      <c r="U190" s="22">
+        <v>1</v>
+      </c>
+      <c r="W190" s="22">
+        <v>100</v>
+      </c>
+      <c r="X190" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y190" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z190" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA190" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>538</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
+        <v>296</v>
+      </c>
+      <c r="I191">
+        <v>0.05</v>
+      </c>
+      <c r="J191">
+        <v>0.05</v>
+      </c>
+      <c r="K191">
+        <v>5</v>
+      </c>
+      <c r="L191" t="s">
+        <v>465</v>
+      </c>
+      <c r="M191">
+        <v>1000</v>
+      </c>
+      <c r="N191">
+        <v>1000</v>
+      </c>
+      <c r="O191" t="s">
+        <v>463</v>
+      </c>
+      <c r="P191" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q191">
+        <v>9</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>1</v>
+      </c>
+      <c r="T191">
+        <v>350</v>
+      </c>
+      <c r="U191">
+        <v>1</v>
+      </c>
+      <c r="W191">
+        <v>100</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="C192" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F192" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" s="22">
+        <v>0</v>
+      </c>
+      <c r="I192" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J192" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K192" s="22">
+        <v>5</v>
+      </c>
+      <c r="L192" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="M192" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N192" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O192" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="P192" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q192" s="22">
+        <v>9</v>
+      </c>
+      <c r="R192" s="22">
+        <v>2</v>
+      </c>
+      <c r="S192" s="22">
+        <v>1</v>
+      </c>
+      <c r="T192" s="22">
+        <v>350</v>
+      </c>
+      <c r="U192" s="22">
+        <v>1</v>
+      </c>
+      <c r="W192" s="22">
+        <v>100</v>
+      </c>
+      <c r="X192" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y192" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z192" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA192" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB192" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>543</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s">
+        <v>409</v>
+      </c>
+      <c r="I193">
+        <v>0.05</v>
+      </c>
+      <c r="J193">
+        <v>0.05</v>
+      </c>
+      <c r="K193">
+        <v>5</v>
+      </c>
+      <c r="L193">
+        <v>300</v>
+      </c>
+      <c r="M193">
+        <v>1000</v>
+      </c>
+      <c r="N193">
+        <v>1000</v>
+      </c>
+      <c r="O193">
+        <v>10</v>
+      </c>
+      <c r="P193">
+        <v>40</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>1</v>
+      </c>
+      <c r="T193">
+        <v>350</v>
+      </c>
+      <c r="U193">
+        <v>1</v>
+      </c>
+      <c r="W193">
+        <v>100</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>542</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E194" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s">
+        <v>414</v>
+      </c>
+      <c r="I194">
+        <v>0.05</v>
+      </c>
+      <c r="J194">
+        <v>0.05</v>
+      </c>
+      <c r="K194">
+        <v>5</v>
+      </c>
+      <c r="L194">
+        <v>300</v>
+      </c>
+      <c r="M194">
+        <v>1000</v>
+      </c>
+      <c r="N194">
+        <v>1000</v>
+      </c>
+      <c r="O194">
+        <v>10</v>
+      </c>
+      <c r="P194">
+        <v>40</v>
+      </c>
+      <c r="Q194">
+        <v>9</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
+        <v>1</v>
+      </c>
+      <c r="T194">
+        <v>350</v>
+      </c>
+      <c r="U194">
+        <v>1</v>
+      </c>
+      <c r="W194">
+        <v>100</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>541</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="D195" t="s">
+        <v>16</v>
+      </c>
+      <c r="E195" t="s">
+        <v>16</v>
+      </c>
+      <c r="F195" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" t="s">
+        <v>16</v>
+      </c>
+      <c r="H195" t="s">
+        <v>296</v>
+      </c>
+      <c r="I195">
+        <v>0.05</v>
+      </c>
+      <c r="J195">
+        <v>0.05</v>
+      </c>
+      <c r="K195">
+        <v>5</v>
+      </c>
+      <c r="L195">
+        <v>300</v>
+      </c>
+      <c r="M195">
+        <v>1000</v>
+      </c>
+      <c r="N195">
+        <v>1000</v>
+      </c>
+      <c r="O195">
+        <v>10</v>
+      </c>
+      <c r="P195">
+        <v>40</v>
+      </c>
+      <c r="Q195">
+        <v>9</v>
+      </c>
+      <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
+        <v>1</v>
+      </c>
+      <c r="T195">
+        <v>350</v>
+      </c>
+      <c r="U195">
+        <v>1</v>
+      </c>
+      <c r="W195">
+        <v>100</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="C196" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="D196" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" t="s">
+        <v>16</v>
+      </c>
+      <c r="H196" s="22">
+        <v>0</v>
+      </c>
+      <c r="I196" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J196" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K196" s="22">
+        <v>5</v>
+      </c>
+      <c r="L196" s="22">
+        <v>300</v>
+      </c>
+      <c r="M196" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N196" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O196" s="22">
+        <v>10</v>
+      </c>
+      <c r="P196" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q196" s="22">
+        <v>9</v>
+      </c>
+      <c r="R196" s="22">
+        <v>2</v>
+      </c>
+      <c r="S196" s="22">
+        <v>1</v>
+      </c>
+      <c r="T196" s="22">
+        <v>350</v>
+      </c>
+      <c r="U196" s="22">
+        <v>1</v>
+      </c>
+      <c r="W196" s="22">
+        <v>100</v>
+      </c>
+      <c r="X196" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y196" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z196" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA196" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>549</v>
+      </c>
+      <c r="C197" t="s">
+        <v>548</v>
+      </c>
+      <c r="D197" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" t="s">
+        <v>16</v>
+      </c>
+      <c r="H197" t="s">
+        <v>296</v>
+      </c>
+      <c r="I197">
+        <v>0.05</v>
+      </c>
+      <c r="J197">
+        <v>0.4</v>
+      </c>
+      <c r="K197">
+        <v>5</v>
+      </c>
+      <c r="L197">
+        <v>300</v>
+      </c>
+      <c r="M197">
+        <v>1000</v>
+      </c>
+      <c r="N197">
+        <v>1000</v>
+      </c>
+      <c r="O197">
+        <v>10</v>
+      </c>
+      <c r="P197">
+        <v>40</v>
+      </c>
+      <c r="Q197">
+        <v>9</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>1</v>
+      </c>
+      <c r="T197">
+        <v>350</v>
+      </c>
+      <c r="U197">
+        <v>1</v>
+      </c>
+      <c r="W197">
+        <v>100</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>550</v>
+      </c>
+      <c r="C198" t="s">
+        <v>552</v>
+      </c>
+      <c r="D198" t="s">
+        <v>16</v>
+      </c>
+      <c r="E198" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" t="s">
+        <v>16</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0.4</v>
+      </c>
+      <c r="J198">
+        <v>0.05</v>
+      </c>
+      <c r="K198">
+        <v>5</v>
+      </c>
+      <c r="L198">
+        <v>300</v>
+      </c>
+      <c r="M198">
+        <v>1000</v>
+      </c>
+      <c r="N198">
+        <v>1000</v>
+      </c>
+      <c r="O198">
+        <v>10</v>
+      </c>
+      <c r="P198">
+        <v>40</v>
+      </c>
+      <c r="Q198">
+        <v>9</v>
+      </c>
+      <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
+        <v>1</v>
+      </c>
+      <c r="T198">
+        <v>350</v>
+      </c>
+      <c r="U198">
+        <v>1</v>
+      </c>
+      <c r="W198">
+        <v>100</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>553</v>
+      </c>
+      <c r="C199" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0.05</v>
+      </c>
+      <c r="J199">
+        <v>0.4</v>
+      </c>
+      <c r="K199">
+        <v>5</v>
+      </c>
+      <c r="L199">
+        <v>300</v>
+      </c>
+      <c r="M199">
+        <v>1000</v>
+      </c>
+      <c r="N199">
+        <v>1000</v>
+      </c>
+      <c r="O199">
+        <v>10</v>
+      </c>
+      <c r="P199">
+        <v>40</v>
+      </c>
+      <c r="Q199">
+        <v>9</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>1</v>
+      </c>
+      <c r="T199">
+        <v>350</v>
+      </c>
+      <c r="U199">
+        <v>1</v>
+      </c>
+      <c r="W199">
+        <v>100</v>
+      </c>
+      <c r="X199">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="C200" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="D200" t="s">
+        <v>16</v>
+      </c>
+      <c r="E200" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200" t="s">
+        <v>16</v>
+      </c>
+      <c r="H200" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="I200" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="J200" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="K200" s="29">
+        <v>5</v>
+      </c>
+      <c r="L200" s="29">
+        <v>300</v>
+      </c>
+      <c r="M200" s="29">
+        <v>1000</v>
+      </c>
+      <c r="N200" s="29">
+        <v>1000</v>
+      </c>
+      <c r="O200" s="29">
+        <v>10</v>
+      </c>
+      <c r="P200" s="29">
+        <v>40</v>
+      </c>
+      <c r="Q200" s="29">
+        <v>9</v>
+      </c>
+      <c r="R200" s="29">
+        <v>2</v>
+      </c>
+      <c r="S200" s="29">
+        <v>1</v>
+      </c>
+      <c r="T200" s="29">
+        <v>350</v>
+      </c>
+      <c r="U200" s="29">
+        <v>1</v>
+      </c>
+      <c r="V200" s="29"/>
+      <c r="W200" s="29">
+        <v>100</v>
+      </c>
+      <c r="X200" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y200" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z200" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA200" s="29" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>574</v>
+      </c>
+      <c r="B201" t="s">
+        <v>557</v>
+      </c>
+      <c r="C201" t="s">
+        <v>556</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0.05</v>
+      </c>
+      <c r="J201">
+        <v>0.05</v>
+      </c>
+      <c r="K201">
+        <v>5</v>
+      </c>
+      <c r="L201">
+        <v>100</v>
+      </c>
+      <c r="M201">
+        <v>1000</v>
+      </c>
+      <c r="N201">
+        <v>1000</v>
+      </c>
+      <c r="O201">
+        <v>10</v>
+      </c>
+      <c r="P201">
+        <v>40</v>
+      </c>
+      <c r="Q201">
+        <v>9</v>
+      </c>
+      <c r="R201">
+        <v>2</v>
+      </c>
+      <c r="S201">
+        <v>1</v>
+      </c>
+      <c r="T201">
+        <v>350</v>
+      </c>
+      <c r="U201">
+        <v>1</v>
+      </c>
+      <c r="W201">
+        <v>100</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>573</v>
+      </c>
+      <c r="B202" t="s">
+        <v>560</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="E202" s="26"/>
+      <c r="F202" s="26"/>
+      <c r="G202" s="26"/>
+      <c r="H202" t="s">
+        <v>414</v>
+      </c>
+      <c r="I202">
+        <v>0.05</v>
+      </c>
+      <c r="J202">
+        <v>0.05</v>
+      </c>
+      <c r="K202">
+        <v>5</v>
+      </c>
+      <c r="L202">
+        <v>100</v>
+      </c>
+      <c r="M202">
+        <v>1000</v>
+      </c>
+      <c r="N202">
+        <v>1000</v>
+      </c>
+      <c r="O202">
+        <v>10</v>
+      </c>
+      <c r="P202">
+        <v>40</v>
+      </c>
+      <c r="Q202">
+        <v>9</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1</v>
+      </c>
+      <c r="T202">
+        <v>350</v>
+      </c>
+      <c r="U202">
+        <v>1</v>
+      </c>
+      <c r="W202">
+        <v>100</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="B203" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="C203" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="E203" s="30"/>
+      <c r="F203" s="30"/>
+      <c r="G203" s="30"/>
+      <c r="H203" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="I203" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J203" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K203" s="22">
+        <v>5</v>
+      </c>
+      <c r="L203" s="22">
+        <v>100</v>
+      </c>
+      <c r="M203" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N203" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O203" s="22">
+        <v>10</v>
+      </c>
+      <c r="P203" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q203" s="22">
+        <v>9</v>
+      </c>
+      <c r="R203" s="22">
+        <v>2</v>
+      </c>
+      <c r="S203" s="22">
+        <v>1</v>
+      </c>
+      <c r="T203" s="22">
+        <v>350</v>
+      </c>
+      <c r="U203" s="22">
+        <v>1</v>
+      </c>
+      <c r="W203" s="22">
+        <v>100</v>
+      </c>
+      <c r="X203" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y203" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z203" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA203" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="37" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>568</v>
+      </c>
+      <c r="C205" t="s">
+        <v>563</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0.05</v>
+      </c>
+      <c r="J205">
+        <v>0.05</v>
+      </c>
+      <c r="K205">
+        <v>5</v>
+      </c>
+      <c r="L205">
+        <v>100</v>
+      </c>
+      <c r="M205">
+        <v>1000</v>
+      </c>
+      <c r="N205">
+        <v>1000</v>
+      </c>
+      <c r="O205">
+        <v>10</v>
+      </c>
+      <c r="P205">
+        <v>40</v>
+      </c>
+      <c r="Q205">
+        <v>9</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>1</v>
+      </c>
+      <c r="T205">
+        <v>350</v>
+      </c>
+      <c r="U205">
+        <v>1</v>
+      </c>
+      <c r="W205">
+        <v>100</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>567</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
+      <c r="H206" t="s">
+        <v>414</v>
+      </c>
+      <c r="I206">
+        <v>0.05</v>
+      </c>
+      <c r="J206">
+        <v>0.05</v>
+      </c>
+      <c r="K206">
+        <v>5</v>
+      </c>
+      <c r="L206">
+        <v>100</v>
+      </c>
+      <c r="M206">
+        <v>1000</v>
+      </c>
+      <c r="N206">
+        <v>1000</v>
+      </c>
+      <c r="O206">
+        <v>10</v>
+      </c>
+      <c r="P206">
+        <v>40</v>
+      </c>
+      <c r="Q206">
+        <v>9</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>1</v>
+      </c>
+      <c r="T206">
+        <v>350</v>
+      </c>
+      <c r="U206">
+        <v>1</v>
+      </c>
+      <c r="W206">
+        <v>100</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>566</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
+      <c r="F207" s="26"/>
+      <c r="G207" s="26"/>
+      <c r="H207" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="I207">
+        <v>0.05</v>
+      </c>
+      <c r="J207">
+        <v>0.05</v>
+      </c>
+      <c r="K207">
+        <v>5</v>
+      </c>
+      <c r="L207">
+        <v>100</v>
+      </c>
+      <c r="M207">
+        <v>1000</v>
+      </c>
+      <c r="N207">
+        <v>1000</v>
+      </c>
+      <c r="O207">
+        <v>10</v>
+      </c>
+      <c r="P207">
+        <v>40</v>
+      </c>
+      <c r="Q207">
+        <v>9</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>1</v>
+      </c>
+      <c r="T207">
+        <v>350</v>
+      </c>
+      <c r="U207">
+        <v>1</v>
+      </c>
+      <c r="W207">
+        <v>100</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="H208" s="22">
+        <v>0</v>
+      </c>
+      <c r="I208" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="J208" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="K208" s="22">
+        <v>5</v>
+      </c>
+      <c r="L208" s="22">
+        <v>100</v>
+      </c>
+      <c r="M208" s="22">
+        <v>1000</v>
+      </c>
+      <c r="N208" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O208" s="22">
+        <v>10</v>
+      </c>
+      <c r="P208" s="22">
+        <v>40</v>
+      </c>
+      <c r="Q208" s="22">
+        <v>9</v>
+      </c>
+      <c r="R208" s="22">
+        <v>2</v>
+      </c>
+      <c r="S208" s="22">
+        <v>1</v>
+      </c>
+      <c r="T208" s="22">
+        <v>350</v>
+      </c>
+      <c r="U208" s="22">
+        <v>1</v>
+      </c>
+      <c r="W208" s="22">
+        <v>100</v>
+      </c>
+      <c r="X208" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z208" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA208" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="171" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C171" t="s">
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="172" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C172" s="21" t="s">
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="173" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C173" t="s">
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C177" t="s">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C179" t="s">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
         <v>188</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H229" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C180" t="s">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C181" s="20" t="s">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C231" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C182" t="s">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C183" t="s">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>227</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B234" t="s">
         <v>226</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C234" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C185" s="8" t="s">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C235" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C186" t="s">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C187" t="s">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C188" t="s">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C191" t="s">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C192" t="s">
+    <row r="242" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C193" t="s">
+    <row r="243" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C194" t="s">
+    <row r="244" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C195" t="s">
+    <row r="245" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C196" t="s">
+    <row r="246" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D198" s="6" t="s">
+    <row r="248" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D248" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D199" t="s">
+    <row r="249" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D249" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="200" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D200" s="7" t="s">
+    <row r="250" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D250" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="201" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D201" s="3" t="s">
+    <row r="251" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D251" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="202" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D202" s="3" t="s">
+    <row r="252" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D252" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D203" s="3" t="s">
+    <row r="253" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D253" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="204" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D204" s="3" t="s">
+    <row r="254" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D254" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="205" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D205" s="6" t="s">
+    <row r="255" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D255" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="206" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D206" s="3" t="s">
+    <row r="256" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D256" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="208" spans="3:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D208" s="3" t="s">
+    <row r="258" spans="4:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D258" s="3" t="s">
         <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C172" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
+    <hyperlink ref="C222" r:id="rId1" display="https://www.natureserve.org/sites/default/files/publications/files/natureserveconservationstatusfactors_apr12.pdf" xr:uid="{0084F411-030C-4AB0-936F-5DA9CEBDCCC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FA6279-E689-4C49-8985-23DAA3BE3327}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="D2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>